--- a/IRCS3_local/Output/IRCS_Control17.3_Trad_Conv.xlsx
+++ b/IRCS3_local/Output/IRCS_Control17.3_Trad_Conv.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="32">
   <si>
     <t>Valuation Year</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Trad-C</t>
   </si>
   <si>
+    <t>Grand Total Summary</t>
+  </si>
+  <si>
     <t>GOC</t>
   </si>
   <si>
@@ -98,9 +101,6 @@
   </si>
   <si>
     <t>Total All from DV</t>
-  </si>
-  <si>
-    <t>Grand Total Summary</t>
   </si>
   <si>
     <t>Check</t>
@@ -122,6 +122,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* (#,##0)_);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -186,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -194,6 +197,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -508,19 +512,25 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2">
+        <v>2025</v>
+      </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>16233</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
@@ -606,20 +616,104 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5">
+        <v>446705</v>
+      </c>
+      <c r="D7" s="5">
+        <v>97878178390833.59</v>
+      </c>
+      <c r="E7" s="5">
+        <v>117706</v>
+      </c>
+      <c r="F7" s="5">
+        <v>71745578935142.7</v>
+      </c>
+      <c r="G7" s="5">
+        <v>328999</v>
+      </c>
+      <c r="H7" s="5">
+        <v>26132599455690.89</v>
+      </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5">
+        <v>446705</v>
+      </c>
+      <c r="D8" s="5">
+        <v>97952169677598.09</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5879</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5387462405536</v>
+      </c>
+      <c r="G8" s="5">
+        <v>440826</v>
+      </c>
+      <c r="H8" s="5">
+        <v>92564707272062.09</v>
+      </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5">
+        <v>446705</v>
+      </c>
+      <c r="D9" s="5">
+        <v>97878178390833.59</v>
+      </c>
+      <c r="E9" s="5">
+        <v>6253</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4977570137311</v>
+      </c>
+      <c r="G9" s="5">
+        <v>440452</v>
+      </c>
+      <c r="H9" s="5">
+        <v>92900608253522.59</v>
+      </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5">
+        <v>446705</v>
+      </c>
+      <c r="D10" s="5">
+        <v>97863380133480.7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>117695.8046571798</v>
+      </c>
+      <c r="F10" s="5">
+        <v>71730780677789.8</v>
+      </c>
+      <c r="G10" s="5">
+        <v>329009.1953428202</v>
+      </c>
+      <c r="H10" s="5">
+        <v>26132599455690.91</v>
       </c>
     </row>
   </sheetData>
@@ -678,160 +772,160 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:40">
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>24</v>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:40">
-      <c r="B4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AH4" s="6" t="s">
+      <c r="AH4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:40">
-      <c r="B5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH5" s="6" t="s">
-        <v>26</v>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:40">
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH6" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH6" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -861,160 +955,160 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:40">
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>24</v>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:40">
-      <c r="B4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AH4" s="6" t="s">
+      <c r="AH4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:40">
-      <c r="B5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH5" s="6" t="s">
-        <v>26</v>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:40">
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH6" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH6" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1044,160 +1138,160 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:40">
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>24</v>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:40">
-      <c r="B4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AH4" s="6" t="s">
+      <c r="AH4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:40">
-      <c r="B5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH5" s="6" t="s">
-        <v>26</v>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:40">
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH6" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH6" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1227,160 +1321,160 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:40">
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>24</v>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:40">
-      <c r="B4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AH4" s="6" t="s">
+      <c r="AH4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:40">
-      <c r="B5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH5" s="6" t="s">
-        <v>26</v>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:40">
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH6" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH6" s="7" t="s">
         <v>27</v>
       </c>
     </row>

--- a/IRCS3_local/Output/IRCS_Control17.3_Trad_Conv.xlsx
+++ b/IRCS3_local/Output/IRCS_Control17.3_Trad_Conv.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="124">
   <si>
     <t>Valuation Year</t>
   </si>
@@ -106,16 +106,292 @@
     <t>Check</t>
   </si>
   <si>
+    <t>Total Trad All from DV</t>
+  </si>
+  <si>
+    <t>AG_L_IDR_NI_2014</t>
+  </si>
+  <si>
+    <t>AG_L_IDR_NO_2014</t>
+  </si>
+  <si>
+    <t>AG_L_IDR_NO_2016</t>
+  </si>
+  <si>
+    <t>AG_L_IDR_NO_2017</t>
+  </si>
+  <si>
+    <t>AG_L_IDR_NO_2018</t>
+  </si>
+  <si>
+    <t>AG_L_IDR_NO_2019</t>
+  </si>
+  <si>
+    <t>AG_L_IDR_NO_2020</t>
+  </si>
+  <si>
+    <t>AG_L_IDR_NO_2021</t>
+  </si>
+  <si>
+    <t>AG_L_IDR_NO_2022</t>
+  </si>
+  <si>
+    <t>AG_L_IDR_NO_2023</t>
+  </si>
+  <si>
+    <t>AG_L_IDR_NO_2024</t>
+  </si>
+  <si>
+    <t>AG_L_IDR_NO_2025</t>
+  </si>
+  <si>
+    <t>AG_L_IDR_PI_2014</t>
+  </si>
+  <si>
+    <t>AG_L_IDR_PI_2015</t>
+  </si>
+  <si>
+    <t>AG_L_IDR_PI_2016</t>
+  </si>
+  <si>
+    <t>AG_L_USD_NI_2014</t>
+  </si>
+  <si>
+    <t>AG_L_USD_NO_2023</t>
+  </si>
+  <si>
+    <t>AG_L_USD_NO_2024</t>
+  </si>
+  <si>
+    <t>AG_L_USD_NO_2025</t>
+  </si>
+  <si>
+    <t>AG_L_USD_PI_2014</t>
+  </si>
+  <si>
+    <t>AG_L_USD_PI_2016</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_NI_2023</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_NI_2024</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_NI_2025</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_NO_2019</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_NO_2020</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_NO_2021</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_NO_2022</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_NO_2023</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_NO_2024</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_NO_2025</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_PI_2014</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_PI_2015</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_PI_2016</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_PI_2017</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_PI_2018</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_PI_2019</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_PI_2020</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_PI_2021</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_PI_2022</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_PI_2023</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_PI_2024</t>
+  </si>
+  <si>
+    <t>KT_L_IDR_PI_2025</t>
+  </si>
+  <si>
+    <t>KT_L_USD_NI_2023</t>
+  </si>
+  <si>
+    <t>KT_L_USD_NI_2024</t>
+  </si>
+  <si>
+    <t>KT_L_USD_NI_2025</t>
+  </si>
+  <si>
+    <t>NK_L_IDR_NI_2023</t>
+  </si>
+  <si>
+    <t>NK_L_IDR_NI_2024</t>
+  </si>
+  <si>
+    <t>NK_L_IDR_NI_2025</t>
+  </si>
+  <si>
+    <t>NK_L_IDR_NO_2014</t>
+  </si>
+  <si>
+    <t>NK_L_IDR_NO_2015</t>
+  </si>
+  <si>
+    <t>NK_L_IDR_NO_2016</t>
+  </si>
+  <si>
+    <t>NK_L_IDR_NO_2017</t>
+  </si>
+  <si>
+    <t>NK_L_IDR_NO_2018</t>
+  </si>
+  <si>
+    <t>NK_L_IDR_NO_2019</t>
+  </si>
+  <si>
+    <t>NK_L_IDR_NO_2020</t>
+  </si>
+  <si>
+    <t>NK_L_IDR_NO_2021</t>
+  </si>
+  <si>
+    <t>NK_L_IDR_NO_2022</t>
+  </si>
+  <si>
+    <t>NK_L_IDR_NO_2023</t>
+  </si>
+  <si>
+    <t>NK_L_IDR_NO_2024</t>
+  </si>
+  <si>
+    <t>NK_L_IDR_NO_2025</t>
+  </si>
+  <si>
+    <t>NK_L_IDR_PI_2014</t>
+  </si>
+  <si>
+    <t>NK_L_USD_NI_2023</t>
+  </si>
+  <si>
+    <t>NK_L_USD_NI_2024</t>
+  </si>
+  <si>
+    <t>NK_L_USD_NI_2025</t>
+  </si>
+  <si>
+    <t>NK_L_USD_NO_2023</t>
+  </si>
+  <si>
+    <t>NK_L_USD_NO_2024</t>
+  </si>
+  <si>
+    <t>NK_L_USD_NO_2025</t>
+  </si>
+  <si>
     <t>Total BTPN</t>
   </si>
   <si>
+    <t>CC%_NK_L_IDR_NO_2014</t>
+  </si>
+  <si>
+    <t>CC%_NK_L_IDR_NO_2015</t>
+  </si>
+  <si>
+    <t>CC%_NK_L_IDR_NO_2016</t>
+  </si>
+  <si>
+    <t>CC%_NK_L_IDR_NO_2017</t>
+  </si>
+  <si>
+    <t>CC%_NK_L_IDR_NO_2018</t>
+  </si>
+  <si>
+    <t>CC%_NK_L_IDR_NO_2019</t>
+  </si>
+  <si>
+    <t>CC%_NK_L_IDR_NO_2020</t>
+  </si>
+  <si>
+    <t>CC%_NK_L_IDR_NO_2021</t>
+  </si>
+  <si>
+    <t>CC%_NK_L_IDR_NO_2022</t>
+  </si>
+  <si>
+    <t>CC%_NK_L_IDR_NO_2023</t>
+  </si>
+  <si>
+    <t>CC%_NK_L_IDR_NO_2024</t>
+  </si>
+  <si>
+    <t>CC%_NK_L_IDR_NO_2025</t>
+  </si>
+  <si>
     <t>Total Health non-YRT</t>
   </si>
   <si>
+    <t>AG_H_IDR_NO_2024</t>
+  </si>
+  <si>
+    <t>AG_H_IDR_NO_2025</t>
+  </si>
+  <si>
+    <t>H_IDR_NO_2025</t>
+  </si>
+  <si>
+    <t>KT_H_IDR_NO_2021</t>
+  </si>
+  <si>
+    <t>KT_H_IDR_NO_2022</t>
+  </si>
+  <si>
+    <t>NK_H_IDR_NO_2023</t>
+  </si>
+  <si>
+    <t>NK_H_IDR_NO_2024</t>
+  </si>
+  <si>
+    <t>NK_H_IDR_NO_2025</t>
+  </si>
+  <si>
     <t>Total Health YRT</t>
   </si>
   <si>
+    <t>H_IDR_YR_2024</t>
+  </si>
+  <si>
+    <t>H_IDR_YR_2025</t>
+  </si>
+  <si>
     <t>Total C</t>
+  </si>
+  <si>
+    <t>NK_L_IDR_NO</t>
   </si>
 </sst>
 </file>
@@ -189,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -200,6 +476,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,25 +789,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>2025</v>
-      </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>6</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>16233</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
@@ -753,7 +1024,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:AN6"/>
+  <dimension ref="B3:AN74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -882,23 +1153,137 @@
       <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="8">
+        <v>465605</v>
+      </c>
+      <c r="E4" s="8">
+        <v>99362594006870.52</v>
+      </c>
+      <c r="F4" s="8">
+        <v>465502</v>
+      </c>
+      <c r="G4" s="8">
+        <v>93153093759596.45</v>
+      </c>
+      <c r="H4" s="8">
+        <v>103</v>
+      </c>
+      <c r="I4" s="8">
+        <v>6209500247274.062</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>28</v>
+        <v>97</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>329004</v>
+      </c>
+      <c r="N4" s="8">
+        <v>19942298022476.16</v>
+      </c>
+      <c r="O4" s="8">
+        <v>-329004</v>
+      </c>
+      <c r="P4" s="8">
+        <v>-19942298022476.16</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>29</v>
+        <v>110</v>
+      </c>
+      <c r="S4" s="8">
+        <v>18793</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1484414201978</v>
+      </c>
+      <c r="U4" s="8">
+        <v>18792</v>
+      </c>
+      <c r="V4" s="8">
+        <v>1465216801977.6</v>
+      </c>
+      <c r="W4" s="8">
+        <v>1</v>
+      </c>
+      <c r="X4" s="8">
+        <v>19197400000.3999</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>30</v>
+        <v>119</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>107</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>1414058.91815</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>107</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>1414058.91815</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>31</v>
+        <v>122</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>329004</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>19942298022476.16</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>-329004</v>
+      </c>
+      <c r="AN4" s="8">
+        <v>-19942298022476.16</v>
       </c>
     </row>
     <row r="5" spans="2:40">
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8">
+        <v>446705</v>
+      </c>
+      <c r="E5" s="8">
+        <v>97878178390833.59</v>
+      </c>
+      <c r="F5" s="8">
+        <v>117706</v>
+      </c>
+      <c r="G5" s="8">
+        <v>71745578935142.7</v>
+      </c>
+      <c r="H5" s="8">
+        <v>328999</v>
+      </c>
+      <c r="I5" s="8">
+        <v>26132599455690.89</v>
+      </c>
       <c r="J5" s="7" t="s">
         <v>18</v>
       </c>
@@ -916,6 +1301,27 @@
       <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="C6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="8">
+        <v>18900</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1484415616036.922</v>
+      </c>
+      <c r="F6" s="8">
+        <v>347796</v>
+      </c>
+      <c r="G6" s="8">
+        <v>21407514824453.75</v>
+      </c>
+      <c r="H6" s="8">
+        <v>-328896</v>
+      </c>
+      <c r="I6" s="8">
+        <v>-19923099208416.83</v>
+      </c>
       <c r="J6" s="7" t="s">
         <v>27</v>
       </c>
@@ -927,6 +1333,2053 @@
       </c>
       <c r="AH6" s="7" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:40">
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5">
+        <v>18046</v>
+      </c>
+      <c r="D7" s="5">
+        <v>144047775000</v>
+      </c>
+      <c r="E7" s="5">
+        <v>144047775000</v>
+      </c>
+      <c r="F7" s="5">
+        <v>18046</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>58886344873.047</v>
+      </c>
+      <c r="N7" s="5">
+        <v>3748</v>
+      </c>
+      <c r="O7" s="5">
+        <v>-3748</v>
+      </c>
+      <c r="P7" s="5">
+        <v>-58886344873.047</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="S7" s="5">
+        <v>5596</v>
+      </c>
+      <c r="T7" s="5">
+        <v>139900000000</v>
+      </c>
+      <c r="U7" s="5">
+        <v>139900000000</v>
+      </c>
+      <c r="V7" s="5">
+        <v>5596</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>58</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>503976</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>58</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>503976</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>19942298022476.16</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>329004</v>
+      </c>
+      <c r="AM7" s="5">
+        <v>-329004</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>-19942298022476.16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40">
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5">
+        <v>126</v>
+      </c>
+      <c r="D8" s="5">
+        <v>16900000000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>16900000000</v>
+      </c>
+      <c r="F8" s="5">
+        <v>126</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>245268194631.12</v>
+      </c>
+      <c r="N8" s="5">
+        <v>8493</v>
+      </c>
+      <c r="O8" s="5">
+        <v>-8493</v>
+      </c>
+      <c r="P8" s="5">
+        <v>-245268194631.12</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="S8" s="5">
+        <v>12899</v>
+      </c>
+      <c r="T8" s="5">
+        <v>1333792501978</v>
+      </c>
+      <c r="U8" s="5">
+        <v>1314620101977.6</v>
+      </c>
+      <c r="V8" s="5">
+        <v>12899</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
+        <v>19172400000.3999</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>49</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>910082.91815</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>49</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>910082.91815</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40">
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>362107623</v>
+      </c>
+      <c r="E9" s="5">
+        <v>362107623</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>805240720265.75</v>
+      </c>
+      <c r="N9" s="5">
+        <v>16555</v>
+      </c>
+      <c r="O9" s="5">
+        <v>-16555</v>
+      </c>
+      <c r="P9" s="5">
+        <v>-805240720265.75</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="S9" s="5">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>25000000</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <v>1</v>
+      </c>
+      <c r="X9" s="5">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40">
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1477086224</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1477086224</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1419686491263.5</v>
+      </c>
+      <c r="N10" s="5">
+        <v>22175</v>
+      </c>
+      <c r="O10" s="5">
+        <v>-22175</v>
+      </c>
+      <c r="P10" s="5">
+        <v>-1419686491263.5</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="S10" s="5">
+        <v>58</v>
+      </c>
+      <c r="T10" s="5">
+        <v>7200000000</v>
+      </c>
+      <c r="U10" s="5">
+        <v>7200000000</v>
+      </c>
+      <c r="V10" s="5">
+        <v>58</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5">
+        <v>898308742</v>
+      </c>
+      <c r="E11" s="5">
+        <v>898308742</v>
+      </c>
+      <c r="F11" s="5">
+        <v>7</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1741763917270.2</v>
+      </c>
+      <c r="N11" s="5">
+        <v>23252</v>
+      </c>
+      <c r="O11" s="5">
+        <v>-23252</v>
+      </c>
+      <c r="P11" s="5">
+        <v>-1741763917270.2</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="S11" s="5">
+        <v>23</v>
+      </c>
+      <c r="T11" s="5">
+        <v>3400000000</v>
+      </c>
+      <c r="U11" s="5">
+        <v>3400000000</v>
+      </c>
+      <c r="V11" s="5">
+        <v>23</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40">
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5">
+        <v>871541119</v>
+      </c>
+      <c r="E12" s="5">
+        <v>871541119</v>
+      </c>
+      <c r="F12" s="5">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>953016466575.72</v>
+      </c>
+      <c r="N12" s="5">
+        <v>24170</v>
+      </c>
+      <c r="O12" s="5">
+        <v>-24170</v>
+      </c>
+      <c r="P12" s="5">
+        <v>-953016466575.72</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1</v>
+      </c>
+      <c r="T12" s="5">
+        <v>300000</v>
+      </c>
+      <c r="U12" s="5">
+        <v>300000</v>
+      </c>
+      <c r="V12" s="5">
+        <v>1</v>
+      </c>
+      <c r="W12" s="5">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:40">
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5">
+        <v>345</v>
+      </c>
+      <c r="D13" s="5">
+        <v>141234954051</v>
+      </c>
+      <c r="E13" s="5">
+        <v>141231623001</v>
+      </c>
+      <c r="F13" s="5">
+        <v>344</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>3331050</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>634599746233.75</v>
+      </c>
+      <c r="N13" s="5">
+        <v>14053</v>
+      </c>
+      <c r="O13" s="5">
+        <v>-14053</v>
+      </c>
+      <c r="P13" s="5">
+        <v>-634599746233.75</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="S13" s="5">
+        <v>108</v>
+      </c>
+      <c r="T13" s="5">
+        <v>54100000</v>
+      </c>
+      <c r="U13" s="5">
+        <v>54100000</v>
+      </c>
+      <c r="V13" s="5">
+        <v>108</v>
+      </c>
+      <c r="W13" s="5">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40">
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5">
+        <v>395</v>
+      </c>
+      <c r="D14" s="5">
+        <v>150062288231</v>
+      </c>
+      <c r="E14" s="5">
+        <v>150062288231</v>
+      </c>
+      <c r="F14" s="5">
+        <v>395</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>541524111582.74</v>
+      </c>
+      <c r="N14" s="5">
+        <v>11107</v>
+      </c>
+      <c r="O14" s="5">
+        <v>-11107</v>
+      </c>
+      <c r="P14" s="5">
+        <v>-541524111582.74</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="S14" s="5">
+        <v>107</v>
+      </c>
+      <c r="T14" s="5">
+        <v>42300000</v>
+      </c>
+      <c r="U14" s="5">
+        <v>42300000</v>
+      </c>
+      <c r="V14" s="5">
+        <v>107</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:40">
+      <c r="B15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="5">
+        <v>970</v>
+      </c>
+      <c r="D15" s="5">
+        <v>311870065541</v>
+      </c>
+      <c r="E15" s="5">
+        <v>311870065541</v>
+      </c>
+      <c r="F15" s="5">
+        <v>970</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>548629320051.33</v>
+      </c>
+      <c r="N15" s="5">
+        <v>8636</v>
+      </c>
+      <c r="O15" s="5">
+        <v>-8636</v>
+      </c>
+      <c r="P15" s="5">
+        <v>-548629320051.33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40">
+      <c r="B16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5">
+        <v>11678</v>
+      </c>
+      <c r="D16" s="5">
+        <v>26243397939322.8</v>
+      </c>
+      <c r="E16" s="5">
+        <v>26243397939326</v>
+      </c>
+      <c r="F16" s="5">
+        <v>11678</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>-3.19921875</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>4452039181669</v>
+      </c>
+      <c r="N16" s="5">
+        <v>52194</v>
+      </c>
+      <c r="O16" s="5">
+        <v>-52194</v>
+      </c>
+      <c r="P16" s="5">
+        <v>-4452039181669</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="5">
+        <v>10270</v>
+      </c>
+      <c r="D17" s="5">
+        <v>16635271587455.5</v>
+      </c>
+      <c r="E17" s="5">
+        <v>16636627319156</v>
+      </c>
+      <c r="F17" s="5">
+        <v>10276</v>
+      </c>
+      <c r="G17" s="5">
+        <v>-6</v>
+      </c>
+      <c r="H17" s="5">
+        <v>-1355731700.5</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>6369593879436</v>
+      </c>
+      <c r="N17" s="5">
+        <v>97434</v>
+      </c>
+      <c r="O17" s="5">
+        <v>-97434</v>
+      </c>
+      <c r="P17" s="5">
+        <v>-6369593879436</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4165</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6158733962437</v>
+      </c>
+      <c r="E18" s="5">
+        <v>6158733962437</v>
+      </c>
+      <c r="F18" s="5">
+        <v>4165</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>2172049648624</v>
+      </c>
+      <c r="N18" s="5">
+        <v>47187</v>
+      </c>
+      <c r="O18" s="5">
+        <v>-47187</v>
+      </c>
+      <c r="P18" s="5">
+        <v>-2172049648624</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="5">
+        <v>31385</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1074396237252</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1074396237252</v>
+      </c>
+      <c r="F19" s="5">
+        <v>31385</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="5">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3223300454</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3223300454</v>
+      </c>
+      <c r="F20" s="5">
+        <v>51</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5">
+        <v>66</v>
+      </c>
+      <c r="D21" s="5">
+        <v>8243848591</v>
+      </c>
+      <c r="E21" s="5">
+        <v>8243848591</v>
+      </c>
+      <c r="F21" s="5">
+        <v>66</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5">
+        <v>227</v>
+      </c>
+      <c r="D22" s="5">
+        <v>21519601110</v>
+      </c>
+      <c r="E22" s="5">
+        <v>21519601110</v>
+      </c>
+      <c r="F22" s="5">
+        <v>227</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="5">
+        <v>139</v>
+      </c>
+      <c r="D23" s="5">
+        <v>799829111543.7</v>
+      </c>
+      <c r="E23" s="5">
+        <v>799829111543.7</v>
+      </c>
+      <c r="F23" s="5">
+        <v>139</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="5">
+        <v>118</v>
+      </c>
+      <c r="D24" s="5">
+        <v>782720050623</v>
+      </c>
+      <c r="E24" s="5">
+        <v>782720050623</v>
+      </c>
+      <c r="F24" s="5">
+        <v>118</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="5">
+        <v>76</v>
+      </c>
+      <c r="D25" s="5">
+        <v>363871136160</v>
+      </c>
+      <c r="E25" s="5">
+        <v>363871136160</v>
+      </c>
+      <c r="F25" s="5">
+        <v>76</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="5">
+        <v>796</v>
+      </c>
+      <c r="D26" s="5">
+        <v>209068378260</v>
+      </c>
+      <c r="E26" s="5">
+        <v>209068378260</v>
+      </c>
+      <c r="F26" s="5">
+        <v>796</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>486990000</v>
+      </c>
+      <c r="E27" s="5">
+        <v>486990000</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="5">
+        <v>63</v>
+      </c>
+      <c r="D28" s="5">
+        <v>29491200000</v>
+      </c>
+      <c r="E28" s="5">
+        <v>29491200000</v>
+      </c>
+      <c r="F28" s="5">
+        <v>63</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="5">
+        <v>698</v>
+      </c>
+      <c r="D29" s="5">
+        <v>95456000000</v>
+      </c>
+      <c r="E29" s="5">
+        <v>95456000000</v>
+      </c>
+      <c r="F29" s="5">
+        <v>698</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="5">
+        <v>633</v>
+      </c>
+      <c r="D30" s="5">
+        <v>83447700000</v>
+      </c>
+      <c r="E30" s="5">
+        <v>83447700000</v>
+      </c>
+      <c r="F30" s="5">
+        <v>633</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>587500000</v>
+      </c>
+      <c r="E31" s="5">
+        <v>587500000</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="5">
+        <v>5</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2295500000</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2295500000</v>
+      </c>
+      <c r="F32" s="5">
+        <v>5</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="5">
+        <v>54</v>
+      </c>
+      <c r="D33" s="5">
+        <v>26130000000</v>
+      </c>
+      <c r="E33" s="5">
+        <v>26130000000</v>
+      </c>
+      <c r="F33" s="5">
+        <v>54</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="5">
+        <v>251</v>
+      </c>
+      <c r="D34" s="5">
+        <v>145930000000</v>
+      </c>
+      <c r="E34" s="5">
+        <v>145930000000</v>
+      </c>
+      <c r="F34" s="5">
+        <v>251</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="5">
+        <v>514</v>
+      </c>
+      <c r="D35" s="5">
+        <v>450579500000</v>
+      </c>
+      <c r="E35" s="5">
+        <v>450579500000</v>
+      </c>
+      <c r="F35" s="5">
+        <v>514</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="5">
+        <v>784</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2447616987644</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2447616987644</v>
+      </c>
+      <c r="F36" s="5">
+        <v>784</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="5">
+        <v>262</v>
+      </c>
+      <c r="D37" s="5">
+        <v>753634640000</v>
+      </c>
+      <c r="E37" s="5">
+        <v>753634640000</v>
+      </c>
+      <c r="F37" s="5">
+        <v>262</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="5">
+        <v>17</v>
+      </c>
+      <c r="D38" s="5">
+        <v>12036318300</v>
+      </c>
+      <c r="E38" s="5">
+        <v>12036318300</v>
+      </c>
+      <c r="F38" s="5">
+        <v>17</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="5">
+        <v>4</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1700000000</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1700000000</v>
+      </c>
+      <c r="F39" s="5">
+        <v>4</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="5">
+        <v>4</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1430000000</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1430000000</v>
+      </c>
+      <c r="F40" s="5">
+        <v>4</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="5">
+        <v>203</v>
+      </c>
+      <c r="D41" s="5">
+        <v>120800000000</v>
+      </c>
+      <c r="E41" s="5">
+        <v>120800000000</v>
+      </c>
+      <c r="F41" s="5">
+        <v>203</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="5">
+        <v>99</v>
+      </c>
+      <c r="D42" s="5">
+        <v>49865000000</v>
+      </c>
+      <c r="E42" s="5">
+        <v>49865000000</v>
+      </c>
+      <c r="F42" s="5">
+        <v>99</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="5">
+        <v>54</v>
+      </c>
+      <c r="D43" s="5">
+        <v>23605000000</v>
+      </c>
+      <c r="E43" s="5">
+        <v>23605000000</v>
+      </c>
+      <c r="F43" s="5">
+        <v>54</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="5">
+        <v>18</v>
+      </c>
+      <c r="D44" s="5">
+        <v>7003000000</v>
+      </c>
+      <c r="E44" s="5">
+        <v>7003000000</v>
+      </c>
+      <c r="F44" s="5">
+        <v>18</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="5">
+        <v>21</v>
+      </c>
+      <c r="D45" s="5">
+        <v>8110000000</v>
+      </c>
+      <c r="E45" s="5">
+        <v>8110000000</v>
+      </c>
+      <c r="F45" s="5">
+        <v>21</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="5">
+        <v>108</v>
+      </c>
+      <c r="D46" s="5">
+        <v>52024500000</v>
+      </c>
+      <c r="E46" s="5">
+        <v>52024500000</v>
+      </c>
+      <c r="F46" s="5">
+        <v>108</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="5">
+        <v>197</v>
+      </c>
+      <c r="D47" s="5">
+        <v>102996226926</v>
+      </c>
+      <c r="E47" s="5">
+        <v>102996226926</v>
+      </c>
+      <c r="F47" s="5">
+        <v>197</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="5">
+        <v>85</v>
+      </c>
+      <c r="D48" s="5">
+        <v>34593100000</v>
+      </c>
+      <c r="E48" s="5">
+        <v>34593100000</v>
+      </c>
+      <c r="F48" s="5">
+        <v>85</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="5">
+        <v>4</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1015100000</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1015100000</v>
+      </c>
+      <c r="F49" s="5">
+        <v>4</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="5">
+        <v>90</v>
+      </c>
+      <c r="D50" s="5">
+        <v>43336055091</v>
+      </c>
+      <c r="E50" s="5">
+        <v>43336055091</v>
+      </c>
+      <c r="F50" s="5">
+        <v>90</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="5">
+        <v>63</v>
+      </c>
+      <c r="D51" s="5">
+        <v>30239644050</v>
+      </c>
+      <c r="E51" s="5">
+        <v>30239644050</v>
+      </c>
+      <c r="F51" s="5">
+        <v>63</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="5">
+        <v>8</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2870806050</v>
+      </c>
+      <c r="E52" s="5">
+        <v>2870806050</v>
+      </c>
+      <c r="F52" s="5">
+        <v>8</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="5">
+        <v>95</v>
+      </c>
+      <c r="D53" s="5">
+        <v>26971200000</v>
+      </c>
+      <c r="E53" s="5">
+        <v>26971200000</v>
+      </c>
+      <c r="F53" s="5">
+        <v>95</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="5">
+        <v>433</v>
+      </c>
+      <c r="D54" s="5">
+        <v>158470800000</v>
+      </c>
+      <c r="E54" s="5">
+        <v>158470800000</v>
+      </c>
+      <c r="F54" s="5">
+        <v>433</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="5">
+        <v>396</v>
+      </c>
+      <c r="D55" s="5">
+        <v>152637800000</v>
+      </c>
+      <c r="E55" s="5">
+        <v>152637800000</v>
+      </c>
+      <c r="F55" s="5">
+        <v>396</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="5">
+        <v>3748</v>
+      </c>
+      <c r="D56" s="5">
+        <v>361904682911</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <v>3748</v>
+      </c>
+      <c r="H56" s="5">
+        <v>361904682911</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="5">
+        <v>8493</v>
+      </c>
+      <c r="D57" s="5">
+        <v>969418142652</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <v>8493</v>
+      </c>
+      <c r="H57" s="5">
+        <v>969418142652</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="5">
+        <v>16555</v>
+      </c>
+      <c r="D58" s="5">
+        <v>2020449107817</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
+        <v>16555</v>
+      </c>
+      <c r="H58" s="5">
+        <v>2020449107817</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="5">
+        <v>22175</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2870759825263</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
+        <v>22175</v>
+      </c>
+      <c r="H59" s="5">
+        <v>2870759825263</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="5">
+        <v>23421</v>
+      </c>
+      <c r="D60" s="5">
+        <v>2981647577378</v>
+      </c>
+      <c r="E60" s="5">
+        <v>14175000000</v>
+      </c>
+      <c r="F60" s="5">
+        <v>169</v>
+      </c>
+      <c r="G60" s="5">
+        <v>23252</v>
+      </c>
+      <c r="H60" s="5">
+        <v>2967472577378</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="5">
+        <v>24313</v>
+      </c>
+      <c r="D61" s="5">
+        <v>1546740041214</v>
+      </c>
+      <c r="E61" s="5">
+        <v>11875000000</v>
+      </c>
+      <c r="F61" s="5">
+        <v>143</v>
+      </c>
+      <c r="G61" s="5">
+        <v>24170</v>
+      </c>
+      <c r="H61" s="5">
+        <v>1534865041214</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="5">
+        <v>17107</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1237887980618</v>
+      </c>
+      <c r="E62" s="5">
+        <v>270178343250</v>
+      </c>
+      <c r="F62" s="5">
+        <v>3054</v>
+      </c>
+      <c r="G62" s="5">
+        <v>14053</v>
+      </c>
+      <c r="H62" s="5">
+        <v>967709637368</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="5">
+        <v>16270</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1183044946936</v>
+      </c>
+      <c r="E63" s="5">
+        <v>412728560000</v>
+      </c>
+      <c r="F63" s="5">
+        <v>5163</v>
+      </c>
+      <c r="G63" s="5">
+        <v>11107</v>
+      </c>
+      <c r="H63" s="5">
+        <v>770316386936</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="5">
+        <v>12822</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1136472189167</v>
+      </c>
+      <c r="E64" s="5">
+        <v>459098444090</v>
+      </c>
+      <c r="F64" s="5">
+        <v>4186</v>
+      </c>
+      <c r="G64" s="5">
+        <v>8636</v>
+      </c>
+      <c r="H64" s="5">
+        <v>677373745077</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="5">
+        <v>58312</v>
+      </c>
+      <c r="D65" s="5">
+        <v>8132972392271.5</v>
+      </c>
+      <c r="E65" s="5">
+        <v>3680933210603</v>
+      </c>
+      <c r="F65" s="5">
+        <v>6118</v>
+      </c>
+      <c r="G65" s="5">
+        <v>52194</v>
+      </c>
+      <c r="H65" s="5">
+        <v>4452039181668.5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="5">
+        <v>104998</v>
+      </c>
+      <c r="D66" s="5">
+        <v>11557725327572.1</v>
+      </c>
+      <c r="E66" s="5">
+        <v>5188131448136</v>
+      </c>
+      <c r="F66" s="5">
+        <v>7564</v>
+      </c>
+      <c r="G66" s="5">
+        <v>97434</v>
+      </c>
+      <c r="H66" s="5">
+        <v>6369593879436.1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="5">
+        <v>53579</v>
+      </c>
+      <c r="D67" s="5">
+        <v>4805865367649</v>
+      </c>
+      <c r="E67" s="5">
+        <v>2633815719025</v>
+      </c>
+      <c r="F67" s="5">
+        <v>6392</v>
+      </c>
+      <c r="G67" s="5">
+        <v>47187</v>
+      </c>
+      <c r="H67" s="5">
+        <v>2172049648624</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="5">
+        <v>62</v>
+      </c>
+      <c r="D68" s="5">
+        <v>10490880815</v>
+      </c>
+      <c r="E68" s="5">
+        <v>10490880815</v>
+      </c>
+      <c r="F68" s="5">
+        <v>62</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0</v>
+      </c>
+      <c r="H68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="5">
+        <v>250</v>
+      </c>
+      <c r="D69" s="5">
+        <v>115908814560</v>
+      </c>
+      <c r="E69" s="5">
+        <v>115908814560</v>
+      </c>
+      <c r="F69" s="5">
+        <v>250</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="5">
+        <v>180</v>
+      </c>
+      <c r="D70" s="5">
+        <v>73060187760</v>
+      </c>
+      <c r="E70" s="5">
+        <v>73060187760</v>
+      </c>
+      <c r="F70" s="5">
+        <v>180</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="5">
+        <v>140</v>
+      </c>
+      <c r="D71" s="5">
+        <v>50143412340</v>
+      </c>
+      <c r="E71" s="5">
+        <v>50143412340</v>
+      </c>
+      <c r="F71" s="5">
+        <v>140</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="5">
+        <v>45</v>
+      </c>
+      <c r="D72" s="5">
+        <v>169111579245</v>
+      </c>
+      <c r="E72" s="5">
+        <v>169111579245</v>
+      </c>
+      <c r="F72" s="5">
+        <v>45</v>
+      </c>
+      <c r="G72" s="5">
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="5">
+        <v>142</v>
+      </c>
+      <c r="D73" s="5">
+        <v>556353820029</v>
+      </c>
+      <c r="E73" s="5">
+        <v>556353820029</v>
+      </c>
+      <c r="F73" s="5">
+        <v>142</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="5">
+        <v>56</v>
+      </c>
+      <c r="D74" s="5">
+        <v>164862266835</v>
+      </c>
+      <c r="E74" s="5">
+        <v>164862266835</v>
+      </c>
+      <c r="F74" s="5">
+        <v>56</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0</v>
+      </c>
+      <c r="H74" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +3389,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:AN6"/>
+  <dimension ref="B3:AN74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1065,23 +3518,137 @@
       <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="8">
+        <v>465605</v>
+      </c>
+      <c r="E4" s="8">
+        <v>99436585293635.02</v>
+      </c>
+      <c r="F4" s="8">
+        <v>37462</v>
+      </c>
+      <c r="G4" s="8">
+        <v>6847854395260</v>
+      </c>
+      <c r="H4" s="8">
+        <v>428143</v>
+      </c>
+      <c r="I4" s="8">
+        <v>92588730898375.02</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>28</v>
+        <v>97</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>25894</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1181864500614</v>
+      </c>
+      <c r="O4" s="8">
+        <v>-25894</v>
+      </c>
+      <c r="P4" s="8">
+        <v>-1181864500614</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>29</v>
+        <v>110</v>
+      </c>
+      <c r="S4" s="8">
+        <v>18793</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1484414201978</v>
+      </c>
+      <c r="U4" s="8">
+        <v>5689</v>
+      </c>
+      <c r="V4" s="8">
+        <v>278527489110</v>
+      </c>
+      <c r="W4" s="8">
+        <v>13104</v>
+      </c>
+      <c r="X4" s="8">
+        <v>1205886712868</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>30</v>
+        <v>119</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>107</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>1414058.91815</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>107</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>1414058.91815</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>31</v>
+        <v>122</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>25894</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>1181864500614</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>-25894</v>
+      </c>
+      <c r="AN4" s="8">
+        <v>-1181864500614</v>
       </c>
     </row>
     <row r="5" spans="2:40">
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8">
+        <v>446705</v>
+      </c>
+      <c r="E5" s="8">
+        <v>97952169677598.09</v>
+      </c>
+      <c r="F5" s="8">
+        <v>5879</v>
+      </c>
+      <c r="G5" s="8">
+        <v>5387462405536</v>
+      </c>
+      <c r="H5" s="8">
+        <v>440826</v>
+      </c>
+      <c r="I5" s="8">
+        <v>92564707272062.09</v>
+      </c>
       <c r="J5" s="7" t="s">
         <v>18</v>
       </c>
@@ -1099,6 +3666,27 @@
       <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="C6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="8">
+        <v>18900</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1484415616036.922</v>
+      </c>
+      <c r="F6" s="8">
+        <v>31583</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1460391989724</v>
+      </c>
+      <c r="H6" s="8">
+        <v>-12683</v>
+      </c>
+      <c r="I6" s="8">
+        <v>24023626312.92188</v>
+      </c>
       <c r="J6" s="7" t="s">
         <v>27</v>
       </c>
@@ -1110,6 +3698,1822 @@
       </c>
       <c r="AH6" s="7" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:40">
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5">
+        <v>18046</v>
+      </c>
+      <c r="D7" s="5">
+        <v>144047775000</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>18046</v>
+      </c>
+      <c r="H7" s="5">
+        <v>144047775000</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1181864500614</v>
+      </c>
+      <c r="N7" s="5">
+        <v>25894</v>
+      </c>
+      <c r="O7" s="5">
+        <v>-25894</v>
+      </c>
+      <c r="P7" s="5">
+        <v>-1181864500614</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="S7" s="5">
+        <v>5596</v>
+      </c>
+      <c r="T7" s="5">
+        <v>139900000000</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>5596</v>
+      </c>
+      <c r="X7" s="5">
+        <v>139900000000</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>58</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>503976</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>58</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>503976</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>1181864500614</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>25894</v>
+      </c>
+      <c r="AM7" s="5">
+        <v>-25894</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>-1181864500614</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40">
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5">
+        <v>126</v>
+      </c>
+      <c r="D8" s="5">
+        <v>16900000000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>126</v>
+      </c>
+      <c r="H8" s="5">
+        <v>16900000000</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="S8" s="5">
+        <v>12899</v>
+      </c>
+      <c r="T8" s="5">
+        <v>1333792501978</v>
+      </c>
+      <c r="U8" s="5">
+        <v>278504389110</v>
+      </c>
+      <c r="V8" s="5">
+        <v>5632</v>
+      </c>
+      <c r="W8" s="5">
+        <v>7267</v>
+      </c>
+      <c r="X8" s="5">
+        <v>1055288112868</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>49</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>910082.91815</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>49</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>910082.91815</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40">
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>362107623</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>362107623</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="S9" s="5">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>25000000</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <v>1</v>
+      </c>
+      <c r="X9" s="5">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40">
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1477086224</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1477086224</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="S10" s="5">
+        <v>58</v>
+      </c>
+      <c r="T10" s="5">
+        <v>7200000000</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5">
+        <v>58</v>
+      </c>
+      <c r="X10" s="5">
+        <v>7200000000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5">
+        <v>898308742</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>7</v>
+      </c>
+      <c r="H11" s="5">
+        <v>898308742</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="S11" s="5">
+        <v>23</v>
+      </c>
+      <c r="T11" s="5">
+        <v>3400000000</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5">
+        <v>23</v>
+      </c>
+      <c r="X11" s="5">
+        <v>3400000000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40">
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5">
+        <v>871541119</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>6</v>
+      </c>
+      <c r="H12" s="5">
+        <v>871541119</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1</v>
+      </c>
+      <c r="T12" s="5">
+        <v>300000</v>
+      </c>
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
+        <v>0</v>
+      </c>
+      <c r="W12" s="5">
+        <v>1</v>
+      </c>
+      <c r="X12" s="5">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:40">
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5">
+        <v>345</v>
+      </c>
+      <c r="D13" s="5">
+        <v>141234954051</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>345</v>
+      </c>
+      <c r="H13" s="5">
+        <v>141234954051</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="S13" s="5">
+        <v>108</v>
+      </c>
+      <c r="T13" s="5">
+        <v>54100000</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5">
+        <v>108</v>
+      </c>
+      <c r="X13" s="5">
+        <v>54100000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40">
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5">
+        <v>395</v>
+      </c>
+      <c r="D14" s="5">
+        <v>150062288231</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>395</v>
+      </c>
+      <c r="H14" s="5">
+        <v>150062288231</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="S14" s="5">
+        <v>107</v>
+      </c>
+      <c r="T14" s="5">
+        <v>42300000</v>
+      </c>
+      <c r="U14" s="5">
+        <v>23100000</v>
+      </c>
+      <c r="V14" s="5">
+        <v>57</v>
+      </c>
+      <c r="W14" s="5">
+        <v>50</v>
+      </c>
+      <c r="X14" s="5">
+        <v>19200000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:40">
+      <c r="B15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="5">
+        <v>970</v>
+      </c>
+      <c r="D15" s="5">
+        <v>311870065541</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>970</v>
+      </c>
+      <c r="H15" s="5">
+        <v>311870065541</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40">
+      <c r="B16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5">
+        <v>11678</v>
+      </c>
+      <c r="D16" s="5">
+        <v>26243397939322.8</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>11678</v>
+      </c>
+      <c r="H16" s="5">
+        <v>26243397939322.8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="5">
+        <v>10270</v>
+      </c>
+      <c r="D17" s="5">
+        <v>16635271587455.5</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>10270</v>
+      </c>
+      <c r="H17" s="5">
+        <v>16635271587455.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4165</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6158733962437</v>
+      </c>
+      <c r="E18" s="5">
+        <v>3292764905651</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2310</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1855</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2865969056786</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="5">
+        <v>31385</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1074396237252</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>31385</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1074396237252</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="5">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3223300454</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>51</v>
+      </c>
+      <c r="H20" s="5">
+        <v>3223300454</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5">
+        <v>66</v>
+      </c>
+      <c r="D21" s="5">
+        <v>8243848591</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>66</v>
+      </c>
+      <c r="H21" s="5">
+        <v>8243848591</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5">
+        <v>227</v>
+      </c>
+      <c r="D22" s="5">
+        <v>21990213960</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>227</v>
+      </c>
+      <c r="H22" s="5">
+        <v>21990213960</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="5">
+        <v>139</v>
+      </c>
+      <c r="D23" s="5">
+        <v>817320600153.2</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>139</v>
+      </c>
+      <c r="H23" s="5">
+        <v>817320600153.2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="5">
+        <v>118</v>
+      </c>
+      <c r="D24" s="5">
+        <v>799837380628</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>118</v>
+      </c>
+      <c r="H24" s="5">
+        <v>799837380628</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="5">
+        <v>76</v>
+      </c>
+      <c r="D25" s="5">
+        <v>371828645760</v>
+      </c>
+      <c r="E25" s="5">
+        <v>173644401000</v>
+      </c>
+      <c r="F25" s="5">
+        <v>33</v>
+      </c>
+      <c r="G25" s="5">
+        <v>43</v>
+      </c>
+      <c r="H25" s="5">
+        <v>198184244760</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="5">
+        <v>796</v>
+      </c>
+      <c r="D26" s="5">
+        <v>213640501360</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>796</v>
+      </c>
+      <c r="H26" s="5">
+        <v>213640501360</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>497640000</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5">
+        <v>497640000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="5">
+        <v>63</v>
+      </c>
+      <c r="D28" s="5">
+        <v>29491200000</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>63</v>
+      </c>
+      <c r="H28" s="5">
+        <v>29491200000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="5">
+        <v>698</v>
+      </c>
+      <c r="D29" s="5">
+        <v>95456000000</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>698</v>
+      </c>
+      <c r="H29" s="5">
+        <v>95456000000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="5">
+        <v>633</v>
+      </c>
+      <c r="D30" s="5">
+        <v>83447700000</v>
+      </c>
+      <c r="E30" s="5">
+        <v>46842700000</v>
+      </c>
+      <c r="F30" s="5">
+        <v>340</v>
+      </c>
+      <c r="G30" s="5">
+        <v>293</v>
+      </c>
+      <c r="H30" s="5">
+        <v>36605000000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>587500000</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
+        <v>587500000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="5">
+        <v>5</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2295500000</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>5</v>
+      </c>
+      <c r="H32" s="5">
+        <v>2295500000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="5">
+        <v>54</v>
+      </c>
+      <c r="D33" s="5">
+        <v>26130000000</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>54</v>
+      </c>
+      <c r="H33" s="5">
+        <v>26130000000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="5">
+        <v>251</v>
+      </c>
+      <c r="D34" s="5">
+        <v>145930000000</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>251</v>
+      </c>
+      <c r="H34" s="5">
+        <v>145930000000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="5">
+        <v>514</v>
+      </c>
+      <c r="D35" s="5">
+        <v>450579500000</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>514</v>
+      </c>
+      <c r="H35" s="5">
+        <v>450579500000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="5">
+        <v>784</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2447616987644</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>784</v>
+      </c>
+      <c r="H36" s="5">
+        <v>2447616987644</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="5">
+        <v>262</v>
+      </c>
+      <c r="D37" s="5">
+        <v>753634640000</v>
+      </c>
+      <c r="E37" s="5">
+        <v>385222640000</v>
+      </c>
+      <c r="F37" s="5">
+        <v>134</v>
+      </c>
+      <c r="G37" s="5">
+        <v>128</v>
+      </c>
+      <c r="H37" s="5">
+        <v>368412000000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="5">
+        <v>17</v>
+      </c>
+      <c r="D38" s="5">
+        <v>12036318300</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
+        <v>17</v>
+      </c>
+      <c r="H38" s="5">
+        <v>12036318300</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="5">
+        <v>4</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1700000000</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>4</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1700000000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="5">
+        <v>4</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1430000000</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>4</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1430000000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="5">
+        <v>203</v>
+      </c>
+      <c r="D41" s="5">
+        <v>120800000000</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <v>203</v>
+      </c>
+      <c r="H41" s="5">
+        <v>120800000000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="5">
+        <v>99</v>
+      </c>
+      <c r="D42" s="5">
+        <v>49865000000</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <v>99</v>
+      </c>
+      <c r="H42" s="5">
+        <v>49865000000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="5">
+        <v>54</v>
+      </c>
+      <c r="D43" s="5">
+        <v>23605000000</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>54</v>
+      </c>
+      <c r="H43" s="5">
+        <v>23605000000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="5">
+        <v>18</v>
+      </c>
+      <c r="D44" s="5">
+        <v>7003000000</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>18</v>
+      </c>
+      <c r="H44" s="5">
+        <v>7003000000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="5">
+        <v>21</v>
+      </c>
+      <c r="D45" s="5">
+        <v>8110000000</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <v>21</v>
+      </c>
+      <c r="H45" s="5">
+        <v>8110000000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="5">
+        <v>108</v>
+      </c>
+      <c r="D46" s="5">
+        <v>52024500000</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
+        <v>108</v>
+      </c>
+      <c r="H46" s="5">
+        <v>52024500000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="5">
+        <v>197</v>
+      </c>
+      <c r="D47" s="5">
+        <v>102996226926</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5">
+        <v>197</v>
+      </c>
+      <c r="H47" s="5">
+        <v>102996226926</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="5">
+        <v>85</v>
+      </c>
+      <c r="D48" s="5">
+        <v>34593100000</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
+        <v>85</v>
+      </c>
+      <c r="H48" s="5">
+        <v>34593100000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="5">
+        <v>4</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1015100000</v>
+      </c>
+      <c r="E49" s="5">
+        <v>300000000</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1</v>
+      </c>
+      <c r="G49" s="5">
+        <v>3</v>
+      </c>
+      <c r="H49" s="5">
+        <v>715100000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="5">
+        <v>90</v>
+      </c>
+      <c r="D50" s="5">
+        <v>44283772676</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
+        <v>90</v>
+      </c>
+      <c r="H50" s="5">
+        <v>44283772676</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="5">
+        <v>63</v>
+      </c>
+      <c r="D51" s="5">
+        <v>30900955800</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5">
+        <v>63</v>
+      </c>
+      <c r="H51" s="5">
+        <v>30900955800</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="5">
+        <v>8</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2933587800</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1063261500</v>
+      </c>
+      <c r="F52" s="5">
+        <v>3</v>
+      </c>
+      <c r="G52" s="5">
+        <v>5</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1870326300</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="5">
+        <v>95</v>
+      </c>
+      <c r="D53" s="5">
+        <v>26971200000</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5">
+        <v>95</v>
+      </c>
+      <c r="H53" s="5">
+        <v>26971200000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="5">
+        <v>433</v>
+      </c>
+      <c r="D54" s="5">
+        <v>158470800000</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5">
+        <v>433</v>
+      </c>
+      <c r="H54" s="5">
+        <v>158470800000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="5">
+        <v>396</v>
+      </c>
+      <c r="D55" s="5">
+        <v>152637800000</v>
+      </c>
+      <c r="E55" s="5">
+        <v>75157100000</v>
+      </c>
+      <c r="F55" s="5">
+        <v>229</v>
+      </c>
+      <c r="G55" s="5">
+        <v>167</v>
+      </c>
+      <c r="H55" s="5">
+        <v>77480700000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="5">
+        <v>3748</v>
+      </c>
+      <c r="D56" s="5">
+        <v>361904682911</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <v>3748</v>
+      </c>
+      <c r="H56" s="5">
+        <v>361904682911</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="5">
+        <v>8493</v>
+      </c>
+      <c r="D57" s="5">
+        <v>969418142652</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <v>8493</v>
+      </c>
+      <c r="H57" s="5">
+        <v>969418142652</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="5">
+        <v>16555</v>
+      </c>
+      <c r="D58" s="5">
+        <v>2020449107817</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
+        <v>16555</v>
+      </c>
+      <c r="H58" s="5">
+        <v>2020449107817</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="5">
+        <v>22175</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2870759825263</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
+        <v>22175</v>
+      </c>
+      <c r="H59" s="5">
+        <v>2870759825263</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="5">
+        <v>23421</v>
+      </c>
+      <c r="D60" s="5">
+        <v>2981647577378</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5">
+        <v>23421</v>
+      </c>
+      <c r="H60" s="5">
+        <v>2981647577378</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="5">
+        <v>24313</v>
+      </c>
+      <c r="D61" s="5">
+        <v>1546740041214</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
+        <v>24313</v>
+      </c>
+      <c r="H61" s="5">
+        <v>1546740041214</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="5">
+        <v>17107</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1237887980618</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5">
+        <v>17107</v>
+      </c>
+      <c r="H62" s="5">
+        <v>1237887980618</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="5">
+        <v>16270</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1183044946936</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5">
+        <v>16270</v>
+      </c>
+      <c r="H63" s="5">
+        <v>1183044946936</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="5">
+        <v>12822</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1136472189167</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5">
+        <v>12822</v>
+      </c>
+      <c r="H64" s="5">
+        <v>1136472189167</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="5">
+        <v>58312</v>
+      </c>
+      <c r="D65" s="5">
+        <v>8132972392271.5</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5">
+        <v>58312</v>
+      </c>
+      <c r="H65" s="5">
+        <v>8132972392271.5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="5">
+        <v>104998</v>
+      </c>
+      <c r="D66" s="5">
+        <v>11557725327572.1</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5">
+        <v>104998</v>
+      </c>
+      <c r="H66" s="5">
+        <v>11557725327572.1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="5">
+        <v>53579</v>
+      </c>
+      <c r="D67" s="5">
+        <v>4805865367649</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1276462209990</v>
+      </c>
+      <c r="F67" s="5">
+        <v>2730</v>
+      </c>
+      <c r="G67" s="5">
+        <v>50849</v>
+      </c>
+      <c r="H67" s="5">
+        <v>3529403157659</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="5">
+        <v>62</v>
+      </c>
+      <c r="D68" s="5">
+        <v>10490880815</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5">
+        <v>62</v>
+      </c>
+      <c r="H68" s="5">
+        <v>10490880815</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="5">
+        <v>250</v>
+      </c>
+      <c r="D69" s="5">
+        <v>118443628160</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5">
+        <v>250</v>
+      </c>
+      <c r="H69" s="5">
+        <v>118443628160</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="5">
+        <v>180</v>
+      </c>
+      <c r="D70" s="5">
+        <v>74657943360</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5">
+        <v>180</v>
+      </c>
+      <c r="H70" s="5">
+        <v>74657943360</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="5">
+        <v>140</v>
+      </c>
+      <c r="D71" s="5">
+        <v>51240000240</v>
+      </c>
+      <c r="E71" s="5">
+        <v>22817591790</v>
+      </c>
+      <c r="F71" s="5">
+        <v>65</v>
+      </c>
+      <c r="G71" s="5">
+        <v>75</v>
+      </c>
+      <c r="H71" s="5">
+        <v>28422408450</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="5">
+        <v>45</v>
+      </c>
+      <c r="D72" s="5">
+        <v>172809885820</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5">
+        <v>45</v>
+      </c>
+      <c r="H72" s="5">
+        <v>172809885820</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="5">
+        <v>142</v>
+      </c>
+      <c r="D73" s="5">
+        <v>568520739644</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5">
+        <v>142</v>
+      </c>
+      <c r="H73" s="5">
+        <v>568520739644</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="5">
+        <v>56</v>
+      </c>
+      <c r="D74" s="5">
+        <v>168467645060</v>
+      </c>
+      <c r="E74" s="5">
+        <v>113187595605</v>
+      </c>
+      <c r="F74" s="5">
+        <v>34</v>
+      </c>
+      <c r="G74" s="5">
+        <v>22</v>
+      </c>
+      <c r="H74" s="5">
+        <v>55280049455</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +5523,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:AN6"/>
+  <dimension ref="B3:AN74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1248,23 +5652,137 @@
       <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="8">
+        <v>465605</v>
+      </c>
+      <c r="E4" s="8">
+        <v>99362594006870.52</v>
+      </c>
+      <c r="F4" s="8">
+        <v>34863</v>
+      </c>
+      <c r="G4" s="8">
+        <v>7003890198188.6</v>
+      </c>
+      <c r="H4" s="8">
+        <v>430742</v>
+      </c>
+      <c r="I4" s="8">
+        <v>92358703808681.92</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>28</v>
+        <v>97</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>21293</v>
+      </c>
+      <c r="N4" s="8">
+        <v>990185148010</v>
+      </c>
+      <c r="O4" s="8">
+        <v>-21293</v>
+      </c>
+      <c r="P4" s="8">
+        <v>-990185148010</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>29</v>
+        <v>110</v>
+      </c>
+      <c r="S4" s="8">
+        <v>18793</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1484414201978</v>
+      </c>
+      <c r="U4" s="8">
+        <v>7317</v>
+      </c>
+      <c r="V4" s="8">
+        <v>1036134912867.6</v>
+      </c>
+      <c r="W4" s="8">
+        <v>11476</v>
+      </c>
+      <c r="X4" s="8">
+        <v>448279289110.4</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>30</v>
+        <v>119</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>107</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>1414058.91815</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>107</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>1414058.91815</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>31</v>
+        <v>122</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>21293</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>990185148010</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>-21293</v>
+      </c>
+      <c r="AN4" s="8">
+        <v>-990185148010</v>
       </c>
     </row>
     <row r="5" spans="2:40">
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8">
+        <v>446705</v>
+      </c>
+      <c r="E5" s="8">
+        <v>97878178390833.59</v>
+      </c>
+      <c r="F5" s="8">
+        <v>6253</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4977570137311</v>
+      </c>
+      <c r="H5" s="8">
+        <v>440452</v>
+      </c>
+      <c r="I5" s="8">
+        <v>92900608253522.59</v>
+      </c>
       <c r="J5" s="7" t="s">
         <v>18</v>
       </c>
@@ -1282,6 +5800,27 @@
       <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="C6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="8">
+        <v>18900</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1484415616036.922</v>
+      </c>
+      <c r="F6" s="8">
+        <v>28610</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2026320060877.6</v>
+      </c>
+      <c r="H6" s="8">
+        <v>-9710</v>
+      </c>
+      <c r="I6" s="8">
+        <v>-541904444840.6719</v>
+      </c>
       <c r="J6" s="7" t="s">
         <v>27</v>
       </c>
@@ -1293,6 +5832,1822 @@
       </c>
       <c r="AH6" s="7" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:40">
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5">
+        <v>18046</v>
+      </c>
+      <c r="D7" s="5">
+        <v>144047775000</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>18046</v>
+      </c>
+      <c r="H7" s="5">
+        <v>144047775000</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>990185148010</v>
+      </c>
+      <c r="N7" s="5">
+        <v>21293</v>
+      </c>
+      <c r="O7" s="5">
+        <v>-21293</v>
+      </c>
+      <c r="P7" s="5">
+        <v>-990185148010</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="S7" s="5">
+        <v>5596</v>
+      </c>
+      <c r="T7" s="5">
+        <v>139900000000</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>5596</v>
+      </c>
+      <c r="X7" s="5">
+        <v>139900000000</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>58</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>503976</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>58</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>503976</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>990185148010</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>21293</v>
+      </c>
+      <c r="AM7" s="5">
+        <v>-21293</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>-990185148010</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40">
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5">
+        <v>126</v>
+      </c>
+      <c r="D8" s="5">
+        <v>16900000000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>126</v>
+      </c>
+      <c r="H8" s="5">
+        <v>16900000000</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="S8" s="5">
+        <v>12899</v>
+      </c>
+      <c r="T8" s="5">
+        <v>1333792501978</v>
+      </c>
+      <c r="U8" s="5">
+        <v>1036115712867.6</v>
+      </c>
+      <c r="V8" s="5">
+        <v>7267</v>
+      </c>
+      <c r="W8" s="5">
+        <v>5632</v>
+      </c>
+      <c r="X8" s="5">
+        <v>297676789110.4</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>49</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>910082.91815</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>49</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>910082.91815</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40">
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>362107623</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>362107623</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="S9" s="5">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>25000000</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <v>1</v>
+      </c>
+      <c r="X9" s="5">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40">
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1477086224</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1477086224</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="S10" s="5">
+        <v>58</v>
+      </c>
+      <c r="T10" s="5">
+        <v>7200000000</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5">
+        <v>58</v>
+      </c>
+      <c r="X10" s="5">
+        <v>7200000000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5">
+        <v>898308742</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>7</v>
+      </c>
+      <c r="H11" s="5">
+        <v>898308742</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="S11" s="5">
+        <v>23</v>
+      </c>
+      <c r="T11" s="5">
+        <v>3400000000</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5">
+        <v>23</v>
+      </c>
+      <c r="X11" s="5">
+        <v>3400000000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40">
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5">
+        <v>871541119</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>6</v>
+      </c>
+      <c r="H12" s="5">
+        <v>871541119</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1</v>
+      </c>
+      <c r="T12" s="5">
+        <v>300000</v>
+      </c>
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
+        <v>0</v>
+      </c>
+      <c r="W12" s="5">
+        <v>1</v>
+      </c>
+      <c r="X12" s="5">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:40">
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5">
+        <v>345</v>
+      </c>
+      <c r="D13" s="5">
+        <v>141234954051</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>345</v>
+      </c>
+      <c r="H13" s="5">
+        <v>141234954051</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="S13" s="5">
+        <v>108</v>
+      </c>
+      <c r="T13" s="5">
+        <v>54100000</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5">
+        <v>108</v>
+      </c>
+      <c r="X13" s="5">
+        <v>54100000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40">
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5">
+        <v>395</v>
+      </c>
+      <c r="D14" s="5">
+        <v>150062288231</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>395</v>
+      </c>
+      <c r="H14" s="5">
+        <v>150062288231</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="S14" s="5">
+        <v>107</v>
+      </c>
+      <c r="T14" s="5">
+        <v>42300000</v>
+      </c>
+      <c r="U14" s="5">
+        <v>19200000</v>
+      </c>
+      <c r="V14" s="5">
+        <v>50</v>
+      </c>
+      <c r="W14" s="5">
+        <v>57</v>
+      </c>
+      <c r="X14" s="5">
+        <v>23100000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:40">
+      <c r="B15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="5">
+        <v>970</v>
+      </c>
+      <c r="D15" s="5">
+        <v>311870065541</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>970</v>
+      </c>
+      <c r="H15" s="5">
+        <v>311870065541</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40">
+      <c r="B16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5">
+        <v>11678</v>
+      </c>
+      <c r="D16" s="5">
+        <v>26243397939322.8</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>11678</v>
+      </c>
+      <c r="H16" s="5">
+        <v>26243397939322.8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="5">
+        <v>10270</v>
+      </c>
+      <c r="D17" s="5">
+        <v>16635271587455.5</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>10270</v>
+      </c>
+      <c r="H17" s="5">
+        <v>16635271587455.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4165</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6158733962437</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2865969056786</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1855</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2310</v>
+      </c>
+      <c r="H18" s="5">
+        <v>3292764905651</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="5">
+        <v>31385</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1074396237252</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>31385</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1074396237252</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="5">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3223300454</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>51</v>
+      </c>
+      <c r="H20" s="5">
+        <v>3223300454</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5">
+        <v>66</v>
+      </c>
+      <c r="D21" s="5">
+        <v>8243848591</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>66</v>
+      </c>
+      <c r="H21" s="5">
+        <v>8243848591</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5">
+        <v>227</v>
+      </c>
+      <c r="D22" s="5">
+        <v>21519601110</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>227</v>
+      </c>
+      <c r="H22" s="5">
+        <v>21519601110</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="5">
+        <v>139</v>
+      </c>
+      <c r="D23" s="5">
+        <v>799829111543.7</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>139</v>
+      </c>
+      <c r="H23" s="5">
+        <v>799829111543.7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="5">
+        <v>118</v>
+      </c>
+      <c r="D24" s="5">
+        <v>782720050623</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>118</v>
+      </c>
+      <c r="H24" s="5">
+        <v>782720050623</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="5">
+        <v>76</v>
+      </c>
+      <c r="D25" s="5">
+        <v>363871136160</v>
+      </c>
+      <c r="E25" s="5">
+        <v>190226735160</v>
+      </c>
+      <c r="F25" s="5">
+        <v>43</v>
+      </c>
+      <c r="G25" s="5">
+        <v>33</v>
+      </c>
+      <c r="H25" s="5">
+        <v>173644401000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="5">
+        <v>796</v>
+      </c>
+      <c r="D26" s="5">
+        <v>209068378260</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>796</v>
+      </c>
+      <c r="H26" s="5">
+        <v>209068378260</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>486990000</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5">
+        <v>486990000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="5">
+        <v>63</v>
+      </c>
+      <c r="D28" s="5">
+        <v>29491200000</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>63</v>
+      </c>
+      <c r="H28" s="5">
+        <v>29491200000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="5">
+        <v>698</v>
+      </c>
+      <c r="D29" s="5">
+        <v>95456000000</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>698</v>
+      </c>
+      <c r="H29" s="5">
+        <v>95456000000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="5">
+        <v>633</v>
+      </c>
+      <c r="D30" s="5">
+        <v>83447700000</v>
+      </c>
+      <c r="E30" s="5">
+        <v>36605000000</v>
+      </c>
+      <c r="F30" s="5">
+        <v>293</v>
+      </c>
+      <c r="G30" s="5">
+        <v>340</v>
+      </c>
+      <c r="H30" s="5">
+        <v>46842700000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>587500000</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
+        <v>587500000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="5">
+        <v>5</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2295500000</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>5</v>
+      </c>
+      <c r="H32" s="5">
+        <v>2295500000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="5">
+        <v>54</v>
+      </c>
+      <c r="D33" s="5">
+        <v>26130000000</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>54</v>
+      </c>
+      <c r="H33" s="5">
+        <v>26130000000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="5">
+        <v>251</v>
+      </c>
+      <c r="D34" s="5">
+        <v>145930000000</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>251</v>
+      </c>
+      <c r="H34" s="5">
+        <v>145930000000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="5">
+        <v>514</v>
+      </c>
+      <c r="D35" s="5">
+        <v>450579500000</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>514</v>
+      </c>
+      <c r="H35" s="5">
+        <v>450579500000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="5">
+        <v>784</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2447616987644</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>784</v>
+      </c>
+      <c r="H36" s="5">
+        <v>2447616987644</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="5">
+        <v>262</v>
+      </c>
+      <c r="D37" s="5">
+        <v>753634640000</v>
+      </c>
+      <c r="E37" s="5">
+        <v>368412000000</v>
+      </c>
+      <c r="F37" s="5">
+        <v>128</v>
+      </c>
+      <c r="G37" s="5">
+        <v>134</v>
+      </c>
+      <c r="H37" s="5">
+        <v>385222640000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="5">
+        <v>17</v>
+      </c>
+      <c r="D38" s="5">
+        <v>12036318300</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
+        <v>17</v>
+      </c>
+      <c r="H38" s="5">
+        <v>12036318300</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="5">
+        <v>4</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1700000000</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>4</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1700000000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="5">
+        <v>4</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1430000000</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>4</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1430000000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="5">
+        <v>203</v>
+      </c>
+      <c r="D41" s="5">
+        <v>120800000000</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <v>203</v>
+      </c>
+      <c r="H41" s="5">
+        <v>120800000000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="5">
+        <v>99</v>
+      </c>
+      <c r="D42" s="5">
+        <v>49865000000</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <v>99</v>
+      </c>
+      <c r="H42" s="5">
+        <v>49865000000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="5">
+        <v>54</v>
+      </c>
+      <c r="D43" s="5">
+        <v>23605000000</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>54</v>
+      </c>
+      <c r="H43" s="5">
+        <v>23605000000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="5">
+        <v>18</v>
+      </c>
+      <c r="D44" s="5">
+        <v>7003000000</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>18</v>
+      </c>
+      <c r="H44" s="5">
+        <v>7003000000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="5">
+        <v>21</v>
+      </c>
+      <c r="D45" s="5">
+        <v>8110000000</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <v>21</v>
+      </c>
+      <c r="H45" s="5">
+        <v>8110000000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="5">
+        <v>108</v>
+      </c>
+      <c r="D46" s="5">
+        <v>52024500000</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
+        <v>108</v>
+      </c>
+      <c r="H46" s="5">
+        <v>52024500000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="5">
+        <v>197</v>
+      </c>
+      <c r="D47" s="5">
+        <v>102996226926</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5">
+        <v>197</v>
+      </c>
+      <c r="H47" s="5">
+        <v>102996226926</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="5">
+        <v>85</v>
+      </c>
+      <c r="D48" s="5">
+        <v>34593100000</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
+        <v>85</v>
+      </c>
+      <c r="H48" s="5">
+        <v>34593100000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="5">
+        <v>4</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1015100000</v>
+      </c>
+      <c r="E49" s="5">
+        <v>715100000</v>
+      </c>
+      <c r="F49" s="5">
+        <v>3</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1</v>
+      </c>
+      <c r="H49" s="5">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="5">
+        <v>90</v>
+      </c>
+      <c r="D50" s="5">
+        <v>43336055091</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
+        <v>90</v>
+      </c>
+      <c r="H50" s="5">
+        <v>43336055091</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="5">
+        <v>63</v>
+      </c>
+      <c r="D51" s="5">
+        <v>30239644050</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5">
+        <v>63</v>
+      </c>
+      <c r="H51" s="5">
+        <v>30239644050</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="5">
+        <v>8</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2870806050</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1807544550</v>
+      </c>
+      <c r="F52" s="5">
+        <v>5</v>
+      </c>
+      <c r="G52" s="5">
+        <v>3</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1063261500</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="5">
+        <v>95</v>
+      </c>
+      <c r="D53" s="5">
+        <v>26971200000</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5">
+        <v>95</v>
+      </c>
+      <c r="H53" s="5">
+        <v>26971200000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="5">
+        <v>433</v>
+      </c>
+      <c r="D54" s="5">
+        <v>158470800000</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5">
+        <v>433</v>
+      </c>
+      <c r="H54" s="5">
+        <v>158470800000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="5">
+        <v>396</v>
+      </c>
+      <c r="D55" s="5">
+        <v>152637800000</v>
+      </c>
+      <c r="E55" s="5">
+        <v>77480700000</v>
+      </c>
+      <c r="F55" s="5">
+        <v>167</v>
+      </c>
+      <c r="G55" s="5">
+        <v>229</v>
+      </c>
+      <c r="H55" s="5">
+        <v>75157100000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="5">
+        <v>3748</v>
+      </c>
+      <c r="D56" s="5">
+        <v>361904682911</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <v>3748</v>
+      </c>
+      <c r="H56" s="5">
+        <v>361904682911</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="5">
+        <v>8493</v>
+      </c>
+      <c r="D57" s="5">
+        <v>969418142652</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <v>8493</v>
+      </c>
+      <c r="H57" s="5">
+        <v>969418142652</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="5">
+        <v>16555</v>
+      </c>
+      <c r="D58" s="5">
+        <v>2020449107817</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
+        <v>16555</v>
+      </c>
+      <c r="H58" s="5">
+        <v>2020449107817</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="5">
+        <v>22175</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2870759825263</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
+        <v>22175</v>
+      </c>
+      <c r="H59" s="5">
+        <v>2870759825263</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="5">
+        <v>23421</v>
+      </c>
+      <c r="D60" s="5">
+        <v>2981647577378</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5">
+        <v>23421</v>
+      </c>
+      <c r="H60" s="5">
+        <v>2981647577378</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="5">
+        <v>24313</v>
+      </c>
+      <c r="D61" s="5">
+        <v>1546740041214</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
+        <v>24313</v>
+      </c>
+      <c r="H61" s="5">
+        <v>1546740041214</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="5">
+        <v>17107</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1237887980618</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5">
+        <v>17107</v>
+      </c>
+      <c r="H62" s="5">
+        <v>1237887980618</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="5">
+        <v>16270</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1183044946936</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5">
+        <v>16270</v>
+      </c>
+      <c r="H63" s="5">
+        <v>1183044946936</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="5">
+        <v>12822</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1136472189167</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5">
+        <v>12822</v>
+      </c>
+      <c r="H64" s="5">
+        <v>1136472189167</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="5">
+        <v>58312</v>
+      </c>
+      <c r="D65" s="5">
+        <v>8132972392271.5</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5">
+        <v>58312</v>
+      </c>
+      <c r="H65" s="5">
+        <v>8132972392271.5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="5">
+        <v>104998</v>
+      </c>
+      <c r="D66" s="5">
+        <v>11557725327572.1</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5">
+        <v>104998</v>
+      </c>
+      <c r="H66" s="5">
+        <v>11557725327572.1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="5">
+        <v>53579</v>
+      </c>
+      <c r="D67" s="5">
+        <v>4805865367649</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1357353509035</v>
+      </c>
+      <c r="F67" s="5">
+        <v>3662</v>
+      </c>
+      <c r="G67" s="5">
+        <v>49917</v>
+      </c>
+      <c r="H67" s="5">
+        <v>3448511858614</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="5">
+        <v>62</v>
+      </c>
+      <c r="D68" s="5">
+        <v>10490880815</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5">
+        <v>62</v>
+      </c>
+      <c r="H68" s="5">
+        <v>10490880815</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="5">
+        <v>250</v>
+      </c>
+      <c r="D69" s="5">
+        <v>115908814560</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5">
+        <v>250</v>
+      </c>
+      <c r="H69" s="5">
+        <v>115908814560</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="5">
+        <v>180</v>
+      </c>
+      <c r="D70" s="5">
+        <v>73060187760</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5">
+        <v>180</v>
+      </c>
+      <c r="H70" s="5">
+        <v>73060187760</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="5">
+        <v>140</v>
+      </c>
+      <c r="D71" s="5">
+        <v>50143412340</v>
+      </c>
+      <c r="E71" s="5">
+        <v>27325820550</v>
+      </c>
+      <c r="F71" s="5">
+        <v>75</v>
+      </c>
+      <c r="G71" s="5">
+        <v>65</v>
+      </c>
+      <c r="H71" s="5">
+        <v>22817591790</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="5">
+        <v>45</v>
+      </c>
+      <c r="D72" s="5">
+        <v>169111579245</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5">
+        <v>45</v>
+      </c>
+      <c r="H72" s="5">
+        <v>169111579245</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="5">
+        <v>142</v>
+      </c>
+      <c r="D73" s="5">
+        <v>556353820029</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5">
+        <v>142</v>
+      </c>
+      <c r="H73" s="5">
+        <v>556353820029</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="5">
+        <v>56</v>
+      </c>
+      <c r="D74" s="5">
+        <v>164862266835</v>
+      </c>
+      <c r="E74" s="5">
+        <v>51674671230</v>
+      </c>
+      <c r="F74" s="5">
+        <v>22</v>
+      </c>
+      <c r="G74" s="5">
+        <v>34</v>
+      </c>
+      <c r="H74" s="5">
+        <v>113187595605</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +7657,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:AN6"/>
+  <dimension ref="B3:AN74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1431,23 +7786,137 @@
       <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="8">
+        <v>465605</v>
+      </c>
+      <c r="E4" s="8">
+        <v>99347795749517.62</v>
+      </c>
+      <c r="F4" s="8">
+        <v>465491.8046571799</v>
+      </c>
+      <c r="G4" s="8">
+        <v>93138295502243.56</v>
+      </c>
+      <c r="H4" s="8">
+        <v>113.1953428201377</v>
+      </c>
+      <c r="I4" s="8">
+        <v>6209500247274.062</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>28</v>
+        <v>97</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>329004</v>
+      </c>
+      <c r="N4" s="8">
+        <v>19942298022476.16</v>
+      </c>
+      <c r="O4" s="8">
+        <v>-329004</v>
+      </c>
+      <c r="P4" s="8">
+        <v>-19942298022476.16</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>29</v>
+        <v>110</v>
+      </c>
+      <c r="S4" s="8">
+        <v>18793</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1484414201978</v>
+      </c>
+      <c r="U4" s="8">
+        <v>18792</v>
+      </c>
+      <c r="V4" s="8">
+        <v>1465216801977.6</v>
+      </c>
+      <c r="W4" s="8">
+        <v>1</v>
+      </c>
+      <c r="X4" s="8">
+        <v>19197400000.3999</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>30</v>
+        <v>119</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>107</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>1414058.91815</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>107</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>1414058.91815</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>31</v>
+        <v>122</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>329004</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>19942298022476.16</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>-329004</v>
+      </c>
+      <c r="AN4" s="8">
+        <v>-19942298022476.16</v>
       </c>
     </row>
     <row r="5" spans="2:40">
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8">
+        <v>446705</v>
+      </c>
+      <c r="E5" s="8">
+        <v>97863380133480.7</v>
+      </c>
+      <c r="F5" s="8">
+        <v>117695.8046571798</v>
+      </c>
+      <c r="G5" s="8">
+        <v>71730780677789.8</v>
+      </c>
+      <c r="H5" s="8">
+        <v>329009.1953428202</v>
+      </c>
+      <c r="I5" s="8">
+        <v>26132599455690.91</v>
+      </c>
       <c r="J5" s="7" t="s">
         <v>18</v>
       </c>
@@ -1465,6 +7934,27 @@
       <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="C6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="8">
+        <v>18900</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1484415616036.922</v>
+      </c>
+      <c r="F6" s="8">
+        <v>347796.0000000001</v>
+      </c>
+      <c r="G6" s="8">
+        <v>21407514824453.77</v>
+      </c>
+      <c r="H6" s="8">
+        <v>-328896.0000000001</v>
+      </c>
+      <c r="I6" s="8">
+        <v>-19923099208416.84</v>
+      </c>
       <c r="J6" s="7" t="s">
         <v>27</v>
       </c>
@@ -1476,6 +7966,2053 @@
       </c>
       <c r="AH6" s="7" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:40">
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5">
+        <v>18046</v>
+      </c>
+      <c r="D7" s="5">
+        <v>144047775000</v>
+      </c>
+      <c r="E7" s="5">
+        <v>144047775000</v>
+      </c>
+      <c r="F7" s="5">
+        <v>18046</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>58886344873.047</v>
+      </c>
+      <c r="N7" s="5">
+        <v>3748</v>
+      </c>
+      <c r="O7" s="5">
+        <v>-3748</v>
+      </c>
+      <c r="P7" s="5">
+        <v>-58886344873.047</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="S7" s="5">
+        <v>5596</v>
+      </c>
+      <c r="T7" s="5">
+        <v>139900000000</v>
+      </c>
+      <c r="U7" s="5">
+        <v>139900000000</v>
+      </c>
+      <c r="V7" s="5">
+        <v>5596</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>58</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>503976</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>58</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>503976</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>19942298022476.16</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>329004</v>
+      </c>
+      <c r="AM7" s="5">
+        <v>-329004</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>-19942298022476.16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40">
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5">
+        <v>126</v>
+      </c>
+      <c r="D8" s="5">
+        <v>16900000000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>16900000000</v>
+      </c>
+      <c r="F8" s="5">
+        <v>126</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>245268194631.12</v>
+      </c>
+      <c r="N8" s="5">
+        <v>8493</v>
+      </c>
+      <c r="O8" s="5">
+        <v>-8493</v>
+      </c>
+      <c r="P8" s="5">
+        <v>-245268194631.12</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="S8" s="5">
+        <v>12899</v>
+      </c>
+      <c r="T8" s="5">
+        <v>1333792501978</v>
+      </c>
+      <c r="U8" s="5">
+        <v>1314620101977.6</v>
+      </c>
+      <c r="V8" s="5">
+        <v>12899</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
+        <v>19172400000.3999</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>49</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>910082.91815</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>49</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>910082.91815</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40">
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>362107623</v>
+      </c>
+      <c r="E9" s="5">
+        <v>362107623</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>805240720265.75</v>
+      </c>
+      <c r="N9" s="5">
+        <v>16555</v>
+      </c>
+      <c r="O9" s="5">
+        <v>-16555</v>
+      </c>
+      <c r="P9" s="5">
+        <v>-805240720265.75</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="S9" s="5">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>25000000</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <v>1</v>
+      </c>
+      <c r="X9" s="5">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40">
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1477086224</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1477086224</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1419686491263.5</v>
+      </c>
+      <c r="N10" s="5">
+        <v>22175</v>
+      </c>
+      <c r="O10" s="5">
+        <v>-22175</v>
+      </c>
+      <c r="P10" s="5">
+        <v>-1419686491263.5</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="S10" s="5">
+        <v>58</v>
+      </c>
+      <c r="T10" s="5">
+        <v>7200000000</v>
+      </c>
+      <c r="U10" s="5">
+        <v>7200000000</v>
+      </c>
+      <c r="V10" s="5">
+        <v>58</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5">
+        <v>898308742</v>
+      </c>
+      <c r="E11" s="5">
+        <v>898308742</v>
+      </c>
+      <c r="F11" s="5">
+        <v>7</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1741763917270.2</v>
+      </c>
+      <c r="N11" s="5">
+        <v>23252</v>
+      </c>
+      <c r="O11" s="5">
+        <v>-23252</v>
+      </c>
+      <c r="P11" s="5">
+        <v>-1741763917270.2</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="S11" s="5">
+        <v>23</v>
+      </c>
+      <c r="T11" s="5">
+        <v>3400000000</v>
+      </c>
+      <c r="U11" s="5">
+        <v>3400000000</v>
+      </c>
+      <c r="V11" s="5">
+        <v>23</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40">
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5">
+        <v>871541119</v>
+      </c>
+      <c r="E12" s="5">
+        <v>871541119</v>
+      </c>
+      <c r="F12" s="5">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>953016466575.72</v>
+      </c>
+      <c r="N12" s="5">
+        <v>24170</v>
+      </c>
+      <c r="O12" s="5">
+        <v>-24170</v>
+      </c>
+      <c r="P12" s="5">
+        <v>-953016466575.72</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1</v>
+      </c>
+      <c r="T12" s="5">
+        <v>300000</v>
+      </c>
+      <c r="U12" s="5">
+        <v>300000</v>
+      </c>
+      <c r="V12" s="5">
+        <v>1</v>
+      </c>
+      <c r="W12" s="5">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:40">
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5">
+        <v>345</v>
+      </c>
+      <c r="D13" s="5">
+        <v>141234954051</v>
+      </c>
+      <c r="E13" s="5">
+        <v>141231623001</v>
+      </c>
+      <c r="F13" s="5">
+        <v>344</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>3331050</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>634599746233.75</v>
+      </c>
+      <c r="N13" s="5">
+        <v>14053</v>
+      </c>
+      <c r="O13" s="5">
+        <v>-14053</v>
+      </c>
+      <c r="P13" s="5">
+        <v>-634599746233.75</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="S13" s="5">
+        <v>108</v>
+      </c>
+      <c r="T13" s="5">
+        <v>54100000</v>
+      </c>
+      <c r="U13" s="5">
+        <v>54100000</v>
+      </c>
+      <c r="V13" s="5">
+        <v>108</v>
+      </c>
+      <c r="W13" s="5">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40">
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5">
+        <v>395</v>
+      </c>
+      <c r="D14" s="5">
+        <v>150062288231</v>
+      </c>
+      <c r="E14" s="5">
+        <v>150062288231</v>
+      </c>
+      <c r="F14" s="5">
+        <v>395</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>541524111582.74</v>
+      </c>
+      <c r="N14" s="5">
+        <v>11107</v>
+      </c>
+      <c r="O14" s="5">
+        <v>-11107</v>
+      </c>
+      <c r="P14" s="5">
+        <v>-541524111582.74</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="S14" s="5">
+        <v>107</v>
+      </c>
+      <c r="T14" s="5">
+        <v>42300000</v>
+      </c>
+      <c r="U14" s="5">
+        <v>42300000</v>
+      </c>
+      <c r="V14" s="5">
+        <v>107</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:40">
+      <c r="B15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="5">
+        <v>970</v>
+      </c>
+      <c r="D15" s="5">
+        <v>311870065541</v>
+      </c>
+      <c r="E15" s="5">
+        <v>311870065541</v>
+      </c>
+      <c r="F15" s="5">
+        <v>970</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>548629320051.33</v>
+      </c>
+      <c r="N15" s="5">
+        <v>8636</v>
+      </c>
+      <c r="O15" s="5">
+        <v>-8636</v>
+      </c>
+      <c r="P15" s="5">
+        <v>-548629320051.33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40">
+      <c r="B16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5">
+        <v>11678</v>
+      </c>
+      <c r="D16" s="5">
+        <v>26243397939322.8</v>
+      </c>
+      <c r="E16" s="5">
+        <v>26243397939326</v>
+      </c>
+      <c r="F16" s="5">
+        <v>11678</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>-3.19921875</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>4452039181669</v>
+      </c>
+      <c r="N16" s="5">
+        <v>52194</v>
+      </c>
+      <c r="O16" s="5">
+        <v>-52194</v>
+      </c>
+      <c r="P16" s="5">
+        <v>-4452039181669</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="5">
+        <v>10270</v>
+      </c>
+      <c r="D17" s="5">
+        <v>16635271587455.5</v>
+      </c>
+      <c r="E17" s="5">
+        <v>16636627319156</v>
+      </c>
+      <c r="F17" s="5">
+        <v>10276</v>
+      </c>
+      <c r="G17" s="5">
+        <v>-6</v>
+      </c>
+      <c r="H17" s="5">
+        <v>-1355731700.5</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>6369593879436</v>
+      </c>
+      <c r="N17" s="5">
+        <v>97434</v>
+      </c>
+      <c r="O17" s="5">
+        <v>-97434</v>
+      </c>
+      <c r="P17" s="5">
+        <v>-6369593879436</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4165</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6158733962437</v>
+      </c>
+      <c r="E18" s="5">
+        <v>6158733962437</v>
+      </c>
+      <c r="F18" s="5">
+        <v>4165</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>2172049648624</v>
+      </c>
+      <c r="N18" s="5">
+        <v>47187</v>
+      </c>
+      <c r="O18" s="5">
+        <v>-47187</v>
+      </c>
+      <c r="P18" s="5">
+        <v>-2172049648624</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="5">
+        <v>31385</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1074396237252</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1074396237252</v>
+      </c>
+      <c r="F19" s="5">
+        <v>31385</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="5">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3223300454</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3223300454</v>
+      </c>
+      <c r="F20" s="5">
+        <v>51</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5">
+        <v>66</v>
+      </c>
+      <c r="D21" s="5">
+        <v>8243848591</v>
+      </c>
+      <c r="E21" s="5">
+        <v>8243848591</v>
+      </c>
+      <c r="F21" s="5">
+        <v>66</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5">
+        <v>227</v>
+      </c>
+      <c r="D22" s="5">
+        <v>21425478540</v>
+      </c>
+      <c r="E22" s="5">
+        <v>21425478540</v>
+      </c>
+      <c r="F22" s="5">
+        <v>226.0071459372882</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.992854062711757</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="5">
+        <v>139</v>
+      </c>
+      <c r="D23" s="5">
+        <v>796330813821.7999</v>
+      </c>
+      <c r="E23" s="5">
+        <v>796330813821.7999</v>
+      </c>
+      <c r="F23" s="5">
+        <v>138.3920409043307</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.6079590956693153</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="5">
+        <v>118</v>
+      </c>
+      <c r="D24" s="5">
+        <v>779296584622</v>
+      </c>
+      <c r="E24" s="5">
+        <v>779296584622</v>
+      </c>
+      <c r="F24" s="5">
+        <v>117.4838908396476</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.5161091603523573</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="5">
+        <v>76</v>
+      </c>
+      <c r="D25" s="5">
+        <v>362279634240</v>
+      </c>
+      <c r="E25" s="5">
+        <v>362279634240</v>
+      </c>
+      <c r="F25" s="5">
+        <v>75.66759071028153</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.3324092897184698</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="5">
+        <v>796</v>
+      </c>
+      <c r="D26" s="5">
+        <v>208153953640</v>
+      </c>
+      <c r="E26" s="5">
+        <v>208153953640</v>
+      </c>
+      <c r="F26" s="5">
+        <v>792.5184500708433</v>
+      </c>
+      <c r="G26" s="5">
+        <v>3.481549929156699</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>484860000</v>
+      </c>
+      <c r="E27" s="5">
+        <v>484860000</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.995626193556336</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.00437380644366403</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="5">
+        <v>63</v>
+      </c>
+      <c r="D28" s="5">
+        <v>29491200000</v>
+      </c>
+      <c r="E28" s="5">
+        <v>29491200000</v>
+      </c>
+      <c r="F28" s="5">
+        <v>63</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="5">
+        <v>698</v>
+      </c>
+      <c r="D29" s="5">
+        <v>95456000000</v>
+      </c>
+      <c r="E29" s="5">
+        <v>95456000000</v>
+      </c>
+      <c r="F29" s="5">
+        <v>698</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="5">
+        <v>633</v>
+      </c>
+      <c r="D30" s="5">
+        <v>83447700000</v>
+      </c>
+      <c r="E30" s="5">
+        <v>83447700000</v>
+      </c>
+      <c r="F30" s="5">
+        <v>633</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>587500000</v>
+      </c>
+      <c r="E31" s="5">
+        <v>587500000</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="5">
+        <v>5</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2295500000</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2295500000</v>
+      </c>
+      <c r="F32" s="5">
+        <v>5</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="5">
+        <v>54</v>
+      </c>
+      <c r="D33" s="5">
+        <v>26130000000</v>
+      </c>
+      <c r="E33" s="5">
+        <v>26130000000</v>
+      </c>
+      <c r="F33" s="5">
+        <v>54</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="5">
+        <v>251</v>
+      </c>
+      <c r="D34" s="5">
+        <v>145930000000</v>
+      </c>
+      <c r="E34" s="5">
+        <v>145930000000</v>
+      </c>
+      <c r="F34" s="5">
+        <v>251</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="5">
+        <v>514</v>
+      </c>
+      <c r="D35" s="5">
+        <v>450579500000</v>
+      </c>
+      <c r="E35" s="5">
+        <v>450579500000</v>
+      </c>
+      <c r="F35" s="5">
+        <v>514</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="5">
+        <v>784</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2447616987644</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2447616987644</v>
+      </c>
+      <c r="F36" s="5">
+        <v>784</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="5">
+        <v>262</v>
+      </c>
+      <c r="D37" s="5">
+        <v>753634640000</v>
+      </c>
+      <c r="E37" s="5">
+        <v>753634640000</v>
+      </c>
+      <c r="F37" s="5">
+        <v>262</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="5">
+        <v>17</v>
+      </c>
+      <c r="D38" s="5">
+        <v>12036318300</v>
+      </c>
+      <c r="E38" s="5">
+        <v>12036318300</v>
+      </c>
+      <c r="F38" s="5">
+        <v>17</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="5">
+        <v>4</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1700000000</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1700000000</v>
+      </c>
+      <c r="F39" s="5">
+        <v>4</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="5">
+        <v>4</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1430000000</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1430000000</v>
+      </c>
+      <c r="F40" s="5">
+        <v>4</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="5">
+        <v>203</v>
+      </c>
+      <c r="D41" s="5">
+        <v>120800000000</v>
+      </c>
+      <c r="E41" s="5">
+        <v>120800000000</v>
+      </c>
+      <c r="F41" s="5">
+        <v>203</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="5">
+        <v>99</v>
+      </c>
+      <c r="D42" s="5">
+        <v>49865000000</v>
+      </c>
+      <c r="E42" s="5">
+        <v>49865000000</v>
+      </c>
+      <c r="F42" s="5">
+        <v>99</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="5">
+        <v>54</v>
+      </c>
+      <c r="D43" s="5">
+        <v>23605000000</v>
+      </c>
+      <c r="E43" s="5">
+        <v>23605000000</v>
+      </c>
+      <c r="F43" s="5">
+        <v>54</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="5">
+        <v>18</v>
+      </c>
+      <c r="D44" s="5">
+        <v>7003000000</v>
+      </c>
+      <c r="E44" s="5">
+        <v>7003000000</v>
+      </c>
+      <c r="F44" s="5">
+        <v>18</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="5">
+        <v>21</v>
+      </c>
+      <c r="D45" s="5">
+        <v>8110000000</v>
+      </c>
+      <c r="E45" s="5">
+        <v>8110000000</v>
+      </c>
+      <c r="F45" s="5">
+        <v>21</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="5">
+        <v>108</v>
+      </c>
+      <c r="D46" s="5">
+        <v>52024500000</v>
+      </c>
+      <c r="E46" s="5">
+        <v>52024500000</v>
+      </c>
+      <c r="F46" s="5">
+        <v>108</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="5">
+        <v>197</v>
+      </c>
+      <c r="D47" s="5">
+        <v>102996226926</v>
+      </c>
+      <c r="E47" s="5">
+        <v>102996226926</v>
+      </c>
+      <c r="F47" s="5">
+        <v>197</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="5">
+        <v>85</v>
+      </c>
+      <c r="D48" s="5">
+        <v>34593100000</v>
+      </c>
+      <c r="E48" s="5">
+        <v>34593100000</v>
+      </c>
+      <c r="F48" s="5">
+        <v>85</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="5">
+        <v>4</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1015100000</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1015100000</v>
+      </c>
+      <c r="F49" s="5">
+        <v>4</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="5">
+        <v>90</v>
+      </c>
+      <c r="D50" s="5">
+        <v>43146511574</v>
+      </c>
+      <c r="E50" s="5">
+        <v>43146511574</v>
+      </c>
+      <c r="F50" s="5">
+        <v>89.60635742007022</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.3936425799297751</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="5">
+        <v>63</v>
+      </c>
+      <c r="D51" s="5">
+        <v>30107381700</v>
+      </c>
+      <c r="E51" s="5">
+        <v>30107381700</v>
+      </c>
+      <c r="F51" s="5">
+        <v>62.72445019404916</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.2755498059508383</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="5">
+        <v>8</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2858249700</v>
+      </c>
+      <c r="E52" s="5">
+        <v>2858249700</v>
+      </c>
+      <c r="F52" s="5">
+        <v>7.965009548450687</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.03499045154931313</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="5">
+        <v>95</v>
+      </c>
+      <c r="D53" s="5">
+        <v>26971200000</v>
+      </c>
+      <c r="E53" s="5">
+        <v>26971200000</v>
+      </c>
+      <c r="F53" s="5">
+        <v>95</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="5">
+        <v>433</v>
+      </c>
+      <c r="D54" s="5">
+        <v>158470800000</v>
+      </c>
+      <c r="E54" s="5">
+        <v>158470800000</v>
+      </c>
+      <c r="F54" s="5">
+        <v>433</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="5">
+        <v>396</v>
+      </c>
+      <c r="D55" s="5">
+        <v>152637800000</v>
+      </c>
+      <c r="E55" s="5">
+        <v>152637800000</v>
+      </c>
+      <c r="F55" s="5">
+        <v>396</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="5">
+        <v>3748</v>
+      </c>
+      <c r="D56" s="5">
+        <v>361904682911</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <v>3748</v>
+      </c>
+      <c r="H56" s="5">
+        <v>361904682911</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="5">
+        <v>8493</v>
+      </c>
+      <c r="D57" s="5">
+        <v>969418142652</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <v>8493</v>
+      </c>
+      <c r="H57" s="5">
+        <v>969418142652</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="5">
+        <v>16555</v>
+      </c>
+      <c r="D58" s="5">
+        <v>2020449107817</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
+        <v>16555</v>
+      </c>
+      <c r="H58" s="5">
+        <v>2020449107817</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="5">
+        <v>22175</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2870759825263</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
+        <v>22175</v>
+      </c>
+      <c r="H59" s="5">
+        <v>2870759825263</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="5">
+        <v>23421</v>
+      </c>
+      <c r="D60" s="5">
+        <v>2981647577378</v>
+      </c>
+      <c r="E60" s="5">
+        <v>14175000000</v>
+      </c>
+      <c r="F60" s="5">
+        <v>169</v>
+      </c>
+      <c r="G60" s="5">
+        <v>23252</v>
+      </c>
+      <c r="H60" s="5">
+        <v>2967472577378</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="5">
+        <v>24313</v>
+      </c>
+      <c r="D61" s="5">
+        <v>1546740041214</v>
+      </c>
+      <c r="E61" s="5">
+        <v>11875000000</v>
+      </c>
+      <c r="F61" s="5">
+        <v>143</v>
+      </c>
+      <c r="G61" s="5">
+        <v>24170</v>
+      </c>
+      <c r="H61" s="5">
+        <v>1534865041214</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="5">
+        <v>17107</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1237887980618</v>
+      </c>
+      <c r="E62" s="5">
+        <v>270178343250</v>
+      </c>
+      <c r="F62" s="5">
+        <v>3054</v>
+      </c>
+      <c r="G62" s="5">
+        <v>14053</v>
+      </c>
+      <c r="H62" s="5">
+        <v>967709637368</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="5">
+        <v>16270</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1183044946936</v>
+      </c>
+      <c r="E63" s="5">
+        <v>412728560000</v>
+      </c>
+      <c r="F63" s="5">
+        <v>5163</v>
+      </c>
+      <c r="G63" s="5">
+        <v>11107</v>
+      </c>
+      <c r="H63" s="5">
+        <v>770316386936</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="5">
+        <v>12822</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1136472189167</v>
+      </c>
+      <c r="E64" s="5">
+        <v>459098444090</v>
+      </c>
+      <c r="F64" s="5">
+        <v>4186</v>
+      </c>
+      <c r="G64" s="5">
+        <v>8636</v>
+      </c>
+      <c r="H64" s="5">
+        <v>677373745077</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="5">
+        <v>58312</v>
+      </c>
+      <c r="D65" s="5">
+        <v>8132972392271.5</v>
+      </c>
+      <c r="E65" s="5">
+        <v>3680933210603</v>
+      </c>
+      <c r="F65" s="5">
+        <v>6118</v>
+      </c>
+      <c r="G65" s="5">
+        <v>52194</v>
+      </c>
+      <c r="H65" s="5">
+        <v>4452039181668.5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="5">
+        <v>104998</v>
+      </c>
+      <c r="D66" s="5">
+        <v>11557725327572.1</v>
+      </c>
+      <c r="E66" s="5">
+        <v>5188131448136</v>
+      </c>
+      <c r="F66" s="5">
+        <v>7564</v>
+      </c>
+      <c r="G66" s="5">
+        <v>97434</v>
+      </c>
+      <c r="H66" s="5">
+        <v>6369593879436.1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="5">
+        <v>53579</v>
+      </c>
+      <c r="D67" s="5">
+        <v>4805865367649</v>
+      </c>
+      <c r="E67" s="5">
+        <v>2633815719025</v>
+      </c>
+      <c r="F67" s="5">
+        <v>6392</v>
+      </c>
+      <c r="G67" s="5">
+        <v>47187</v>
+      </c>
+      <c r="H67" s="5">
+        <v>2172049648624</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="5">
+        <v>62</v>
+      </c>
+      <c r="D68" s="5">
+        <v>10490880815</v>
+      </c>
+      <c r="E68" s="5">
+        <v>10490880815</v>
+      </c>
+      <c r="F68" s="5">
+        <v>62</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0</v>
+      </c>
+      <c r="H68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="5">
+        <v>250</v>
+      </c>
+      <c r="D69" s="5">
+        <v>115401851840</v>
+      </c>
+      <c r="E69" s="5">
+        <v>115401851840</v>
+      </c>
+      <c r="F69" s="5">
+        <v>248.906548389084</v>
+      </c>
+      <c r="G69" s="5">
+        <v>1.093451610916048</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="5">
+        <v>180</v>
+      </c>
+      <c r="D70" s="5">
+        <v>72740636640</v>
+      </c>
+      <c r="E70" s="5">
+        <v>72740636640</v>
+      </c>
+      <c r="F70" s="5">
+        <v>179.2127148401404</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0.7872851598595503</v>
+      </c>
+      <c r="H70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="5">
+        <v>140</v>
+      </c>
+      <c r="D71" s="5">
+        <v>49924094760</v>
+      </c>
+      <c r="E71" s="5">
+        <v>49924094760</v>
+      </c>
+      <c r="F71" s="5">
+        <v>139.387667097887</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0.6123329021129678</v>
+      </c>
+      <c r="H71" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="5">
+        <v>45</v>
+      </c>
+      <c r="D72" s="5">
+        <v>168371917930</v>
+      </c>
+      <c r="E72" s="5">
+        <v>168371917930</v>
+      </c>
+      <c r="F72" s="5">
+        <v>44.80317871003511</v>
+      </c>
+      <c r="G72" s="5">
+        <v>0.1968212899648876</v>
+      </c>
+      <c r="H72" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="5">
+        <v>142</v>
+      </c>
+      <c r="D73" s="5">
+        <v>553920436106</v>
+      </c>
+      <c r="E73" s="5">
+        <v>553920436106</v>
+      </c>
+      <c r="F73" s="5">
+        <v>141.3789194849997</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0.6210805150003011</v>
+      </c>
+      <c r="H73" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="5">
+        <v>56</v>
+      </c>
+      <c r="D74" s="5">
+        <v>164141191190</v>
+      </c>
+      <c r="E74" s="5">
+        <v>164141191190</v>
+      </c>
+      <c r="F74" s="5">
+        <v>55.75506683915481</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0.2449331608451928</v>
+      </c>
+      <c r="H74" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/IRCS3_local/Output/IRCS_Control17.3_Trad_Conv.xlsx
+++ b/IRCS3_local/Output/IRCS_Control17.3_Trad_Conv.xlsx
@@ -456,12 +456,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -480,8 +495,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/IRCS3_local/Output/IRCS_Control17.3_Trad_Conv.xlsx
+++ b/IRCS3_local/Output/IRCS_Control17.3_Trad_Conv.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RUN 3\control_3\IRCS3_local\Output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BEA14C-7646-4C09-8FDB-23F5814796CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Control and Summary" sheetId="1" r:id="rId1"/>
@@ -21,25 +15,12 @@
     <sheet name="run23" sheetId="6" r:id="rId6"/>
     <sheet name="run142" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="122">
   <si>
     <t>Valuation Year</t>
   </si>
@@ -410,11 +391,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\)_);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* (#,##0)_);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -506,30 +487,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -567,7 +537,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -601,7 +571,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -636,10 +605,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -812,22 +780,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="13" width="25.6640625" customWidth="1"/>
-    <col min="14" max="14" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="13" width="25.7109375" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +803,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -843,7 +811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -851,36 +819,36 @@
         <v>16233</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -929,27 +897,27 @@
       <c r="P6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="10"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5">
         <f>SUM(C7:F7)</f>
-        <v>465605</v>
+        <v>0</v>
       </c>
       <c r="C7" s="5">
         <f>'run4'!C5</f>
-        <v>446705</v>
+        <v>0</v>
       </c>
       <c r="D7" s="5">
         <f>'run4'!S4</f>
-        <v>18793</v>
+        <v>0</v>
       </c>
       <c r="E7" s="5">
         <f>'run4'!AA4</f>
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5">
         <f>'run4'!AI4</f>
@@ -957,15 +925,15 @@
       </c>
       <c r="G7" s="5">
         <f>SUM(H7:K7)</f>
-        <v>465502</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5">
         <f>'run4'!E5 + 'run4'!M4</f>
-        <v>446710</v>
+        <v>0</v>
       </c>
       <c r="I7" s="5">
         <f>'run4'!U4</f>
-        <v>18792</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5">
         <f>'run4'!AC4</f>
@@ -976,45 +944,45 @@
         <v>0</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" ref="L7:P10" si="0">B7-G7</f>
-        <v>103</v>
+        <f>B7-G7</f>
+        <v>0</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" si="0"/>
-        <v>-5</v>
+        <f>C7-H7</f>
+        <v>0</v>
       </c>
       <c r="N7" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D7-I7</f>
+        <v>0</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="0"/>
-        <v>107</v>
+        <f>E7-J7</f>
+        <v>0</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <f>F7-K7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5">
         <f>SUM(C8:F8)</f>
-        <v>465605</v>
+        <v>0</v>
       </c>
       <c r="C8" s="5">
         <f>'run13'!C5</f>
-        <v>446705</v>
+        <v>0</v>
       </c>
       <c r="D8" s="5">
         <f>'run13'!S4</f>
-        <v>18793</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5">
         <f>'run13'!AA4</f>
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5">
         <f>'run13'!AI4</f>
@@ -1022,15 +990,15 @@
       </c>
       <c r="G8" s="5">
         <f>SUM(H8:K8)</f>
-        <v>37462</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
         <f>'run13'!E5 + 'run13'!M4</f>
-        <v>31773</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5">
         <f>'run13'!U4</f>
-        <v>5689</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5">
         <f>'run13'!AC4</f>
@@ -1041,45 +1009,45 @@
         <v>0</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="0"/>
-        <v>428143</v>
+        <f>B8-G8</f>
+        <v>0</v>
       </c>
       <c r="M8" s="5">
-        <f t="shared" si="0"/>
-        <v>414932</v>
+        <f>C8-H8</f>
+        <v>0</v>
       </c>
       <c r="N8" s="5">
-        <f t="shared" si="0"/>
-        <v>13104</v>
+        <f>D8-I8</f>
+        <v>0</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="0"/>
-        <v>107</v>
+        <f>E8-J8</f>
+        <v>0</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <f>F8-K8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="5">
         <f>SUM(C9:F9)</f>
-        <v>465605</v>
+        <v>0</v>
       </c>
       <c r="C9" s="5">
         <f>'run23'!C5</f>
-        <v>446705</v>
+        <v>0</v>
       </c>
       <c r="D9" s="5">
         <f>'run23'!S4</f>
-        <v>18793</v>
+        <v>0</v>
       </c>
       <c r="E9" s="5">
         <f>'run23'!AA4</f>
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="F9" s="5">
         <f>'run23'!AI4</f>
@@ -1087,15 +1055,15 @@
       </c>
       <c r="G9" s="5">
         <f>SUM(H9:K9)</f>
-        <v>34863</v>
+        <v>0</v>
       </c>
       <c r="H9" s="5">
         <f>'run23'!E5 + 'run23'!M4</f>
-        <v>27546</v>
+        <v>0</v>
       </c>
       <c r="I9" s="5">
         <f>'run23'!U4</f>
-        <v>7317</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5">
         <f>'run23'!AC4</f>
@@ -1106,45 +1074,45 @@
         <v>0</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="0"/>
-        <v>430742</v>
+        <f>B9-G9</f>
+        <v>0</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" si="0"/>
-        <v>419159</v>
+        <f>C9-H9</f>
+        <v>0</v>
       </c>
       <c r="N9" s="5">
-        <f t="shared" si="0"/>
-        <v>11476</v>
+        <f>D9-I9</f>
+        <v>0</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="0"/>
-        <v>107</v>
+        <f>E9-J9</f>
+        <v>0</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <f>F9-K9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5">
         <f>SUM(C10:F10)</f>
-        <v>465605</v>
+        <v>0</v>
       </c>
       <c r="C10" s="5">
         <f>'run142'!C5</f>
-        <v>446705</v>
+        <v>0</v>
       </c>
       <c r="D10" s="5">
         <f>'run142'!S4</f>
-        <v>18793</v>
+        <v>0</v>
       </c>
       <c r="E10" s="5">
         <f>'run142'!AA4</f>
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="F10" s="5">
         <f>'run142'!AI4</f>
@@ -1152,15 +1120,15 @@
       </c>
       <c r="G10" s="5">
         <f>SUM(H10:K10)</f>
-        <v>465491.8046571798</v>
+        <v>0</v>
       </c>
       <c r="H10" s="5">
         <f>'run142'!E5 + 'run142'!M4</f>
-        <v>446699.8046571798</v>
+        <v>0</v>
       </c>
       <c r="I10" s="5">
         <f>'run142'!U4</f>
-        <v>18792</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5">
         <f>'run142'!AC4</f>
@@ -1171,23 +1139,23 @@
         <v>0</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="0"/>
-        <v>113.19534282019595</v>
+        <f>B10-G10</f>
+        <v>0</v>
       </c>
       <c r="M10" s="5">
-        <f t="shared" si="0"/>
-        <v>5.1953428201959468</v>
+        <f>C10-H10</f>
+        <v>0</v>
       </c>
       <c r="N10" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D10-I10</f>
+        <v>0</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="0"/>
-        <v>107</v>
+        <f>E10-J10</f>
+        <v>0</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" si="0"/>
+        <f>F10-K10</f>
         <v>0</v>
       </c>
     </row>
@@ -1203,52 +1171,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:AN74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="8" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="40.6640625" customWidth="1"/>
-    <col min="11" max="16" width="20.6640625" customWidth="1"/>
-    <col min="18" max="18" width="40.6640625" customWidth="1"/>
-    <col min="19" max="24" width="20.6640625" customWidth="1"/>
-    <col min="26" max="26" width="40.6640625" customWidth="1"/>
-    <col min="27" max="32" width="20.6640625" customWidth="1"/>
-    <col min="34" max="34" width="40.6640625" customWidth="1"/>
-    <col min="35" max="40" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="8" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="40.7109375" customWidth="1"/>
+    <col min="11" max="16" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="40.7109375" customWidth="1"/>
+    <col min="19" max="24" width="20.7109375" customWidth="1"/>
+    <col min="26" max="26" width="40.7109375" customWidth="1"/>
+    <col min="27" max="32" width="20.7109375" customWidth="1"/>
+    <col min="34" max="34" width="40.7109375" customWidth="1"/>
+    <col min="35" max="40" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:40">
       <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1355,140 +1321,140 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:40">
       <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="8">
-        <v>465605</v>
+        <v>465611</v>
       </c>
       <c r="D4" s="8">
-        <v>99362594006870.516</v>
+        <v>99363449738570.52</v>
       </c>
       <c r="E4" s="8">
         <v>465502</v>
       </c>
       <c r="F4" s="8">
-        <v>93153093759596.453</v>
+        <v>93153093759596.45</v>
       </c>
       <c r="G4" s="8">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H4" s="8">
-        <v>6209500247274.0615</v>
+        <v>6210355978974.062</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>96</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4:P4" si="0">SUM(K7:K18)</f>
+        <f>SUM(K7:K18)</f>
         <v>0</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(L7:L18)</f>
         <v>0</v>
       </c>
       <c r="M4" s="8">
-        <f t="shared" si="0"/>
-        <v>329004</v>
+        <f>SUM(M7:M18)</f>
+        <v>0</v>
       </c>
       <c r="N4" s="8">
-        <f t="shared" si="0"/>
-        <v>19942298022476.156</v>
+        <f>SUM(N7:N18)</f>
+        <v>0</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" si="0"/>
-        <v>-329004</v>
+        <f>SUM(O7:O18)</f>
+        <v>0</v>
       </c>
       <c r="P4" s="8">
-        <f t="shared" si="0"/>
-        <v>-19942298022476.156</v>
+        <f>SUM(P7:P18)</f>
+        <v>0</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>109</v>
       </c>
       <c r="S4" s="8">
-        <f t="shared" ref="S4:X4" si="1">SUM(S7:S14)</f>
-        <v>18793</v>
+        <f>SUM(S7:S14)</f>
+        <v>0</v>
       </c>
       <c r="T4" s="8">
-        <f t="shared" si="1"/>
-        <v>1484414201978</v>
+        <f>SUM(T7:T14)</f>
+        <v>0</v>
       </c>
       <c r="U4" s="8">
-        <f t="shared" si="1"/>
-        <v>18792</v>
+        <f>SUM(U7:U14)</f>
+        <v>0</v>
       </c>
       <c r="V4" s="8">
-        <f t="shared" si="1"/>
-        <v>1465216801977.6001</v>
+        <f>SUM(V7:V14)</f>
+        <v>0</v>
       </c>
       <c r="W4" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(W7:W14)</f>
+        <v>0</v>
       </c>
       <c r="X4" s="8">
-        <f t="shared" si="1"/>
-        <v>19197400000.399899</v>
+        <f>SUM(X7:X14)</f>
+        <v>0</v>
       </c>
       <c r="Z4" s="7" t="s">
         <v>118</v>
       </c>
       <c r="AA4" s="8">
-        <f t="shared" ref="AA4:AF4" si="2">SUM(AA7:AA8)</f>
-        <v>107</v>
+        <f>SUM(AA7:AA8)</f>
+        <v>0</v>
       </c>
       <c r="AB4" s="8">
-        <f t="shared" si="2"/>
-        <v>1414058.91815</v>
+        <f>SUM(AB7:AB8)</f>
+        <v>0</v>
       </c>
       <c r="AC4" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(AC7:AC8)</f>
         <v>0</v>
       </c>
       <c r="AD4" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(AD7:AD8)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="8">
-        <f t="shared" si="2"/>
-        <v>107</v>
+        <f>SUM(AE7:AE8)</f>
+        <v>0</v>
       </c>
       <c r="AF4" s="8">
-        <f t="shared" si="2"/>
-        <v>1414058.91815</v>
+        <f>SUM(AF7:AF8)</f>
+        <v>0</v>
       </c>
       <c r="AH4" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:40">
       <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="8">
-        <f t="shared" ref="C5:H5" si="3">SUM(C7:C74)</f>
-        <v>446705</v>
+        <f>SUM(C7:C74)</f>
+        <v>0</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="3"/>
-        <v>97878178390833.594</v>
+        <f>SUM(D7:D74)</f>
+        <v>0</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" si="3"/>
-        <v>117706</v>
+        <f>SUM(E7:E74)</f>
+        <v>0</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="3"/>
-        <v>71745578935142.703</v>
+        <f>SUM(F7:F74)</f>
+        <v>0</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="3"/>
-        <v>328999</v>
+        <f>SUM(G7:G74)</f>
+        <v>0</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" si="3"/>
-        <v>26132599455690.898</v>
+        <f>SUM(H7:H74)</f>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>26</v>
@@ -1503,33 +1469,33 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:40">
       <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="8">
-        <f t="shared" ref="C6:H6" si="4">C4 - C5</f>
-        <v>18900</v>
+        <f>C4 - C5</f>
+        <v>0</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="4"/>
-        <v>1484415616036.9219</v>
+        <f>D4 - D5</f>
+        <v>0</v>
       </c>
       <c r="E6" s="8">
-        <f t="shared" si="4"/>
-        <v>347796</v>
+        <f>E4 - E5</f>
+        <v>0</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="4"/>
-        <v>21407514824453.75</v>
+        <f>F4 - F5</f>
+        <v>0</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="4"/>
-        <v>-328896</v>
+        <f>G4 - G5</f>
+        <v>0</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" si="4"/>
-        <v>-19923099208416.836</v>
+        <f>H4 - H5</f>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>27</v>
@@ -1544,7 +1510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:40">
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1579,13 +1545,13 @@
         <v>3748</v>
       </c>
       <c r="N7" s="9">
-        <v>58886344873.046997</v>
+        <v>58886344873.047</v>
       </c>
       <c r="O7" s="9">
         <v>-3748</v>
       </c>
       <c r="P7" s="9">
-        <v>-58886344873.046997</v>
+        <v>-58886344873.047</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>110</v>
@@ -1630,7 +1596,7 @@
         <v>503976</v>
       </c>
     </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:40">
       <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1686,13 +1652,13 @@
         <v>12899</v>
       </c>
       <c r="V8" s="9">
-        <v>1314620101977.6001</v>
+        <v>1314620101977.6</v>
       </c>
       <c r="W8" s="9">
         <v>0</v>
       </c>
       <c r="X8" s="9">
-        <v>19172400000.399899</v>
+        <v>19172400000.3999</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>120</v>
@@ -1701,7 +1667,7 @@
         <v>49</v>
       </c>
       <c r="AB8" s="9">
-        <v>910082.91815000004</v>
+        <v>910082.91815</v>
       </c>
       <c r="AC8" s="9">
         <v>0</v>
@@ -1713,10 +1679,10 @@
         <v>49</v>
       </c>
       <c r="AF8" s="9">
-        <v>910082.91815000004</v>
-      </c>
-    </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.3">
+        <v>910082.91815</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40">
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1781,7 +1747,7 @@
         <v>25000000</v>
       </c>
     </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:40">
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1846,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:40">
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1911,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:40">
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1946,13 +1912,13 @@
         <v>24170</v>
       </c>
       <c r="N12" s="9">
-        <v>953016466575.71997</v>
+        <v>953016466575.72</v>
       </c>
       <c r="O12" s="9">
         <v>-24170</v>
       </c>
       <c r="P12" s="9">
-        <v>-953016466575.71997</v>
+        <v>-953016466575.72</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>115</v>
@@ -1976,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:40">
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
@@ -2041,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:40">
       <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
@@ -2076,13 +2042,13 @@
         <v>11107</v>
       </c>
       <c r="N14" s="9">
-        <v>541524111582.73999</v>
+        <v>541524111582.74</v>
       </c>
       <c r="O14" s="9">
         <v>-11107</v>
       </c>
       <c r="P14" s="9">
-        <v>-541524111582.73999</v>
+        <v>-541524111582.74</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>117</v>
@@ -2106,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:40">
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
@@ -2141,16 +2107,16 @@
         <v>8636</v>
       </c>
       <c r="N15" s="9">
-        <v>548629320051.33002</v>
+        <v>548629320051.33</v>
       </c>
       <c r="O15" s="9">
         <v>-8636</v>
       </c>
       <c r="P15" s="9">
-        <v>-548629320051.33002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.3">
+        <v>-548629320051.33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40">
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
@@ -2158,7 +2124,7 @@
         <v>11678</v>
       </c>
       <c r="D16" s="9">
-        <v>26243397939322.801</v>
+        <v>26243397939322.8</v>
       </c>
       <c r="E16" s="9">
         <v>11678</v>
@@ -2194,15 +2160,15 @@
         <v>-4452039181669</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16">
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="9">
-        <v>10270</v>
+        <v>10276</v>
       </c>
       <c r="D17" s="9">
-        <v>16635271587455.5</v>
+        <v>16636127319155.5</v>
       </c>
       <c r="E17" s="9">
         <v>10276</v>
@@ -2211,10 +2177,10 @@
         <v>16636627319156</v>
       </c>
       <c r="G17" s="9">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="H17" s="9">
-        <v>-1355731700.5</v>
+        <v>-500000000.5</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>107</v>
@@ -2238,7 +2204,7 @@
         <v>-6369593879436</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16">
       <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
@@ -2282,7 +2248,7 @@
         <v>-2172049648624</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16">
       <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
@@ -2305,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16">
       <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
@@ -2328,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16">
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2351,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16">
       <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
@@ -2374,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16">
       <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
@@ -2382,13 +2348,13 @@
         <v>139</v>
       </c>
       <c r="D23" s="9">
-        <v>799829111543.69995</v>
+        <v>799829111543.7</v>
       </c>
       <c r="E23" s="9">
         <v>139</v>
       </c>
       <c r="F23" s="9">
-        <v>799829111543.69995</v>
+        <v>799829111543.7</v>
       </c>
       <c r="G23" s="9">
         <v>0</v>
@@ -2397,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16">
       <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
@@ -2420,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16">
       <c r="B25" s="1" t="s">
         <v>46</v>
       </c>
@@ -2443,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16">
       <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
@@ -2466,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16">
       <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
@@ -2489,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16">
       <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2512,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16">
       <c r="B29" s="1" t="s">
         <v>50</v>
       </c>
@@ -2535,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16">
       <c r="B30" s="1" t="s">
         <v>51</v>
       </c>
@@ -2558,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16">
       <c r="B31" s="1" t="s">
         <v>52</v>
       </c>
@@ -2581,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16">
       <c r="B32" s="1" t="s">
         <v>53</v>
       </c>
@@ -2604,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8">
       <c r="B33" s="1" t="s">
         <v>54</v>
       </c>
@@ -2627,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8">
       <c r="B34" s="1" t="s">
         <v>55</v>
       </c>
@@ -2650,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8">
       <c r="B35" s="1" t="s">
         <v>56</v>
       </c>
@@ -2673,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8">
       <c r="B36" s="1" t="s">
         <v>57</v>
       </c>
@@ -2696,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8">
       <c r="B37" s="1" t="s">
         <v>58</v>
       </c>
@@ -2719,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8">
       <c r="B38" s="1" t="s">
         <v>59</v>
       </c>
@@ -2742,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8">
       <c r="B39" s="1" t="s">
         <v>60</v>
       </c>
@@ -2765,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8">
       <c r="B40" s="1" t="s">
         <v>61</v>
       </c>
@@ -2788,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8">
       <c r="B41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2811,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8">
       <c r="B42" s="1" t="s">
         <v>63</v>
       </c>
@@ -2834,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8">
       <c r="B43" s="1" t="s">
         <v>64</v>
       </c>
@@ -2857,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8">
       <c r="B44" s="1" t="s">
         <v>65</v>
       </c>
@@ -2880,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8">
       <c r="B45" s="1" t="s">
         <v>66</v>
       </c>
@@ -2903,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8">
       <c r="B46" s="1" t="s">
         <v>67</v>
       </c>
@@ -2926,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8">
       <c r="B47" s="1" t="s">
         <v>68</v>
       </c>
@@ -2949,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8">
       <c r="B48" s="1" t="s">
         <v>69</v>
       </c>
@@ -2972,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8">
       <c r="B49" s="1" t="s">
         <v>70</v>
       </c>
@@ -2995,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8">
       <c r="B50" s="1" t="s">
         <v>71</v>
       </c>
@@ -3018,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8">
       <c r="B51" s="1" t="s">
         <v>72</v>
       </c>
@@ -3041,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8">
       <c r="B52" s="1" t="s">
         <v>73</v>
       </c>
@@ -3064,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8">
       <c r="B53" s="1" t="s">
         <v>74</v>
       </c>
@@ -3087,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8">
       <c r="B54" s="1" t="s">
         <v>75</v>
       </c>
@@ -3110,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8">
       <c r="B55" s="1" t="s">
         <v>76</v>
       </c>
@@ -3133,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8">
       <c r="B56" s="1" t="s">
         <v>77</v>
       </c>
@@ -3156,7 +3122,7 @@
         <v>361904682911</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8">
       <c r="B57" s="1" t="s">
         <v>78</v>
       </c>
@@ -3179,7 +3145,7 @@
         <v>969418142652</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8">
       <c r="B58" s="1" t="s">
         <v>79</v>
       </c>
@@ -3202,7 +3168,7 @@
         <v>2020449107817</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8">
       <c r="B59" s="1" t="s">
         <v>80</v>
       </c>
@@ -3225,7 +3191,7 @@
         <v>2870759825263</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8">
       <c r="B60" s="1" t="s">
         <v>81</v>
       </c>
@@ -3248,7 +3214,7 @@
         <v>2967472577378</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8">
       <c r="B61" s="1" t="s">
         <v>82</v>
       </c>
@@ -3271,7 +3237,7 @@
         <v>1534865041214</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8">
       <c r="B62" s="1" t="s">
         <v>83</v>
       </c>
@@ -3294,7 +3260,7 @@
         <v>967709637368</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8">
       <c r="B63" s="1" t="s">
         <v>84</v>
       </c>
@@ -3317,7 +3283,7 @@
         <v>770316386936</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8">
       <c r="B64" s="1" t="s">
         <v>85</v>
       </c>
@@ -3340,7 +3306,7 @@
         <v>677373745077</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8">
       <c r="B65" s="1" t="s">
         <v>86</v>
       </c>
@@ -3363,7 +3329,7 @@
         <v>4452039181668.5</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8">
       <c r="B66" s="1" t="s">
         <v>87</v>
       </c>
@@ -3383,10 +3349,10 @@
         <v>97434</v>
       </c>
       <c r="H66" s="9">
-        <v>6369593879436.0996</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+        <v>6369593879436.1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
       <c r="B67" s="1" t="s">
         <v>88</v>
       </c>
@@ -3409,7 +3375,7 @@
         <v>2172049648624</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8">
       <c r="B68" s="1" t="s">
         <v>89</v>
       </c>
@@ -3432,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8">
       <c r="B69" s="1" t="s">
         <v>90</v>
       </c>
@@ -3455,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8">
       <c r="B70" s="1" t="s">
         <v>91</v>
       </c>
@@ -3478,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8">
       <c r="B71" s="1" t="s">
         <v>92</v>
       </c>
@@ -3501,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8">
       <c r="B72" s="1" t="s">
         <v>93</v>
       </c>
@@ -3524,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8">
       <c r="B73" s="1" t="s">
         <v>94</v>
       </c>
@@ -3547,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8">
       <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
@@ -3576,26 +3542,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B3:AN74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:AN16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="8" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="40.6640625" customWidth="1"/>
-    <col min="11" max="16" width="20.6640625" customWidth="1"/>
-    <col min="18" max="18" width="40.6640625" customWidth="1"/>
-    <col min="19" max="24" width="20.6640625" customWidth="1"/>
-    <col min="26" max="26" width="40.6640625" customWidth="1"/>
-    <col min="27" max="32" width="20.6640625" customWidth="1"/>
-    <col min="34" max="34" width="40.6640625" customWidth="1"/>
-    <col min="35" max="40" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="8" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="40.7109375" customWidth="1"/>
+    <col min="11" max="16" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="40.7109375" customWidth="1"/>
+    <col min="19" max="24" width="20.7109375" customWidth="1"/>
+    <col min="26" max="26" width="40.7109375" customWidth="1"/>
+    <col min="27" max="32" width="20.7109375" customWidth="1"/>
+    <col min="34" max="34" width="40.7109375" customWidth="1"/>
+    <col min="35" max="40" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:40">
       <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
@@ -3702,15 +3668,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:40">
       <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="8">
-        <v>465605</v>
+        <v>72375</v>
       </c>
       <c r="D4" s="8">
-        <v>99436585293635.016</v>
+        <v>13883665161006.92</v>
       </c>
       <c r="E4" s="8">
         <v>37462</v>
@@ -3719,123 +3685,123 @@
         <v>6847854395260</v>
       </c>
       <c r="G4" s="8">
-        <v>428143</v>
+        <v>34913</v>
       </c>
       <c r="H4" s="8">
-        <v>92588730898375.016</v>
+        <v>7035810765746.918</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>96</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4:P4" si="0">SUM(K7:K7)</f>
+        <f>SUM(K7:K7)</f>
         <v>0</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(L7:L7)</f>
         <v>0</v>
       </c>
       <c r="M4" s="8">
-        <f t="shared" si="0"/>
-        <v>25894</v>
+        <f>SUM(M7:M7)</f>
+        <v>0</v>
       </c>
       <c r="N4" s="8">
-        <f t="shared" si="0"/>
-        <v>1181864500614</v>
+        <f>SUM(N7:N7)</f>
+        <v>0</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" si="0"/>
-        <v>-25894</v>
+        <f>SUM(O7:O7)</f>
+        <v>0</v>
       </c>
       <c r="P4" s="8">
-        <f t="shared" si="0"/>
-        <v>-1181864500614</v>
+        <f>SUM(P7:P7)</f>
+        <v>0</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>109</v>
       </c>
       <c r="S4" s="8">
-        <f t="shared" ref="S4:X4" si="1">SUM(S7:S14)</f>
-        <v>18793</v>
+        <f>SUM(S7:S9)</f>
+        <v>0</v>
       </c>
       <c r="T4" s="8">
-        <f t="shared" si="1"/>
-        <v>1484414201978</v>
+        <f>SUM(T7:T9)</f>
+        <v>0</v>
       </c>
       <c r="U4" s="8">
-        <f t="shared" si="1"/>
-        <v>5689</v>
+        <f>SUM(U7:U9)</f>
+        <v>0</v>
       </c>
       <c r="V4" s="8">
-        <f t="shared" si="1"/>
-        <v>278527489110</v>
+        <f>SUM(V7:V9)</f>
+        <v>0</v>
       </c>
       <c r="W4" s="8">
-        <f t="shared" si="1"/>
-        <v>13104</v>
+        <f>SUM(W7:W9)</f>
+        <v>0</v>
       </c>
       <c r="X4" s="8">
-        <f t="shared" si="1"/>
-        <v>1205886712868</v>
+        <f>SUM(X7:X9)</f>
+        <v>0</v>
       </c>
       <c r="Z4" s="7" t="s">
         <v>118</v>
       </c>
       <c r="AA4" s="8">
-        <f t="shared" ref="AA4:AF4" si="2">SUM(AA7:AA8)</f>
-        <v>107</v>
+        <f>SUM(AA7:AA7)</f>
+        <v>0</v>
       </c>
       <c r="AB4" s="8">
-        <f t="shared" si="2"/>
-        <v>1414058.91815</v>
+        <f>SUM(AB7:AB7)</f>
+        <v>0</v>
       </c>
       <c r="AC4" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(AC7:AC7)</f>
         <v>0</v>
       </c>
       <c r="AD4" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(AD7:AD7)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="8">
-        <f t="shared" si="2"/>
-        <v>107</v>
+        <f>SUM(AE7:AE7)</f>
+        <v>0</v>
       </c>
       <c r="AF4" s="8">
-        <f t="shared" si="2"/>
-        <v>1414058.91815</v>
+        <f>SUM(AF7:AF7)</f>
+        <v>0</v>
       </c>
       <c r="AH4" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:40">
       <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="8">
-        <f t="shared" ref="C5:H5" si="3">SUM(C7:C74)</f>
-        <v>446705</v>
+        <f>SUM(C7:C16)</f>
+        <v>0</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="3"/>
-        <v>97952169677598.094</v>
+        <f>SUM(D7:D16)</f>
+        <v>0</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" si="3"/>
-        <v>5879</v>
+        <f>SUM(E7:E16)</f>
+        <v>0</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="3"/>
-        <v>5387462405536</v>
+        <f>SUM(F7:F16)</f>
+        <v>0</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="3"/>
-        <v>440826</v>
+        <f>SUM(G7:G16)</f>
+        <v>0</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" si="3"/>
-        <v>92564707272062.094</v>
+        <f>SUM(H7:H16)</f>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>26</v>
@@ -3850,33 +3816,33 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:40">
       <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="8">
-        <f t="shared" ref="C6:H6" si="4">C4 - C5</f>
-        <v>18900</v>
+        <f>C4 - C5</f>
+        <v>0</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="4"/>
-        <v>1484415616036.9219</v>
+        <f>D4 - D5</f>
+        <v>0</v>
       </c>
       <c r="E6" s="8">
-        <f t="shared" si="4"/>
-        <v>31583</v>
+        <f>E4 - E5</f>
+        <v>0</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="4"/>
-        <v>1460391989724</v>
+        <f>F4 - F5</f>
+        <v>0</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="4"/>
-        <v>-12683</v>
+        <f>G4 - G5</f>
+        <v>0</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" si="4"/>
-        <v>24023626312.921875</v>
+        <f>H4 - H5</f>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>27</v>
@@ -3891,27 +3857,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:40">
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C7" s="9">
-        <v>18046</v>
+        <v>4165</v>
       </c>
       <c r="D7" s="9">
-        <v>144047775000</v>
+        <v>6158733962437</v>
       </c>
       <c r="E7" s="9">
-        <v>0</v>
+        <v>2310</v>
       </c>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>3292764905651</v>
       </c>
       <c r="G7" s="9">
-        <v>18046</v>
+        <v>1855</v>
       </c>
       <c r="H7" s="9">
-        <v>144047775000</v>
+        <v>2865969056786</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>108</v>
@@ -3935,1754 +3901,294 @@
         <v>-1181864500614</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S7" s="9">
-        <v>5596</v>
+        <v>12899</v>
       </c>
       <c r="T7" s="9">
-        <v>139900000000</v>
+        <v>1333792501978</v>
       </c>
       <c r="U7" s="9">
-        <v>0</v>
+        <v>5632</v>
       </c>
       <c r="V7" s="9">
-        <v>0</v>
+        <v>278504389110</v>
       </c>
       <c r="W7" s="9">
-        <v>5596</v>
+        <v>7267</v>
       </c>
       <c r="X7" s="9">
-        <v>139900000000</v>
+        <v>1055288112868</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA7" s="9">
+        <v>49</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>910082.91815</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>49</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>910082.91815</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40">
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="9">
+        <v>76</v>
+      </c>
+      <c r="D8" s="9">
+        <v>371828645760</v>
+      </c>
+      <c r="E8" s="9">
+        <v>33</v>
+      </c>
+      <c r="F8" s="9">
+        <v>173644401000</v>
+      </c>
+      <c r="G8" s="9">
+        <v>43</v>
+      </c>
+      <c r="H8" s="9">
+        <v>198184244760</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S8" s="9">
+        <v>1</v>
+      </c>
+      <c r="T8" s="9">
+        <v>25000000</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <v>1</v>
+      </c>
+      <c r="X8" s="9">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40">
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="9">
+        <v>633</v>
+      </c>
+      <c r="D9" s="9">
+        <v>83447700000</v>
+      </c>
+      <c r="E9" s="9">
+        <v>340</v>
+      </c>
+      <c r="F9" s="9">
+        <v>46842700000</v>
+      </c>
+      <c r="G9" s="9">
+        <v>293</v>
+      </c>
+      <c r="H9" s="9">
+        <v>36605000000</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S9" s="9">
+        <v>107</v>
+      </c>
+      <c r="T9" s="9">
+        <v>42300000</v>
+      </c>
+      <c r="U9" s="9">
+        <v>57</v>
+      </c>
+      <c r="V9" s="9">
+        <v>23100000</v>
+      </c>
+      <c r="W9" s="9">
+        <v>50</v>
+      </c>
+      <c r="X9" s="9">
+        <v>19200000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40">
+      <c r="B10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AB7" s="9">
-        <v>503976</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>58</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>503976</v>
-      </c>
-    </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="9">
-        <v>126</v>
-      </c>
-      <c r="D8" s="9">
-        <v>16900000000</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>126</v>
-      </c>
-      <c r="H8" s="9">
-        <v>16900000000</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="S8" s="9">
-        <v>12899</v>
-      </c>
-      <c r="T8" s="9">
-        <v>1333792501978</v>
-      </c>
-      <c r="U8" s="9">
-        <v>5632</v>
-      </c>
-      <c r="V8" s="9">
-        <v>278504389110</v>
-      </c>
-      <c r="W8" s="9">
-        <v>7267</v>
-      </c>
-      <c r="X8" s="9">
-        <v>1055288112868</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA8" s="9">
-        <v>49</v>
-      </c>
-      <c r="AB8" s="9">
-        <v>910082.91815000004</v>
-      </c>
-      <c r="AC8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="9">
-        <v>49</v>
-      </c>
-      <c r="AF8" s="9">
-        <v>910082.91815000004</v>
-      </c>
-    </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="9">
-        <v>362107623</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>2</v>
-      </c>
-      <c r="H9" s="9">
-        <v>362107623</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S9" s="9">
+      <c r="C10" s="9">
+        <v>262</v>
+      </c>
+      <c r="D10" s="9">
+        <v>753634640000</v>
+      </c>
+      <c r="E10" s="9">
+        <v>134</v>
+      </c>
+      <c r="F10" s="9">
+        <v>385222640000</v>
+      </c>
+      <c r="G10" s="9">
+        <v>128</v>
+      </c>
+      <c r="H10" s="9">
+        <v>368412000000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="B11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="9">
+        <v>4</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1015100000</v>
+      </c>
+      <c r="E11" s="9">
         <v>1</v>
       </c>
-      <c r="T9" s="9">
-        <v>25000000</v>
-      </c>
-      <c r="U9" s="9">
-        <v>0</v>
-      </c>
-      <c r="V9" s="9">
-        <v>0</v>
-      </c>
-      <c r="W9" s="9">
-        <v>1</v>
-      </c>
-      <c r="X9" s="9">
-        <v>25000000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="9">
-        <v>4</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1477086224</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>4</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1477086224</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="S10" s="9">
-        <v>58</v>
-      </c>
-      <c r="T10" s="9">
-        <v>7200000000</v>
-      </c>
-      <c r="U10" s="9">
-        <v>0</v>
-      </c>
-      <c r="V10" s="9">
-        <v>0</v>
-      </c>
-      <c r="W10" s="9">
-        <v>58</v>
-      </c>
-      <c r="X10" s="9">
-        <v>7200000000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="9">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9">
-        <v>898308742</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
       <c r="F11" s="9">
-        <v>0</v>
+        <v>300000000</v>
       </c>
       <c r="G11" s="9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H11" s="9">
-        <v>898308742</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="S11" s="9">
-        <v>23</v>
-      </c>
-      <c r="T11" s="9">
-        <v>3400000000</v>
-      </c>
-      <c r="U11" s="9">
-        <v>0</v>
-      </c>
-      <c r="V11" s="9">
-        <v>0</v>
-      </c>
-      <c r="W11" s="9">
-        <v>23</v>
-      </c>
-      <c r="X11" s="9">
-        <v>3400000000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.3">
+        <v>715100000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40">
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C12" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" s="9">
-        <v>871541119</v>
+        <v>2933587800</v>
       </c>
       <c r="E12" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="9">
-        <v>0</v>
+        <v>1063261500</v>
       </c>
       <c r="G12" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H12" s="9">
-        <v>871541119</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S12" s="9">
-        <v>1</v>
-      </c>
-      <c r="T12" s="9">
-        <v>300000</v>
-      </c>
-      <c r="U12" s="9">
-        <v>0</v>
-      </c>
-      <c r="V12" s="9">
-        <v>0</v>
-      </c>
-      <c r="W12" s="9">
-        <v>1</v>
-      </c>
-      <c r="X12" s="9">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.3">
+        <v>1870326300</v>
+      </c>
+    </row>
+    <row r="13" spans="2:40">
       <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="9">
+        <v>396</v>
+      </c>
+      <c r="D13" s="9">
+        <v>152637800000</v>
+      </c>
+      <c r="E13" s="9">
+        <v>229</v>
+      </c>
+      <c r="F13" s="9">
+        <v>75157100000</v>
+      </c>
+      <c r="G13" s="9">
+        <v>167</v>
+      </c>
+      <c r="H13" s="9">
+        <v>77480700000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40">
+      <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="9">
+        <v>53579</v>
+      </c>
+      <c r="D14" s="9">
+        <v>4805865367649</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2730</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1276462209990</v>
+      </c>
+      <c r="G14" s="9">
+        <v>50849</v>
+      </c>
+      <c r="H14" s="9">
+        <v>3529403157659</v>
+      </c>
+    </row>
+    <row r="15" spans="2:40">
+      <c r="B15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="9">
+        <v>140</v>
+      </c>
+      <c r="D15" s="9">
+        <v>51240000240</v>
+      </c>
+      <c r="E15" s="9">
+        <v>65</v>
+      </c>
+      <c r="F15" s="9">
+        <v>22817591790</v>
+      </c>
+      <c r="G15" s="9">
+        <v>75</v>
+      </c>
+      <c r="H15" s="9">
+        <v>28422408450</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40">
+      <c r="B16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="9">
+        <v>56</v>
+      </c>
+      <c r="D16" s="9">
+        <v>168467645060</v>
+      </c>
+      <c r="E16" s="9">
         <v>34</v>
       </c>
-      <c r="C13" s="9">
-        <v>345</v>
-      </c>
-      <c r="D13" s="9">
-        <v>141234954051</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>345</v>
-      </c>
-      <c r="H13" s="9">
-        <v>141234954051</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="S13" s="9">
-        <v>108</v>
-      </c>
-      <c r="T13" s="9">
-        <v>54100000</v>
-      </c>
-      <c r="U13" s="9">
-        <v>0</v>
-      </c>
-      <c r="V13" s="9">
-        <v>0</v>
-      </c>
-      <c r="W13" s="9">
-        <v>108</v>
-      </c>
-      <c r="X13" s="9">
-        <v>54100000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="9">
-        <v>395</v>
-      </c>
-      <c r="D14" s="9">
-        <v>150062288231</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>395</v>
-      </c>
-      <c r="H14" s="9">
-        <v>150062288231</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="S14" s="9">
-        <v>107</v>
-      </c>
-      <c r="T14" s="9">
-        <v>42300000</v>
-      </c>
-      <c r="U14" s="9">
-        <v>57</v>
-      </c>
-      <c r="V14" s="9">
-        <v>23100000</v>
-      </c>
-      <c r="W14" s="9">
-        <v>50</v>
-      </c>
-      <c r="X14" s="9">
-        <v>19200000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="9">
-        <v>970</v>
-      </c>
-      <c r="D15" s="9">
-        <v>311870065541</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>970</v>
-      </c>
-      <c r="H15" s="9">
-        <v>311870065541</v>
-      </c>
-    </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="9">
-        <v>11678</v>
-      </c>
-      <c r="D16" s="9">
-        <v>26243397939322.801</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
       <c r="F16" s="9">
-        <v>0</v>
+        <v>113187595605</v>
       </c>
       <c r="G16" s="9">
-        <v>11678</v>
+        <v>22</v>
       </c>
       <c r="H16" s="9">
-        <v>26243397939322.801</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="9">
-        <v>10270</v>
-      </c>
-      <c r="D17" s="9">
-        <v>16635271587455.5</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>10270</v>
-      </c>
-      <c r="H17" s="9">
-        <v>16635271587455.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="9">
-        <v>4165</v>
-      </c>
-      <c r="D18" s="9">
-        <v>6158733962437</v>
-      </c>
-      <c r="E18" s="9">
-        <v>2310</v>
-      </c>
-      <c r="F18" s="9">
-        <v>3292764905651</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1855</v>
-      </c>
-      <c r="H18" s="9">
-        <v>2865969056786</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="9">
-        <v>31385</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1074396237252</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>31385</v>
-      </c>
-      <c r="H19" s="9">
-        <v>1074396237252</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="9">
-        <v>51</v>
-      </c>
-      <c r="D20" s="9">
-        <v>3223300454</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>51</v>
-      </c>
-      <c r="H20" s="9">
-        <v>3223300454</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="9">
-        <v>66</v>
-      </c>
-      <c r="D21" s="9">
-        <v>8243848591</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>66</v>
-      </c>
-      <c r="H21" s="9">
-        <v>8243848591</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="9">
-        <v>227</v>
-      </c>
-      <c r="D22" s="9">
-        <v>21990213960</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>227</v>
-      </c>
-      <c r="H22" s="9">
-        <v>21990213960</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="9">
-        <v>139</v>
-      </c>
-      <c r="D23" s="9">
-        <v>817320600153.19995</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9">
-        <v>139</v>
-      </c>
-      <c r="H23" s="9">
-        <v>817320600153.19995</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="9">
-        <v>118</v>
-      </c>
-      <c r="D24" s="9">
-        <v>799837380628</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>118</v>
-      </c>
-      <c r="H24" s="9">
-        <v>799837380628</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="9">
-        <v>76</v>
-      </c>
-      <c r="D25" s="9">
-        <v>371828645760</v>
-      </c>
-      <c r="E25" s="9">
-        <v>33</v>
-      </c>
-      <c r="F25" s="9">
-        <v>173644401000</v>
-      </c>
-      <c r="G25" s="9">
-        <v>43</v>
-      </c>
-      <c r="H25" s="9">
-        <v>198184244760</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="9">
-        <v>796</v>
-      </c>
-      <c r="D26" s="9">
-        <v>213640501360</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
-        <v>796</v>
-      </c>
-      <c r="H26" s="9">
-        <v>213640501360</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="9">
-        <v>1</v>
-      </c>
-      <c r="D27" s="9">
-        <v>497640000</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
-        <v>1</v>
-      </c>
-      <c r="H27" s="9">
-        <v>497640000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="9">
-        <v>63</v>
-      </c>
-      <c r="D28" s="9">
-        <v>29491200000</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="9">
-        <v>63</v>
-      </c>
-      <c r="H28" s="9">
-        <v>29491200000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="9">
-        <v>698</v>
-      </c>
-      <c r="D29" s="9">
-        <v>95456000000</v>
-      </c>
-      <c r="E29" s="9">
-        <v>0</v>
-      </c>
-      <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9">
-        <v>698</v>
-      </c>
-      <c r="H29" s="9">
-        <v>95456000000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="9">
-        <v>633</v>
-      </c>
-      <c r="D30" s="9">
-        <v>83447700000</v>
-      </c>
-      <c r="E30" s="9">
-        <v>340</v>
-      </c>
-      <c r="F30" s="9">
-        <v>46842700000</v>
-      </c>
-      <c r="G30" s="9">
-        <v>293</v>
-      </c>
-      <c r="H30" s="9">
-        <v>36605000000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="9">
-        <v>1</v>
-      </c>
-      <c r="D31" s="9">
-        <v>587500000</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9">
-        <v>1</v>
-      </c>
-      <c r="H31" s="9">
-        <v>587500000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="9">
-        <v>5</v>
-      </c>
-      <c r="D32" s="9">
-        <v>2295500000</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9">
-        <v>5</v>
-      </c>
-      <c r="H32" s="9">
-        <v>2295500000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="9">
-        <v>54</v>
-      </c>
-      <c r="D33" s="9">
-        <v>26130000000</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
-        <v>54</v>
-      </c>
-      <c r="H33" s="9">
-        <v>26130000000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="9">
-        <v>251</v>
-      </c>
-      <c r="D34" s="9">
-        <v>145930000000</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0</v>
-      </c>
-      <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9">
-        <v>251</v>
-      </c>
-      <c r="H34" s="9">
-        <v>145930000000</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="9">
-        <v>514</v>
-      </c>
-      <c r="D35" s="9">
-        <v>450579500000</v>
-      </c>
-      <c r="E35" s="9">
-        <v>0</v>
-      </c>
-      <c r="F35" s="9">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9">
-        <v>514</v>
-      </c>
-      <c r="H35" s="9">
-        <v>450579500000</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="9">
-        <v>784</v>
-      </c>
-      <c r="D36" s="9">
-        <v>2447616987644</v>
-      </c>
-      <c r="E36" s="9">
-        <v>0</v>
-      </c>
-      <c r="F36" s="9">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9">
-        <v>784</v>
-      </c>
-      <c r="H36" s="9">
-        <v>2447616987644</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="9">
-        <v>262</v>
-      </c>
-      <c r="D37" s="9">
-        <v>753634640000</v>
-      </c>
-      <c r="E37" s="9">
-        <v>134</v>
-      </c>
-      <c r="F37" s="9">
-        <v>385222640000</v>
-      </c>
-      <c r="G37" s="9">
-        <v>128</v>
-      </c>
-      <c r="H37" s="9">
-        <v>368412000000</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="9">
-        <v>17</v>
-      </c>
-      <c r="D38" s="9">
-        <v>12036318300</v>
-      </c>
-      <c r="E38" s="9">
-        <v>0</v>
-      </c>
-      <c r="F38" s="9">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9">
-        <v>17</v>
-      </c>
-      <c r="H38" s="9">
-        <v>12036318300</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="9">
-        <v>4</v>
-      </c>
-      <c r="D39" s="9">
-        <v>1700000000</v>
-      </c>
-      <c r="E39" s="9">
-        <v>0</v>
-      </c>
-      <c r="F39" s="9">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9">
-        <v>4</v>
-      </c>
-      <c r="H39" s="9">
-        <v>1700000000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="9">
-        <v>4</v>
-      </c>
-      <c r="D40" s="9">
-        <v>1430000000</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0</v>
-      </c>
-      <c r="F40" s="9">
-        <v>0</v>
-      </c>
-      <c r="G40" s="9">
-        <v>4</v>
-      </c>
-      <c r="H40" s="9">
-        <v>1430000000</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="9">
-        <v>203</v>
-      </c>
-      <c r="D41" s="9">
-        <v>120800000000</v>
-      </c>
-      <c r="E41" s="9">
-        <v>0</v>
-      </c>
-      <c r="F41" s="9">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9">
-        <v>203</v>
-      </c>
-      <c r="H41" s="9">
-        <v>120800000000</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="9">
-        <v>99</v>
-      </c>
-      <c r="D42" s="9">
-        <v>49865000000</v>
-      </c>
-      <c r="E42" s="9">
-        <v>0</v>
-      </c>
-      <c r="F42" s="9">
-        <v>0</v>
-      </c>
-      <c r="G42" s="9">
-        <v>99</v>
-      </c>
-      <c r="H42" s="9">
-        <v>49865000000</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="9">
-        <v>54</v>
-      </c>
-      <c r="D43" s="9">
-        <v>23605000000</v>
-      </c>
-      <c r="E43" s="9">
-        <v>0</v>
-      </c>
-      <c r="F43" s="9">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9">
-        <v>54</v>
-      </c>
-      <c r="H43" s="9">
-        <v>23605000000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="9">
-        <v>18</v>
-      </c>
-      <c r="D44" s="9">
-        <v>7003000000</v>
-      </c>
-      <c r="E44" s="9">
-        <v>0</v>
-      </c>
-      <c r="F44" s="9">
-        <v>0</v>
-      </c>
-      <c r="G44" s="9">
-        <v>18</v>
-      </c>
-      <c r="H44" s="9">
-        <v>7003000000</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="9">
-        <v>21</v>
-      </c>
-      <c r="D45" s="9">
-        <v>8110000000</v>
-      </c>
-      <c r="E45" s="9">
-        <v>0</v>
-      </c>
-      <c r="F45" s="9">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9">
-        <v>21</v>
-      </c>
-      <c r="H45" s="9">
-        <v>8110000000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="9">
-        <v>108</v>
-      </c>
-      <c r="D46" s="9">
-        <v>52024500000</v>
-      </c>
-      <c r="E46" s="9">
-        <v>0</v>
-      </c>
-      <c r="F46" s="9">
-        <v>0</v>
-      </c>
-      <c r="G46" s="9">
-        <v>108</v>
-      </c>
-      <c r="H46" s="9">
-        <v>52024500000</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="9">
-        <v>197</v>
-      </c>
-      <c r="D47" s="9">
-        <v>102996226926</v>
-      </c>
-      <c r="E47" s="9">
-        <v>0</v>
-      </c>
-      <c r="F47" s="9">
-        <v>0</v>
-      </c>
-      <c r="G47" s="9">
-        <v>197</v>
-      </c>
-      <c r="H47" s="9">
-        <v>102996226926</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="9">
-        <v>85</v>
-      </c>
-      <c r="D48" s="9">
-        <v>34593100000</v>
-      </c>
-      <c r="E48" s="9">
-        <v>0</v>
-      </c>
-      <c r="F48" s="9">
-        <v>0</v>
-      </c>
-      <c r="G48" s="9">
-        <v>85</v>
-      </c>
-      <c r="H48" s="9">
-        <v>34593100000</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="9">
-        <v>4</v>
-      </c>
-      <c r="D49" s="9">
-        <v>1015100000</v>
-      </c>
-      <c r="E49" s="9">
-        <v>1</v>
-      </c>
-      <c r="F49" s="9">
-        <v>300000000</v>
-      </c>
-      <c r="G49" s="9">
-        <v>3</v>
-      </c>
-      <c r="H49" s="9">
-        <v>715100000</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="9">
-        <v>90</v>
-      </c>
-      <c r="D50" s="9">
-        <v>44283772676</v>
-      </c>
-      <c r="E50" s="9">
-        <v>0</v>
-      </c>
-      <c r="F50" s="9">
-        <v>0</v>
-      </c>
-      <c r="G50" s="9">
-        <v>90</v>
-      </c>
-      <c r="H50" s="9">
-        <v>44283772676</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="9">
-        <v>63</v>
-      </c>
-      <c r="D51" s="9">
-        <v>30900955800</v>
-      </c>
-      <c r="E51" s="9">
-        <v>0</v>
-      </c>
-      <c r="F51" s="9">
-        <v>0</v>
-      </c>
-      <c r="G51" s="9">
-        <v>63</v>
-      </c>
-      <c r="H51" s="9">
-        <v>30900955800</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="9">
-        <v>8</v>
-      </c>
-      <c r="D52" s="9">
-        <v>2933587800</v>
-      </c>
-      <c r="E52" s="9">
-        <v>3</v>
-      </c>
-      <c r="F52" s="9">
-        <v>1063261500</v>
-      </c>
-      <c r="G52" s="9">
-        <v>5</v>
-      </c>
-      <c r="H52" s="9">
-        <v>1870326300</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="9">
-        <v>95</v>
-      </c>
-      <c r="D53" s="9">
-        <v>26971200000</v>
-      </c>
-      <c r="E53" s="9">
-        <v>0</v>
-      </c>
-      <c r="F53" s="9">
-        <v>0</v>
-      </c>
-      <c r="G53" s="9">
-        <v>95</v>
-      </c>
-      <c r="H53" s="9">
-        <v>26971200000</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="9">
-        <v>433</v>
-      </c>
-      <c r="D54" s="9">
-        <v>158470800000</v>
-      </c>
-      <c r="E54" s="9">
-        <v>0</v>
-      </c>
-      <c r="F54" s="9">
-        <v>0</v>
-      </c>
-      <c r="G54" s="9">
-        <v>433</v>
-      </c>
-      <c r="H54" s="9">
-        <v>158470800000</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="9">
-        <v>396</v>
-      </c>
-      <c r="D55" s="9">
-        <v>152637800000</v>
-      </c>
-      <c r="E55" s="9">
-        <v>229</v>
-      </c>
-      <c r="F55" s="9">
-        <v>75157100000</v>
-      </c>
-      <c r="G55" s="9">
-        <v>167</v>
-      </c>
-      <c r="H55" s="9">
-        <v>77480700000</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="9">
-        <v>3748</v>
-      </c>
-      <c r="D56" s="9">
-        <v>361904682911</v>
-      </c>
-      <c r="E56" s="9">
-        <v>0</v>
-      </c>
-      <c r="F56" s="9">
-        <v>0</v>
-      </c>
-      <c r="G56" s="9">
-        <v>3748</v>
-      </c>
-      <c r="H56" s="9">
-        <v>361904682911</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="9">
-        <v>8493</v>
-      </c>
-      <c r="D57" s="9">
-        <v>969418142652</v>
-      </c>
-      <c r="E57" s="9">
-        <v>0</v>
-      </c>
-      <c r="F57" s="9">
-        <v>0</v>
-      </c>
-      <c r="G57" s="9">
-        <v>8493</v>
-      </c>
-      <c r="H57" s="9">
-        <v>969418142652</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="9">
-        <v>16555</v>
-      </c>
-      <c r="D58" s="9">
-        <v>2020449107817</v>
-      </c>
-      <c r="E58" s="9">
-        <v>0</v>
-      </c>
-      <c r="F58" s="9">
-        <v>0</v>
-      </c>
-      <c r="G58" s="9">
-        <v>16555</v>
-      </c>
-      <c r="H58" s="9">
-        <v>2020449107817</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="9">
-        <v>22175</v>
-      </c>
-      <c r="D59" s="9">
-        <v>2870759825263</v>
-      </c>
-      <c r="E59" s="9">
-        <v>0</v>
-      </c>
-      <c r="F59" s="9">
-        <v>0</v>
-      </c>
-      <c r="G59" s="9">
-        <v>22175</v>
-      </c>
-      <c r="H59" s="9">
-        <v>2870759825263</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="9">
-        <v>23421</v>
-      </c>
-      <c r="D60" s="9">
-        <v>2981647577378</v>
-      </c>
-      <c r="E60" s="9">
-        <v>0</v>
-      </c>
-      <c r="F60" s="9">
-        <v>0</v>
-      </c>
-      <c r="G60" s="9">
-        <v>23421</v>
-      </c>
-      <c r="H60" s="9">
-        <v>2981647577378</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="9">
-        <v>24313</v>
-      </c>
-      <c r="D61" s="9">
-        <v>1546740041214</v>
-      </c>
-      <c r="E61" s="9">
-        <v>0</v>
-      </c>
-      <c r="F61" s="9">
-        <v>0</v>
-      </c>
-      <c r="G61" s="9">
-        <v>24313</v>
-      </c>
-      <c r="H61" s="9">
-        <v>1546740041214</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="9">
-        <v>17107</v>
-      </c>
-      <c r="D62" s="9">
-        <v>1237887980618</v>
-      </c>
-      <c r="E62" s="9">
-        <v>0</v>
-      </c>
-      <c r="F62" s="9">
-        <v>0</v>
-      </c>
-      <c r="G62" s="9">
-        <v>17107</v>
-      </c>
-      <c r="H62" s="9">
-        <v>1237887980618</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="9">
-        <v>16270</v>
-      </c>
-      <c r="D63" s="9">
-        <v>1183044946936</v>
-      </c>
-      <c r="E63" s="9">
-        <v>0</v>
-      </c>
-      <c r="F63" s="9">
-        <v>0</v>
-      </c>
-      <c r="G63" s="9">
-        <v>16270</v>
-      </c>
-      <c r="H63" s="9">
-        <v>1183044946936</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="9">
-        <v>12822</v>
-      </c>
-      <c r="D64" s="9">
-        <v>1136472189167</v>
-      </c>
-      <c r="E64" s="9">
-        <v>0</v>
-      </c>
-      <c r="F64" s="9">
-        <v>0</v>
-      </c>
-      <c r="G64" s="9">
-        <v>12822</v>
-      </c>
-      <c r="H64" s="9">
-        <v>1136472189167</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="9">
-        <v>58312</v>
-      </c>
-      <c r="D65" s="9">
-        <v>8132972392271.5</v>
-      </c>
-      <c r="E65" s="9">
-        <v>0</v>
-      </c>
-      <c r="F65" s="9">
-        <v>0</v>
-      </c>
-      <c r="G65" s="9">
-        <v>58312</v>
-      </c>
-      <c r="H65" s="9">
-        <v>8132972392271.5</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="9">
-        <v>104998</v>
-      </c>
-      <c r="D66" s="9">
-        <v>11557725327572.1</v>
-      </c>
-      <c r="E66" s="9">
-        <v>0</v>
-      </c>
-      <c r="F66" s="9">
-        <v>0</v>
-      </c>
-      <c r="G66" s="9">
-        <v>104998</v>
-      </c>
-      <c r="H66" s="9">
-        <v>11557725327572.1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="9">
-        <v>53579</v>
-      </c>
-      <c r="D67" s="9">
-        <v>4805865367649</v>
-      </c>
-      <c r="E67" s="9">
-        <v>2730</v>
-      </c>
-      <c r="F67" s="9">
-        <v>1276462209990</v>
-      </c>
-      <c r="G67" s="9">
-        <v>50849</v>
-      </c>
-      <c r="H67" s="9">
-        <v>3529403157659</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C68" s="9">
-        <v>62</v>
-      </c>
-      <c r="D68" s="9">
-        <v>10490880815</v>
-      </c>
-      <c r="E68" s="9">
-        <v>0</v>
-      </c>
-      <c r="F68" s="9">
-        <v>0</v>
-      </c>
-      <c r="G68" s="9">
-        <v>62</v>
-      </c>
-      <c r="H68" s="9">
-        <v>10490880815</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="9">
-        <v>250</v>
-      </c>
-      <c r="D69" s="9">
-        <v>118443628160</v>
-      </c>
-      <c r="E69" s="9">
-        <v>0</v>
-      </c>
-      <c r="F69" s="9">
-        <v>0</v>
-      </c>
-      <c r="G69" s="9">
-        <v>250</v>
-      </c>
-      <c r="H69" s="9">
-        <v>118443628160</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="9">
-        <v>180</v>
-      </c>
-      <c r="D70" s="9">
-        <v>74657943360</v>
-      </c>
-      <c r="E70" s="9">
-        <v>0</v>
-      </c>
-      <c r="F70" s="9">
-        <v>0</v>
-      </c>
-      <c r="G70" s="9">
-        <v>180</v>
-      </c>
-      <c r="H70" s="9">
-        <v>74657943360</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C71" s="9">
-        <v>140</v>
-      </c>
-      <c r="D71" s="9">
-        <v>51240000240</v>
-      </c>
-      <c r="E71" s="9">
-        <v>65</v>
-      </c>
-      <c r="F71" s="9">
-        <v>22817591790</v>
-      </c>
-      <c r="G71" s="9">
-        <v>75</v>
-      </c>
-      <c r="H71" s="9">
-        <v>28422408450</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" s="9">
-        <v>45</v>
-      </c>
-      <c r="D72" s="9">
-        <v>172809885820</v>
-      </c>
-      <c r="E72" s="9">
-        <v>0</v>
-      </c>
-      <c r="F72" s="9">
-        <v>0</v>
-      </c>
-      <c r="G72" s="9">
-        <v>45</v>
-      </c>
-      <c r="H72" s="9">
-        <v>172809885820</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" s="9">
-        <v>142</v>
-      </c>
-      <c r="D73" s="9">
-        <v>568520739644</v>
-      </c>
-      <c r="E73" s="9">
-        <v>0</v>
-      </c>
-      <c r="F73" s="9">
-        <v>0</v>
-      </c>
-      <c r="G73" s="9">
-        <v>142</v>
-      </c>
-      <c r="H73" s="9">
-        <v>568520739644</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" s="9">
-        <v>56</v>
-      </c>
-      <c r="D74" s="9">
-        <v>168467645060</v>
-      </c>
-      <c r="E74" s="9">
-        <v>34</v>
-      </c>
-      <c r="F74" s="9">
-        <v>113187595605</v>
-      </c>
-      <c r="G74" s="9">
-        <v>22</v>
-      </c>
-      <c r="H74" s="9">
         <v>55280049455</v>
       </c>
     </row>
@@ -5692,26 +4198,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B3:AN74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:AN16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="8" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="40.6640625" customWidth="1"/>
-    <col min="11" max="16" width="20.6640625" customWidth="1"/>
-    <col min="18" max="18" width="40.6640625" customWidth="1"/>
-    <col min="19" max="24" width="20.6640625" customWidth="1"/>
-    <col min="26" max="26" width="40.6640625" customWidth="1"/>
-    <col min="27" max="32" width="20.6640625" customWidth="1"/>
-    <col min="34" max="34" width="40.6640625" customWidth="1"/>
-    <col min="35" max="40" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="8" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="40.7109375" customWidth="1"/>
+    <col min="11" max="16" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="40.7109375" customWidth="1"/>
+    <col min="19" max="24" width="20.7109375" customWidth="1"/>
+    <col min="26" max="26" width="40.7109375" customWidth="1"/>
+    <col min="27" max="32" width="20.7109375" customWidth="1"/>
+    <col min="34" max="34" width="40.7109375" customWidth="1"/>
+    <col min="35" max="40" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:40">
       <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
@@ -5818,140 +4324,140 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:40">
       <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="8">
-        <v>465605</v>
+        <v>72375</v>
       </c>
       <c r="D4" s="8">
-        <v>99362594006870.516</v>
+        <v>13870942903531.92</v>
       </c>
       <c r="E4" s="8">
         <v>34863</v>
       </c>
       <c r="F4" s="8">
-        <v>7003890198188.5996</v>
+        <v>7003890198188.6</v>
       </c>
       <c r="G4" s="8">
-        <v>430742</v>
+        <v>37512</v>
       </c>
       <c r="H4" s="8">
-        <v>92358703808681.922</v>
+        <v>6867052705343.318</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>96</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4:P4" si="0">SUM(K7:K7)</f>
+        <f>SUM(K7:K7)</f>
         <v>0</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(L7:L7)</f>
         <v>0</v>
       </c>
       <c r="M4" s="8">
-        <f t="shared" si="0"/>
-        <v>21293</v>
+        <f>SUM(M7:M7)</f>
+        <v>0</v>
       </c>
       <c r="N4" s="8">
-        <f t="shared" si="0"/>
-        <v>990185148010</v>
+        <f>SUM(N7:N7)</f>
+        <v>0</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" si="0"/>
-        <v>-21293</v>
+        <f>SUM(O7:O7)</f>
+        <v>0</v>
       </c>
       <c r="P4" s="8">
-        <f t="shared" si="0"/>
-        <v>-990185148010</v>
+        <f>SUM(P7:P7)</f>
+        <v>0</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>109</v>
       </c>
       <c r="S4" s="8">
-        <f t="shared" ref="S4:X4" si="1">SUM(S7:S14)</f>
-        <v>18793</v>
+        <f>SUM(S7:S9)</f>
+        <v>0</v>
       </c>
       <c r="T4" s="8">
-        <f t="shared" si="1"/>
-        <v>1484414201978</v>
+        <f>SUM(T7:T9)</f>
+        <v>0</v>
       </c>
       <c r="U4" s="8">
-        <f t="shared" si="1"/>
-        <v>7317</v>
+        <f>SUM(U7:U9)</f>
+        <v>0</v>
       </c>
       <c r="V4" s="8">
-        <f t="shared" si="1"/>
-        <v>1036134912867.6</v>
+        <f>SUM(V7:V9)</f>
+        <v>0</v>
       </c>
       <c r="W4" s="8">
-        <f t="shared" si="1"/>
-        <v>11476</v>
+        <f>SUM(W7:W9)</f>
+        <v>0</v>
       </c>
       <c r="X4" s="8">
-        <f t="shared" si="1"/>
-        <v>448279289110.40002</v>
+        <f>SUM(X7:X9)</f>
+        <v>0</v>
       </c>
       <c r="Z4" s="7" t="s">
         <v>118</v>
       </c>
       <c r="AA4" s="8">
-        <f t="shared" ref="AA4:AF4" si="2">SUM(AA7:AA8)</f>
-        <v>107</v>
+        <f>SUM(AA7:AA7)</f>
+        <v>0</v>
       </c>
       <c r="AB4" s="8">
-        <f t="shared" si="2"/>
-        <v>1414058.91815</v>
+        <f>SUM(AB7:AB7)</f>
+        <v>0</v>
       </c>
       <c r="AC4" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(AC7:AC7)</f>
         <v>0</v>
       </c>
       <c r="AD4" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(AD7:AD7)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="8">
-        <f t="shared" si="2"/>
-        <v>107</v>
+        <f>SUM(AE7:AE7)</f>
+        <v>0</v>
       </c>
       <c r="AF4" s="8">
-        <f t="shared" si="2"/>
-        <v>1414058.91815</v>
+        <f>SUM(AF7:AF7)</f>
+        <v>0</v>
       </c>
       <c r="AH4" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:40">
       <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="8">
-        <f t="shared" ref="C5:H5" si="3">SUM(C7:C74)</f>
-        <v>446705</v>
+        <f>SUM(C7:C16)</f>
+        <v>0</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="3"/>
-        <v>97878178390833.594</v>
+        <f>SUM(D7:D16)</f>
+        <v>0</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" si="3"/>
-        <v>6253</v>
+        <f>SUM(E7:E16)</f>
+        <v>0</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="3"/>
-        <v>4977570137311</v>
+        <f>SUM(F7:F16)</f>
+        <v>0</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="3"/>
-        <v>440452</v>
+        <f>SUM(G7:G16)</f>
+        <v>0</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" si="3"/>
-        <v>92900608253522.594</v>
+        <f>SUM(H7:H16)</f>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>26</v>
@@ -5966,33 +4472,33 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:40">
       <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="8">
-        <f t="shared" ref="C6:H6" si="4">C4 - C5</f>
-        <v>18900</v>
+        <f>C4 - C5</f>
+        <v>0</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="4"/>
-        <v>1484415616036.9219</v>
+        <f>D4 - D5</f>
+        <v>0</v>
       </c>
       <c r="E6" s="8">
-        <f t="shared" si="4"/>
-        <v>28610</v>
+        <f>E4 - E5</f>
+        <v>0</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="4"/>
-        <v>2026320060877.5996</v>
+        <f>F4 - F5</f>
+        <v>0</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="4"/>
-        <v>-9710</v>
+        <f>G4 - G5</f>
+        <v>0</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" si="4"/>
-        <v>-541904444840.67188</v>
+        <f>H4 - H5</f>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>27</v>
@@ -6007,27 +4513,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:40">
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C7" s="9">
-        <v>18046</v>
+        <v>4165</v>
       </c>
       <c r="D7" s="9">
-        <v>144047775000</v>
+        <v>6158733962437</v>
       </c>
       <c r="E7" s="9">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>2865969056786</v>
       </c>
       <c r="G7" s="9">
-        <v>18046</v>
+        <v>2310</v>
       </c>
       <c r="H7" s="9">
-        <v>144047775000</v>
+        <v>3292764905651</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>108</v>
@@ -6051,1754 +4557,294 @@
         <v>-990185148010</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S7" s="9">
-        <v>5596</v>
+        <v>12899</v>
       </c>
       <c r="T7" s="9">
-        <v>139900000000</v>
+        <v>1333792501978</v>
       </c>
       <c r="U7" s="9">
-        <v>0</v>
+        <v>7267</v>
       </c>
       <c r="V7" s="9">
-        <v>0</v>
+        <v>1036115712867.6</v>
       </c>
       <c r="W7" s="9">
-        <v>5596</v>
+        <v>5632</v>
       </c>
       <c r="X7" s="9">
-        <v>139900000000</v>
+        <v>297676789110.4</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA7" s="9">
+        <v>49</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>910082.91815</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>49</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>910082.91815</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40">
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="9">
+        <v>76</v>
+      </c>
+      <c r="D8" s="9">
+        <v>363871136160</v>
+      </c>
+      <c r="E8" s="9">
+        <v>43</v>
+      </c>
+      <c r="F8" s="9">
+        <v>190226735160</v>
+      </c>
+      <c r="G8" s="9">
+        <v>33</v>
+      </c>
+      <c r="H8" s="9">
+        <v>173644401000</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S8" s="9">
+        <v>1</v>
+      </c>
+      <c r="T8" s="9">
+        <v>25000000</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <v>1</v>
+      </c>
+      <c r="X8" s="9">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40">
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="9">
+        <v>633</v>
+      </c>
+      <c r="D9" s="9">
+        <v>83447700000</v>
+      </c>
+      <c r="E9" s="9">
+        <v>293</v>
+      </c>
+      <c r="F9" s="9">
+        <v>36605000000</v>
+      </c>
+      <c r="G9" s="9">
+        <v>340</v>
+      </c>
+      <c r="H9" s="9">
+        <v>46842700000</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S9" s="9">
+        <v>107</v>
+      </c>
+      <c r="T9" s="9">
+        <v>42300000</v>
+      </c>
+      <c r="U9" s="9">
+        <v>50</v>
+      </c>
+      <c r="V9" s="9">
+        <v>19200000</v>
+      </c>
+      <c r="W9" s="9">
+        <v>57</v>
+      </c>
+      <c r="X9" s="9">
+        <v>23100000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40">
+      <c r="B10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AB7" s="9">
-        <v>503976</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>58</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>503976</v>
-      </c>
-    </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="9">
-        <v>126</v>
-      </c>
-      <c r="D8" s="9">
-        <v>16900000000</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>126</v>
-      </c>
-      <c r="H8" s="9">
-        <v>16900000000</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="S8" s="9">
-        <v>12899</v>
-      </c>
-      <c r="T8" s="9">
-        <v>1333792501978</v>
-      </c>
-      <c r="U8" s="9">
-        <v>7267</v>
-      </c>
-      <c r="V8" s="9">
-        <v>1036115712867.6</v>
-      </c>
-      <c r="W8" s="9">
-        <v>5632</v>
-      </c>
-      <c r="X8" s="9">
-        <v>297676789110.40002</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA8" s="9">
-        <v>49</v>
-      </c>
-      <c r="AB8" s="9">
-        <v>910082.91815000004</v>
-      </c>
-      <c r="AC8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="9">
-        <v>49</v>
-      </c>
-      <c r="AF8" s="9">
-        <v>910082.91815000004</v>
-      </c>
-    </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="9">
-        <v>362107623</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>2</v>
-      </c>
-      <c r="H9" s="9">
-        <v>362107623</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S9" s="9">
+      <c r="C10" s="9">
+        <v>262</v>
+      </c>
+      <c r="D10" s="9">
+        <v>753634640000</v>
+      </c>
+      <c r="E10" s="9">
+        <v>128</v>
+      </c>
+      <c r="F10" s="9">
+        <v>368412000000</v>
+      </c>
+      <c r="G10" s="9">
+        <v>134</v>
+      </c>
+      <c r="H10" s="9">
+        <v>385222640000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="B11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="9">
+        <v>4</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1015100000</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9">
+        <v>715100000</v>
+      </c>
+      <c r="G11" s="9">
         <v>1</v>
       </c>
-      <c r="T9" s="9">
-        <v>25000000</v>
-      </c>
-      <c r="U9" s="9">
-        <v>0</v>
-      </c>
-      <c r="V9" s="9">
-        <v>0</v>
-      </c>
-      <c r="W9" s="9">
-        <v>1</v>
-      </c>
-      <c r="X9" s="9">
-        <v>25000000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="9">
-        <v>4</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1477086224</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>4</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1477086224</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="S10" s="9">
-        <v>58</v>
-      </c>
-      <c r="T10" s="9">
-        <v>7200000000</v>
-      </c>
-      <c r="U10" s="9">
-        <v>0</v>
-      </c>
-      <c r="V10" s="9">
-        <v>0</v>
-      </c>
-      <c r="W10" s="9">
-        <v>58</v>
-      </c>
-      <c r="X10" s="9">
-        <v>7200000000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="9">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9">
-        <v>898308742</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>7</v>
-      </c>
       <c r="H11" s="9">
-        <v>898308742</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="S11" s="9">
-        <v>23</v>
-      </c>
-      <c r="T11" s="9">
-        <v>3400000000</v>
-      </c>
-      <c r="U11" s="9">
-        <v>0</v>
-      </c>
-      <c r="V11" s="9">
-        <v>0</v>
-      </c>
-      <c r="W11" s="9">
-        <v>23</v>
-      </c>
-      <c r="X11" s="9">
-        <v>3400000000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.3">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40">
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C12" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" s="9">
-        <v>871541119</v>
+        <v>2870806050</v>
       </c>
       <c r="E12" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12" s="9">
-        <v>0</v>
+        <v>1807544550</v>
       </c>
       <c r="G12" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H12" s="9">
-        <v>871541119</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S12" s="9">
-        <v>1</v>
-      </c>
-      <c r="T12" s="9">
-        <v>300000</v>
-      </c>
-      <c r="U12" s="9">
-        <v>0</v>
-      </c>
-      <c r="V12" s="9">
-        <v>0</v>
-      </c>
-      <c r="W12" s="9">
-        <v>1</v>
-      </c>
-      <c r="X12" s="9">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.3">
+        <v>1063261500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:40">
       <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="9">
+        <v>396</v>
+      </c>
+      <c r="D13" s="9">
+        <v>152637800000</v>
+      </c>
+      <c r="E13" s="9">
+        <v>167</v>
+      </c>
+      <c r="F13" s="9">
+        <v>77480700000</v>
+      </c>
+      <c r="G13" s="9">
+        <v>229</v>
+      </c>
+      <c r="H13" s="9">
+        <v>75157100000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40">
+      <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="9">
+        <v>53579</v>
+      </c>
+      <c r="D14" s="9">
+        <v>4805865367649</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3662</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1357353509035</v>
+      </c>
+      <c r="G14" s="9">
+        <v>49917</v>
+      </c>
+      <c r="H14" s="9">
+        <v>3448511858614</v>
+      </c>
+    </row>
+    <row r="15" spans="2:40">
+      <c r="B15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="9">
+        <v>140</v>
+      </c>
+      <c r="D15" s="9">
+        <v>50143412340</v>
+      </c>
+      <c r="E15" s="9">
+        <v>75</v>
+      </c>
+      <c r="F15" s="9">
+        <v>27325820550</v>
+      </c>
+      <c r="G15" s="9">
+        <v>65</v>
+      </c>
+      <c r="H15" s="9">
+        <v>22817591790</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40">
+      <c r="B16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="9">
+        <v>56</v>
+      </c>
+      <c r="D16" s="9">
+        <v>164862266835</v>
+      </c>
+      <c r="E16" s="9">
+        <v>22</v>
+      </c>
+      <c r="F16" s="9">
+        <v>51674671230</v>
+      </c>
+      <c r="G16" s="9">
         <v>34</v>
       </c>
-      <c r="C13" s="9">
-        <v>345</v>
-      </c>
-      <c r="D13" s="9">
-        <v>141234954051</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>345</v>
-      </c>
-      <c r="H13" s="9">
-        <v>141234954051</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="S13" s="9">
-        <v>108</v>
-      </c>
-      <c r="T13" s="9">
-        <v>54100000</v>
-      </c>
-      <c r="U13" s="9">
-        <v>0</v>
-      </c>
-      <c r="V13" s="9">
-        <v>0</v>
-      </c>
-      <c r="W13" s="9">
-        <v>108</v>
-      </c>
-      <c r="X13" s="9">
-        <v>54100000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="9">
-        <v>395</v>
-      </c>
-      <c r="D14" s="9">
-        <v>150062288231</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>395</v>
-      </c>
-      <c r="H14" s="9">
-        <v>150062288231</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="S14" s="9">
-        <v>107</v>
-      </c>
-      <c r="T14" s="9">
-        <v>42300000</v>
-      </c>
-      <c r="U14" s="9">
-        <v>50</v>
-      </c>
-      <c r="V14" s="9">
-        <v>19200000</v>
-      </c>
-      <c r="W14" s="9">
-        <v>57</v>
-      </c>
-      <c r="X14" s="9">
-        <v>23100000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="9">
-        <v>970</v>
-      </c>
-      <c r="D15" s="9">
-        <v>311870065541</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>970</v>
-      </c>
-      <c r="H15" s="9">
-        <v>311870065541</v>
-      </c>
-    </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="9">
-        <v>11678</v>
-      </c>
-      <c r="D16" s="9">
-        <v>26243397939322.801</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>11678</v>
-      </c>
       <c r="H16" s="9">
-        <v>26243397939322.801</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="9">
-        <v>10270</v>
-      </c>
-      <c r="D17" s="9">
-        <v>16635271587455.5</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>10270</v>
-      </c>
-      <c r="H17" s="9">
-        <v>16635271587455.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="9">
-        <v>4165</v>
-      </c>
-      <c r="D18" s="9">
-        <v>6158733962437</v>
-      </c>
-      <c r="E18" s="9">
-        <v>1855</v>
-      </c>
-      <c r="F18" s="9">
-        <v>2865969056786</v>
-      </c>
-      <c r="G18" s="9">
-        <v>2310</v>
-      </c>
-      <c r="H18" s="9">
-        <v>3292764905651</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="9">
-        <v>31385</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1074396237252</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>31385</v>
-      </c>
-      <c r="H19" s="9">
-        <v>1074396237252</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="9">
-        <v>51</v>
-      </c>
-      <c r="D20" s="9">
-        <v>3223300454</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>51</v>
-      </c>
-      <c r="H20" s="9">
-        <v>3223300454</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="9">
-        <v>66</v>
-      </c>
-      <c r="D21" s="9">
-        <v>8243848591</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>66</v>
-      </c>
-      <c r="H21" s="9">
-        <v>8243848591</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="9">
-        <v>227</v>
-      </c>
-      <c r="D22" s="9">
-        <v>21519601110</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>227</v>
-      </c>
-      <c r="H22" s="9">
-        <v>21519601110</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="9">
-        <v>139</v>
-      </c>
-      <c r="D23" s="9">
-        <v>799829111543.69995</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9">
-        <v>139</v>
-      </c>
-      <c r="H23" s="9">
-        <v>799829111543.69995</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="9">
-        <v>118</v>
-      </c>
-      <c r="D24" s="9">
-        <v>782720050623</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>118</v>
-      </c>
-      <c r="H24" s="9">
-        <v>782720050623</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="9">
-        <v>76</v>
-      </c>
-      <c r="D25" s="9">
-        <v>363871136160</v>
-      </c>
-      <c r="E25" s="9">
-        <v>43</v>
-      </c>
-      <c r="F25" s="9">
-        <v>190226735160</v>
-      </c>
-      <c r="G25" s="9">
-        <v>33</v>
-      </c>
-      <c r="H25" s="9">
-        <v>173644401000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="9">
-        <v>796</v>
-      </c>
-      <c r="D26" s="9">
-        <v>209068378260</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
-        <v>796</v>
-      </c>
-      <c r="H26" s="9">
-        <v>209068378260</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="9">
-        <v>1</v>
-      </c>
-      <c r="D27" s="9">
-        <v>486990000</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
-        <v>1</v>
-      </c>
-      <c r="H27" s="9">
-        <v>486990000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="9">
-        <v>63</v>
-      </c>
-      <c r="D28" s="9">
-        <v>29491200000</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="9">
-        <v>63</v>
-      </c>
-      <c r="H28" s="9">
-        <v>29491200000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="9">
-        <v>698</v>
-      </c>
-      <c r="D29" s="9">
-        <v>95456000000</v>
-      </c>
-      <c r="E29" s="9">
-        <v>0</v>
-      </c>
-      <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9">
-        <v>698</v>
-      </c>
-      <c r="H29" s="9">
-        <v>95456000000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="9">
-        <v>633</v>
-      </c>
-      <c r="D30" s="9">
-        <v>83447700000</v>
-      </c>
-      <c r="E30" s="9">
-        <v>293</v>
-      </c>
-      <c r="F30" s="9">
-        <v>36605000000</v>
-      </c>
-      <c r="G30" s="9">
-        <v>340</v>
-      </c>
-      <c r="H30" s="9">
-        <v>46842700000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="9">
-        <v>1</v>
-      </c>
-      <c r="D31" s="9">
-        <v>587500000</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9">
-        <v>1</v>
-      </c>
-      <c r="H31" s="9">
-        <v>587500000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="9">
-        <v>5</v>
-      </c>
-      <c r="D32" s="9">
-        <v>2295500000</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9">
-        <v>5</v>
-      </c>
-      <c r="H32" s="9">
-        <v>2295500000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="9">
-        <v>54</v>
-      </c>
-      <c r="D33" s="9">
-        <v>26130000000</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
-        <v>54</v>
-      </c>
-      <c r="H33" s="9">
-        <v>26130000000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="9">
-        <v>251</v>
-      </c>
-      <c r="D34" s="9">
-        <v>145930000000</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0</v>
-      </c>
-      <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9">
-        <v>251</v>
-      </c>
-      <c r="H34" s="9">
-        <v>145930000000</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="9">
-        <v>514</v>
-      </c>
-      <c r="D35" s="9">
-        <v>450579500000</v>
-      </c>
-      <c r="E35" s="9">
-        <v>0</v>
-      </c>
-      <c r="F35" s="9">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9">
-        <v>514</v>
-      </c>
-      <c r="H35" s="9">
-        <v>450579500000</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="9">
-        <v>784</v>
-      </c>
-      <c r="D36" s="9">
-        <v>2447616987644</v>
-      </c>
-      <c r="E36" s="9">
-        <v>0</v>
-      </c>
-      <c r="F36" s="9">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9">
-        <v>784</v>
-      </c>
-      <c r="H36" s="9">
-        <v>2447616987644</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="9">
-        <v>262</v>
-      </c>
-      <c r="D37" s="9">
-        <v>753634640000</v>
-      </c>
-      <c r="E37" s="9">
-        <v>128</v>
-      </c>
-      <c r="F37" s="9">
-        <v>368412000000</v>
-      </c>
-      <c r="G37" s="9">
-        <v>134</v>
-      </c>
-      <c r="H37" s="9">
-        <v>385222640000</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="9">
-        <v>17</v>
-      </c>
-      <c r="D38" s="9">
-        <v>12036318300</v>
-      </c>
-      <c r="E38" s="9">
-        <v>0</v>
-      </c>
-      <c r="F38" s="9">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9">
-        <v>17</v>
-      </c>
-      <c r="H38" s="9">
-        <v>12036318300</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="9">
-        <v>4</v>
-      </c>
-      <c r="D39" s="9">
-        <v>1700000000</v>
-      </c>
-      <c r="E39" s="9">
-        <v>0</v>
-      </c>
-      <c r="F39" s="9">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9">
-        <v>4</v>
-      </c>
-      <c r="H39" s="9">
-        <v>1700000000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="9">
-        <v>4</v>
-      </c>
-      <c r="D40" s="9">
-        <v>1430000000</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0</v>
-      </c>
-      <c r="F40" s="9">
-        <v>0</v>
-      </c>
-      <c r="G40" s="9">
-        <v>4</v>
-      </c>
-      <c r="H40" s="9">
-        <v>1430000000</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="9">
-        <v>203</v>
-      </c>
-      <c r="D41" s="9">
-        <v>120800000000</v>
-      </c>
-      <c r="E41" s="9">
-        <v>0</v>
-      </c>
-      <c r="F41" s="9">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9">
-        <v>203</v>
-      </c>
-      <c r="H41" s="9">
-        <v>120800000000</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="9">
-        <v>99</v>
-      </c>
-      <c r="D42" s="9">
-        <v>49865000000</v>
-      </c>
-      <c r="E42" s="9">
-        <v>0</v>
-      </c>
-      <c r="F42" s="9">
-        <v>0</v>
-      </c>
-      <c r="G42" s="9">
-        <v>99</v>
-      </c>
-      <c r="H42" s="9">
-        <v>49865000000</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="9">
-        <v>54</v>
-      </c>
-      <c r="D43" s="9">
-        <v>23605000000</v>
-      </c>
-      <c r="E43" s="9">
-        <v>0</v>
-      </c>
-      <c r="F43" s="9">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9">
-        <v>54</v>
-      </c>
-      <c r="H43" s="9">
-        <v>23605000000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="9">
-        <v>18</v>
-      </c>
-      <c r="D44" s="9">
-        <v>7003000000</v>
-      </c>
-      <c r="E44" s="9">
-        <v>0</v>
-      </c>
-      <c r="F44" s="9">
-        <v>0</v>
-      </c>
-      <c r="G44" s="9">
-        <v>18</v>
-      </c>
-      <c r="H44" s="9">
-        <v>7003000000</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="9">
-        <v>21</v>
-      </c>
-      <c r="D45" s="9">
-        <v>8110000000</v>
-      </c>
-      <c r="E45" s="9">
-        <v>0</v>
-      </c>
-      <c r="F45" s="9">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9">
-        <v>21</v>
-      </c>
-      <c r="H45" s="9">
-        <v>8110000000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="9">
-        <v>108</v>
-      </c>
-      <c r="D46" s="9">
-        <v>52024500000</v>
-      </c>
-      <c r="E46" s="9">
-        <v>0</v>
-      </c>
-      <c r="F46" s="9">
-        <v>0</v>
-      </c>
-      <c r="G46" s="9">
-        <v>108</v>
-      </c>
-      <c r="H46" s="9">
-        <v>52024500000</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="9">
-        <v>197</v>
-      </c>
-      <c r="D47" s="9">
-        <v>102996226926</v>
-      </c>
-      <c r="E47" s="9">
-        <v>0</v>
-      </c>
-      <c r="F47" s="9">
-        <v>0</v>
-      </c>
-      <c r="G47" s="9">
-        <v>197</v>
-      </c>
-      <c r="H47" s="9">
-        <v>102996226926</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="9">
-        <v>85</v>
-      </c>
-      <c r="D48" s="9">
-        <v>34593100000</v>
-      </c>
-      <c r="E48" s="9">
-        <v>0</v>
-      </c>
-      <c r="F48" s="9">
-        <v>0</v>
-      </c>
-      <c r="G48" s="9">
-        <v>85</v>
-      </c>
-      <c r="H48" s="9">
-        <v>34593100000</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="9">
-        <v>4</v>
-      </c>
-      <c r="D49" s="9">
-        <v>1015100000</v>
-      </c>
-      <c r="E49" s="9">
-        <v>3</v>
-      </c>
-      <c r="F49" s="9">
-        <v>715100000</v>
-      </c>
-      <c r="G49" s="9">
-        <v>1</v>
-      </c>
-      <c r="H49" s="9">
-        <v>300000000</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="9">
-        <v>90</v>
-      </c>
-      <c r="D50" s="9">
-        <v>43336055091</v>
-      </c>
-      <c r="E50" s="9">
-        <v>0</v>
-      </c>
-      <c r="F50" s="9">
-        <v>0</v>
-      </c>
-      <c r="G50" s="9">
-        <v>90</v>
-      </c>
-      <c r="H50" s="9">
-        <v>43336055091</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="9">
-        <v>63</v>
-      </c>
-      <c r="D51" s="9">
-        <v>30239644050</v>
-      </c>
-      <c r="E51" s="9">
-        <v>0</v>
-      </c>
-      <c r="F51" s="9">
-        <v>0</v>
-      </c>
-      <c r="G51" s="9">
-        <v>63</v>
-      </c>
-      <c r="H51" s="9">
-        <v>30239644050</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="9">
-        <v>8</v>
-      </c>
-      <c r="D52" s="9">
-        <v>2870806050</v>
-      </c>
-      <c r="E52" s="9">
-        <v>5</v>
-      </c>
-      <c r="F52" s="9">
-        <v>1807544550</v>
-      </c>
-      <c r="G52" s="9">
-        <v>3</v>
-      </c>
-      <c r="H52" s="9">
-        <v>1063261500</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="9">
-        <v>95</v>
-      </c>
-      <c r="D53" s="9">
-        <v>26971200000</v>
-      </c>
-      <c r="E53" s="9">
-        <v>0</v>
-      </c>
-      <c r="F53" s="9">
-        <v>0</v>
-      </c>
-      <c r="G53" s="9">
-        <v>95</v>
-      </c>
-      <c r="H53" s="9">
-        <v>26971200000</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="9">
-        <v>433</v>
-      </c>
-      <c r="D54" s="9">
-        <v>158470800000</v>
-      </c>
-      <c r="E54" s="9">
-        <v>0</v>
-      </c>
-      <c r="F54" s="9">
-        <v>0</v>
-      </c>
-      <c r="G54" s="9">
-        <v>433</v>
-      </c>
-      <c r="H54" s="9">
-        <v>158470800000</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="9">
-        <v>396</v>
-      </c>
-      <c r="D55" s="9">
-        <v>152637800000</v>
-      </c>
-      <c r="E55" s="9">
-        <v>167</v>
-      </c>
-      <c r="F55" s="9">
-        <v>77480700000</v>
-      </c>
-      <c r="G55" s="9">
-        <v>229</v>
-      </c>
-      <c r="H55" s="9">
-        <v>75157100000</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="9">
-        <v>3748</v>
-      </c>
-      <c r="D56" s="9">
-        <v>361904682911</v>
-      </c>
-      <c r="E56" s="9">
-        <v>0</v>
-      </c>
-      <c r="F56" s="9">
-        <v>0</v>
-      </c>
-      <c r="G56" s="9">
-        <v>3748</v>
-      </c>
-      <c r="H56" s="9">
-        <v>361904682911</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="9">
-        <v>8493</v>
-      </c>
-      <c r="D57" s="9">
-        <v>969418142652</v>
-      </c>
-      <c r="E57" s="9">
-        <v>0</v>
-      </c>
-      <c r="F57" s="9">
-        <v>0</v>
-      </c>
-      <c r="G57" s="9">
-        <v>8493</v>
-      </c>
-      <c r="H57" s="9">
-        <v>969418142652</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="9">
-        <v>16555</v>
-      </c>
-      <c r="D58" s="9">
-        <v>2020449107817</v>
-      </c>
-      <c r="E58" s="9">
-        <v>0</v>
-      </c>
-      <c r="F58" s="9">
-        <v>0</v>
-      </c>
-      <c r="G58" s="9">
-        <v>16555</v>
-      </c>
-      <c r="H58" s="9">
-        <v>2020449107817</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="9">
-        <v>22175</v>
-      </c>
-      <c r="D59" s="9">
-        <v>2870759825263</v>
-      </c>
-      <c r="E59" s="9">
-        <v>0</v>
-      </c>
-      <c r="F59" s="9">
-        <v>0</v>
-      </c>
-      <c r="G59" s="9">
-        <v>22175</v>
-      </c>
-      <c r="H59" s="9">
-        <v>2870759825263</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="9">
-        <v>23421</v>
-      </c>
-      <c r="D60" s="9">
-        <v>2981647577378</v>
-      </c>
-      <c r="E60" s="9">
-        <v>0</v>
-      </c>
-      <c r="F60" s="9">
-        <v>0</v>
-      </c>
-      <c r="G60" s="9">
-        <v>23421</v>
-      </c>
-      <c r="H60" s="9">
-        <v>2981647577378</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="9">
-        <v>24313</v>
-      </c>
-      <c r="D61" s="9">
-        <v>1546740041214</v>
-      </c>
-      <c r="E61" s="9">
-        <v>0</v>
-      </c>
-      <c r="F61" s="9">
-        <v>0</v>
-      </c>
-      <c r="G61" s="9">
-        <v>24313</v>
-      </c>
-      <c r="H61" s="9">
-        <v>1546740041214</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="9">
-        <v>17107</v>
-      </c>
-      <c r="D62" s="9">
-        <v>1237887980618</v>
-      </c>
-      <c r="E62" s="9">
-        <v>0</v>
-      </c>
-      <c r="F62" s="9">
-        <v>0</v>
-      </c>
-      <c r="G62" s="9">
-        <v>17107</v>
-      </c>
-      <c r="H62" s="9">
-        <v>1237887980618</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="9">
-        <v>16270</v>
-      </c>
-      <c r="D63" s="9">
-        <v>1183044946936</v>
-      </c>
-      <c r="E63" s="9">
-        <v>0</v>
-      </c>
-      <c r="F63" s="9">
-        <v>0</v>
-      </c>
-      <c r="G63" s="9">
-        <v>16270</v>
-      </c>
-      <c r="H63" s="9">
-        <v>1183044946936</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="9">
-        <v>12822</v>
-      </c>
-      <c r="D64" s="9">
-        <v>1136472189167</v>
-      </c>
-      <c r="E64" s="9">
-        <v>0</v>
-      </c>
-      <c r="F64" s="9">
-        <v>0</v>
-      </c>
-      <c r="G64" s="9">
-        <v>12822</v>
-      </c>
-      <c r="H64" s="9">
-        <v>1136472189167</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="9">
-        <v>58312</v>
-      </c>
-      <c r="D65" s="9">
-        <v>8132972392271.5</v>
-      </c>
-      <c r="E65" s="9">
-        <v>0</v>
-      </c>
-      <c r="F65" s="9">
-        <v>0</v>
-      </c>
-      <c r="G65" s="9">
-        <v>58312</v>
-      </c>
-      <c r="H65" s="9">
-        <v>8132972392271.5</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="9">
-        <v>104998</v>
-      </c>
-      <c r="D66" s="9">
-        <v>11557725327572.1</v>
-      </c>
-      <c r="E66" s="9">
-        <v>0</v>
-      </c>
-      <c r="F66" s="9">
-        <v>0</v>
-      </c>
-      <c r="G66" s="9">
-        <v>104998</v>
-      </c>
-      <c r="H66" s="9">
-        <v>11557725327572.1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="9">
-        <v>53579</v>
-      </c>
-      <c r="D67" s="9">
-        <v>4805865367649</v>
-      </c>
-      <c r="E67" s="9">
-        <v>3662</v>
-      </c>
-      <c r="F67" s="9">
-        <v>1357353509035</v>
-      </c>
-      <c r="G67" s="9">
-        <v>49917</v>
-      </c>
-      <c r="H67" s="9">
-        <v>3448511858614</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C68" s="9">
-        <v>62</v>
-      </c>
-      <c r="D68" s="9">
-        <v>10490880815</v>
-      </c>
-      <c r="E68" s="9">
-        <v>0</v>
-      </c>
-      <c r="F68" s="9">
-        <v>0</v>
-      </c>
-      <c r="G68" s="9">
-        <v>62</v>
-      </c>
-      <c r="H68" s="9">
-        <v>10490880815</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="9">
-        <v>250</v>
-      </c>
-      <c r="D69" s="9">
-        <v>115908814560</v>
-      </c>
-      <c r="E69" s="9">
-        <v>0</v>
-      </c>
-      <c r="F69" s="9">
-        <v>0</v>
-      </c>
-      <c r="G69" s="9">
-        <v>250</v>
-      </c>
-      <c r="H69" s="9">
-        <v>115908814560</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="9">
-        <v>180</v>
-      </c>
-      <c r="D70" s="9">
-        <v>73060187760</v>
-      </c>
-      <c r="E70" s="9">
-        <v>0</v>
-      </c>
-      <c r="F70" s="9">
-        <v>0</v>
-      </c>
-      <c r="G70" s="9">
-        <v>180</v>
-      </c>
-      <c r="H70" s="9">
-        <v>73060187760</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C71" s="9">
-        <v>140</v>
-      </c>
-      <c r="D71" s="9">
-        <v>50143412340</v>
-      </c>
-      <c r="E71" s="9">
-        <v>75</v>
-      </c>
-      <c r="F71" s="9">
-        <v>27325820550</v>
-      </c>
-      <c r="G71" s="9">
-        <v>65</v>
-      </c>
-      <c r="H71" s="9">
-        <v>22817591790</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" s="9">
-        <v>45</v>
-      </c>
-      <c r="D72" s="9">
-        <v>169111579245</v>
-      </c>
-      <c r="E72" s="9">
-        <v>0</v>
-      </c>
-      <c r="F72" s="9">
-        <v>0</v>
-      </c>
-      <c r="G72" s="9">
-        <v>45</v>
-      </c>
-      <c r="H72" s="9">
-        <v>169111579245</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" s="9">
-        <v>142</v>
-      </c>
-      <c r="D73" s="9">
-        <v>556353820029</v>
-      </c>
-      <c r="E73" s="9">
-        <v>0</v>
-      </c>
-      <c r="F73" s="9">
-        <v>0</v>
-      </c>
-      <c r="G73" s="9">
-        <v>142</v>
-      </c>
-      <c r="H73" s="9">
-        <v>556353820029</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" s="9">
-        <v>56</v>
-      </c>
-      <c r="D74" s="9">
-        <v>164862266835</v>
-      </c>
-      <c r="E74" s="9">
-        <v>22</v>
-      </c>
-      <c r="F74" s="9">
-        <v>51674671230</v>
-      </c>
-      <c r="G74" s="9">
-        <v>34</v>
-      </c>
-      <c r="H74" s="9">
         <v>113187595605</v>
       </c>
     </row>
@@ -7808,26 +4854,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:AN74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="8" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="40.6640625" customWidth="1"/>
-    <col min="11" max="16" width="20.6640625" customWidth="1"/>
-    <col min="18" max="18" width="40.6640625" customWidth="1"/>
-    <col min="19" max="24" width="20.6640625" customWidth="1"/>
-    <col min="26" max="26" width="40.6640625" customWidth="1"/>
-    <col min="27" max="32" width="20.6640625" customWidth="1"/>
-    <col min="34" max="34" width="40.6640625" customWidth="1"/>
-    <col min="35" max="40" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="8" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="40.7109375" customWidth="1"/>
+    <col min="11" max="16" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="40.7109375" customWidth="1"/>
+    <col min="19" max="24" width="20.7109375" customWidth="1"/>
+    <col min="26" max="26" width="40.7109375" customWidth="1"/>
+    <col min="27" max="32" width="20.7109375" customWidth="1"/>
+    <col min="34" max="34" width="40.7109375" customWidth="1"/>
+    <col min="35" max="40" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:40">
       <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
@@ -7934,140 +4980,140 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:40">
       <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="8">
-        <v>465605</v>
+        <v>465611</v>
       </c>
       <c r="D4" s="8">
-        <v>99347795749517.625</v>
+        <v>99348651481217.62</v>
       </c>
       <c r="E4" s="8">
-        <v>465491.80465717992</v>
+        <v>465491.8046571799</v>
       </c>
       <c r="F4" s="8">
-        <v>93138295502243.563</v>
+        <v>93138295502243.56</v>
       </c>
       <c r="G4" s="8">
-        <v>113.1953428201377</v>
+        <v>119.1953428201377</v>
       </c>
       <c r="H4" s="8">
-        <v>6209500247274.0615</v>
+        <v>6210355978974.062</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>96</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4:P4" si="0">SUM(K7:K18)</f>
+        <f>SUM(K7:K18)</f>
         <v>0</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(L7:L18)</f>
         <v>0</v>
       </c>
       <c r="M4" s="8">
-        <f t="shared" si="0"/>
-        <v>329004</v>
+        <f>SUM(M7:M18)</f>
+        <v>0</v>
       </c>
       <c r="N4" s="8">
-        <f t="shared" si="0"/>
-        <v>19942298022476.156</v>
+        <f>SUM(N7:N18)</f>
+        <v>0</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" si="0"/>
-        <v>-329004</v>
+        <f>SUM(O7:O18)</f>
+        <v>0</v>
       </c>
       <c r="P4" s="8">
-        <f t="shared" si="0"/>
-        <v>-19942298022476.156</v>
+        <f>SUM(P7:P18)</f>
+        <v>0</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>109</v>
       </c>
       <c r="S4" s="8">
-        <f t="shared" ref="S4:X4" si="1">SUM(S7:S14)</f>
-        <v>18793</v>
+        <f>SUM(S7:S14)</f>
+        <v>0</v>
       </c>
       <c r="T4" s="8">
-        <f t="shared" si="1"/>
-        <v>1484414201978</v>
+        <f>SUM(T7:T14)</f>
+        <v>0</v>
       </c>
       <c r="U4" s="8">
-        <f t="shared" si="1"/>
-        <v>18792</v>
+        <f>SUM(U7:U14)</f>
+        <v>0</v>
       </c>
       <c r="V4" s="8">
-        <f t="shared" si="1"/>
-        <v>1465216801977.6001</v>
+        <f>SUM(V7:V14)</f>
+        <v>0</v>
       </c>
       <c r="W4" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(W7:W14)</f>
+        <v>0</v>
       </c>
       <c r="X4" s="8">
-        <f t="shared" si="1"/>
-        <v>19197400000.399899</v>
+        <f>SUM(X7:X14)</f>
+        <v>0</v>
       </c>
       <c r="Z4" s="7" t="s">
         <v>118</v>
       </c>
       <c r="AA4" s="8">
-        <f t="shared" ref="AA4:AF4" si="2">SUM(AA7:AA8)</f>
-        <v>107</v>
+        <f>SUM(AA7:AA8)</f>
+        <v>0</v>
       </c>
       <c r="AB4" s="8">
-        <f t="shared" si="2"/>
-        <v>1414058.91815</v>
+        <f>SUM(AB7:AB8)</f>
+        <v>0</v>
       </c>
       <c r="AC4" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(AC7:AC8)</f>
         <v>0</v>
       </c>
       <c r="AD4" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(AD7:AD8)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="8">
-        <f t="shared" si="2"/>
-        <v>107</v>
+        <f>SUM(AE7:AE8)</f>
+        <v>0</v>
       </c>
       <c r="AF4" s="8">
-        <f t="shared" si="2"/>
-        <v>1414058.91815</v>
+        <f>SUM(AF7:AF8)</f>
+        <v>0</v>
       </c>
       <c r="AH4" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:40">
       <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="8">
-        <f t="shared" ref="C5:H5" si="3">SUM(C7:C74)</f>
-        <v>446705</v>
+        <f>SUM(C7:C74)</f>
+        <v>0</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="3"/>
-        <v>97863380133480.688</v>
+        <f>SUM(D7:D74)</f>
+        <v>0</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" si="3"/>
-        <v>117695.8046571798</v>
+        <f>SUM(E7:E74)</f>
+        <v>0</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="3"/>
-        <v>71730780677789.797</v>
+        <f>SUM(F7:F74)</f>
+        <v>0</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="3"/>
-        <v>329009.19534282014</v>
+        <f>SUM(G7:G74)</f>
+        <v>0</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" si="3"/>
-        <v>26132599455690.898</v>
+        <f>SUM(H7:H74)</f>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>26</v>
@@ -8082,33 +5128,33 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:40">
       <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="8">
-        <f t="shared" ref="C6:H6" si="4">C4 - C5</f>
-        <v>18900</v>
+        <f>C4 - C5</f>
+        <v>0</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="4"/>
-        <v>1484415616036.9375</v>
+        <f>D4 - D5</f>
+        <v>0</v>
       </c>
       <c r="E6" s="8">
-        <f t="shared" si="4"/>
-        <v>347796.00000000012</v>
+        <f>E4 - E5</f>
+        <v>0</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="4"/>
-        <v>21407514824453.766</v>
+        <f>F4 - F5</f>
+        <v>0</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="4"/>
-        <v>-328896</v>
+        <f>G4 - G5</f>
+        <v>0</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" si="4"/>
-        <v>-19923099208416.836</v>
+        <f>H4 - H5</f>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>27</v>
@@ -8123,7 +5169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:40">
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
@@ -8158,13 +5204,13 @@
         <v>3748</v>
       </c>
       <c r="N7" s="9">
-        <v>58886344873.046997</v>
+        <v>58886344873.047</v>
       </c>
       <c r="O7" s="9">
         <v>-3748</v>
       </c>
       <c r="P7" s="9">
-        <v>-58886344873.046997</v>
+        <v>-58886344873.047</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>110</v>
@@ -8209,7 +5255,7 @@
         <v>503976</v>
       </c>
     </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:40">
       <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
@@ -8265,13 +5311,13 @@
         <v>12899</v>
       </c>
       <c r="V8" s="9">
-        <v>1314620101977.6001</v>
+        <v>1314620101977.6</v>
       </c>
       <c r="W8" s="9">
         <v>0</v>
       </c>
       <c r="X8" s="9">
-        <v>19172400000.399899</v>
+        <v>19172400000.3999</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>120</v>
@@ -8280,7 +5326,7 @@
         <v>49</v>
       </c>
       <c r="AB8" s="9">
-        <v>910082.91815000004</v>
+        <v>910082.91815</v>
       </c>
       <c r="AC8" s="9">
         <v>0</v>
@@ -8292,10 +5338,10 @@
         <v>49</v>
       </c>
       <c r="AF8" s="9">
-        <v>910082.91815000004</v>
-      </c>
-    </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.3">
+        <v>910082.91815</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40">
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
@@ -8360,7 +5406,7 @@
         <v>25000000</v>
       </c>
     </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:40">
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
@@ -8425,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:40">
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
@@ -8490,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:40">
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
@@ -8525,13 +5571,13 @@
         <v>24170</v>
       </c>
       <c r="N12" s="9">
-        <v>953016466575.71997</v>
+        <v>953016466575.72</v>
       </c>
       <c r="O12" s="9">
         <v>-24170</v>
       </c>
       <c r="P12" s="9">
-        <v>-953016466575.71997</v>
+        <v>-953016466575.72</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>115</v>
@@ -8555,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:40">
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
@@ -8620,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:40">
       <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
@@ -8655,13 +5701,13 @@
         <v>11107</v>
       </c>
       <c r="N14" s="9">
-        <v>541524111582.73999</v>
+        <v>541524111582.74</v>
       </c>
       <c r="O14" s="9">
         <v>-11107</v>
       </c>
       <c r="P14" s="9">
-        <v>-541524111582.73999</v>
+        <v>-541524111582.74</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>117</v>
@@ -8685,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:40">
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
@@ -8720,16 +5766,16 @@
         <v>8636</v>
       </c>
       <c r="N15" s="9">
-        <v>548629320051.33002</v>
+        <v>548629320051.33</v>
       </c>
       <c r="O15" s="9">
         <v>-8636</v>
       </c>
       <c r="P15" s="9">
-        <v>-548629320051.33002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.3">
+        <v>-548629320051.33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40">
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
@@ -8737,7 +5783,7 @@
         <v>11678</v>
       </c>
       <c r="D16" s="9">
-        <v>26243397939322.801</v>
+        <v>26243397939322.8</v>
       </c>
       <c r="E16" s="9">
         <v>11678</v>
@@ -8773,15 +5819,15 @@
         <v>-4452039181669</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16">
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="9">
-        <v>10270</v>
+        <v>10276</v>
       </c>
       <c r="D17" s="9">
-        <v>16635271587455.5</v>
+        <v>16636127319155.5</v>
       </c>
       <c r="E17" s="9">
         <v>10276</v>
@@ -8790,10 +5836,10 @@
         <v>16636627319156</v>
       </c>
       <c r="G17" s="9">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="H17" s="9">
-        <v>-1355731700.5</v>
+        <v>-500000000.5</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>107</v>
@@ -8817,7 +5863,7 @@
         <v>-6369593879436</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16">
       <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
@@ -8861,7 +5907,7 @@
         <v>-2172049648624</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16">
       <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
@@ -8884,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16">
       <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
@@ -8907,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16">
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
@@ -8930,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16">
       <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
@@ -8941,19 +5987,19 @@
         <v>21425478540</v>
       </c>
       <c r="E22" s="9">
-        <v>226.00714593728819</v>
+        <v>226.0071459372882</v>
       </c>
       <c r="F22" s="9">
         <v>21425478540</v>
       </c>
       <c r="G22" s="9">
-        <v>0.99285406271175702</v>
+        <v>0.992854062711757</v>
       </c>
       <c r="H22" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16">
       <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
@@ -8961,22 +6007,22 @@
         <v>139</v>
       </c>
       <c r="D23" s="9">
-        <v>796330813821.79993</v>
+        <v>796330813821.7999</v>
       </c>
       <c r="E23" s="9">
-        <v>138.39204090433071</v>
+        <v>138.3920409043307</v>
       </c>
       <c r="F23" s="9">
-        <v>796330813821.79993</v>
+        <v>796330813821.7999</v>
       </c>
       <c r="G23" s="9">
-        <v>0.60795909566931527</v>
+        <v>0.6079590956693153</v>
       </c>
       <c r="H23" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16">
       <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
@@ -8993,13 +6039,13 @@
         <v>779296584622</v>
       </c>
       <c r="G24" s="9">
-        <v>0.51610916035235732</v>
+        <v>0.5161091603523573</v>
       </c>
       <c r="H24" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16">
       <c r="B25" s="1" t="s">
         <v>46</v>
       </c>
@@ -9016,13 +6062,13 @@
         <v>362279634240</v>
       </c>
       <c r="G25" s="9">
-        <v>0.33240928971846978</v>
+        <v>0.3324092897184698</v>
       </c>
       <c r="H25" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16">
       <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
@@ -9039,13 +6085,13 @@
         <v>208153953640</v>
       </c>
       <c r="G26" s="9">
-        <v>3.4815499291566989</v>
+        <v>3.481549929156699</v>
       </c>
       <c r="H26" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16">
       <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
@@ -9056,19 +6102,19 @@
         <v>484860000</v>
       </c>
       <c r="E27" s="9">
-        <v>0.99562619355633597</v>
+        <v>0.995626193556336</v>
       </c>
       <c r="F27" s="9">
         <v>484860000</v>
       </c>
       <c r="G27" s="9">
-        <v>4.37380644366403E-3</v>
+        <v>0.00437380644366403</v>
       </c>
       <c r="H27" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16">
       <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
@@ -9091,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16">
       <c r="B29" s="1" t="s">
         <v>50</v>
       </c>
@@ -9114,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16">
       <c r="B30" s="1" t="s">
         <v>51</v>
       </c>
@@ -9137,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16">
       <c r="B31" s="1" t="s">
         <v>52</v>
       </c>
@@ -9160,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16">
       <c r="B32" s="1" t="s">
         <v>53</v>
       </c>
@@ -9183,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8">
       <c r="B33" s="1" t="s">
         <v>54</v>
       </c>
@@ -9206,7 +6252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8">
       <c r="B34" s="1" t="s">
         <v>55</v>
       </c>
@@ -9229,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8">
       <c r="B35" s="1" t="s">
         <v>56</v>
       </c>
@@ -9252,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8">
       <c r="B36" s="1" t="s">
         <v>57</v>
       </c>
@@ -9275,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8">
       <c r="B37" s="1" t="s">
         <v>58</v>
       </c>
@@ -9298,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8">
       <c r="B38" s="1" t="s">
         <v>59</v>
       </c>
@@ -9321,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8">
       <c r="B39" s="1" t="s">
         <v>60</v>
       </c>
@@ -9344,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8">
       <c r="B40" s="1" t="s">
         <v>61</v>
       </c>
@@ -9367,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8">
       <c r="B41" s="1" t="s">
         <v>62</v>
       </c>
@@ -9390,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8">
       <c r="B42" s="1" t="s">
         <v>63</v>
       </c>
@@ -9413,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8">
       <c r="B43" s="1" t="s">
         <v>64</v>
       </c>
@@ -9436,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8">
       <c r="B44" s="1" t="s">
         <v>65</v>
       </c>
@@ -9459,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8">
       <c r="B45" s="1" t="s">
         <v>66</v>
       </c>
@@ -9482,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8">
       <c r="B46" s="1" t="s">
         <v>67</v>
       </c>
@@ -9505,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8">
       <c r="B47" s="1" t="s">
         <v>68</v>
       </c>
@@ -9528,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8">
       <c r="B48" s="1" t="s">
         <v>69</v>
       </c>
@@ -9551,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8">
       <c r="B49" s="1" t="s">
         <v>70</v>
       </c>
@@ -9574,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8">
       <c r="B50" s="1" t="s">
         <v>71</v>
       </c>
@@ -9585,19 +6631,19 @@
         <v>43146511574</v>
       </c>
       <c r="E50" s="9">
-        <v>89.606357420070225</v>
+        <v>89.60635742007022</v>
       </c>
       <c r="F50" s="9">
         <v>43146511574</v>
       </c>
       <c r="G50" s="9">
-        <v>0.39364257992977508</v>
+        <v>0.3936425799297751</v>
       </c>
       <c r="H50" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8">
       <c r="B51" s="1" t="s">
         <v>72</v>
       </c>
@@ -9608,19 +6654,19 @@
         <v>30107381700</v>
       </c>
       <c r="E51" s="9">
-        <v>62.724450194049162</v>
+        <v>62.72445019404916</v>
       </c>
       <c r="F51" s="9">
         <v>30107381700</v>
       </c>
       <c r="G51" s="9">
-        <v>0.27554980595083828</v>
+        <v>0.2755498059508383</v>
       </c>
       <c r="H51" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8">
       <c r="B52" s="1" t="s">
         <v>73</v>
       </c>
@@ -9631,19 +6677,19 @@
         <v>2858249700</v>
       </c>
       <c r="E52" s="9">
-        <v>7.9650095484506869</v>
+        <v>7.965009548450687</v>
       </c>
       <c r="F52" s="9">
         <v>2858249700</v>
       </c>
       <c r="G52" s="9">
-        <v>3.4990451549313129E-2</v>
+        <v>0.03499045154931313</v>
       </c>
       <c r="H52" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8">
       <c r="B53" s="1" t="s">
         <v>74</v>
       </c>
@@ -9666,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8">
       <c r="B54" s="1" t="s">
         <v>75</v>
       </c>
@@ -9689,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8">
       <c r="B55" s="1" t="s">
         <v>76</v>
       </c>
@@ -9712,7 +6758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8">
       <c r="B56" s="1" t="s">
         <v>77</v>
       </c>
@@ -9735,7 +6781,7 @@
         <v>361904682911</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8">
       <c r="B57" s="1" t="s">
         <v>78</v>
       </c>
@@ -9758,7 +6804,7 @@
         <v>969418142652</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8">
       <c r="B58" s="1" t="s">
         <v>79</v>
       </c>
@@ -9781,7 +6827,7 @@
         <v>2020449107817</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8">
       <c r="B59" s="1" t="s">
         <v>80</v>
       </c>
@@ -9804,7 +6850,7 @@
         <v>2870759825263</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8">
       <c r="B60" s="1" t="s">
         <v>81</v>
       </c>
@@ -9827,7 +6873,7 @@
         <v>2967472577378</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8">
       <c r="B61" s="1" t="s">
         <v>82</v>
       </c>
@@ -9850,7 +6896,7 @@
         <v>1534865041214</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8">
       <c r="B62" s="1" t="s">
         <v>83</v>
       </c>
@@ -9873,7 +6919,7 @@
         <v>967709637368</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8">
       <c r="B63" s="1" t="s">
         <v>84</v>
       </c>
@@ -9896,7 +6942,7 @@
         <v>770316386936</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8">
       <c r="B64" s="1" t="s">
         <v>85</v>
       </c>
@@ -9919,7 +6965,7 @@
         <v>677373745077</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8">
       <c r="B65" s="1" t="s">
         <v>86</v>
       </c>
@@ -9942,7 +6988,7 @@
         <v>4452039181668.5</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8">
       <c r="B66" s="1" t="s">
         <v>87</v>
       </c>
@@ -9962,10 +7008,10 @@
         <v>97434</v>
       </c>
       <c r="H66" s="9">
-        <v>6369593879436.0996</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+        <v>6369593879436.1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
       <c r="B67" s="1" t="s">
         <v>88</v>
       </c>
@@ -9988,7 +7034,7 @@
         <v>2172049648624</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8">
       <c r="B68" s="1" t="s">
         <v>89</v>
       </c>
@@ -10011,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8">
       <c r="B69" s="1" t="s">
         <v>90</v>
       </c>
@@ -10022,19 +7068,19 @@
         <v>115401851840</v>
       </c>
       <c r="E69" s="9">
-        <v>248.90654838908401</v>
+        <v>248.906548389084</v>
       </c>
       <c r="F69" s="9">
         <v>115401851840</v>
       </c>
       <c r="G69" s="9">
-        <v>1.0934516109160479</v>
+        <v>1.093451610916048</v>
       </c>
       <c r="H69" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8">
       <c r="B70" s="1" t="s">
         <v>91</v>
       </c>
@@ -10045,19 +7091,19 @@
         <v>72740636640</v>
       </c>
       <c r="E70" s="9">
-        <v>179.21271484014039</v>
+        <v>179.2127148401404</v>
       </c>
       <c r="F70" s="9">
         <v>72740636640</v>
       </c>
       <c r="G70" s="9">
-        <v>0.78728515985955028</v>
+        <v>0.7872851598595503</v>
       </c>
       <c r="H70" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8">
       <c r="B71" s="1" t="s">
         <v>92</v>
       </c>
@@ -10074,13 +7120,13 @@
         <v>49924094760</v>
       </c>
       <c r="G71" s="9">
-        <v>0.61233290211296776</v>
+        <v>0.6123329021129678</v>
       </c>
       <c r="H71" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8">
       <c r="B72" s="1" t="s">
         <v>93</v>
       </c>
@@ -10091,7 +7137,7 @@
         <v>168371917930</v>
       </c>
       <c r="E72" s="9">
-        <v>44.803178710035112</v>
+        <v>44.80317871003511</v>
       </c>
       <c r="F72" s="9">
         <v>168371917930</v>
@@ -10103,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8">
       <c r="B73" s="1" t="s">
         <v>94</v>
       </c>
@@ -10120,13 +7166,13 @@
         <v>553920436106</v>
       </c>
       <c r="G73" s="9">
-        <v>0.62108051500030115</v>
+        <v>0.6210805150003011</v>
       </c>
       <c r="H73" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8">
       <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
@@ -10137,13 +7183,13 @@
         <v>164141191190</v>
       </c>
       <c r="E74" s="9">
-        <v>55.755066839154807</v>
+        <v>55.75506683915481</v>
       </c>
       <c r="F74" s="9">
         <v>164141191190</v>
       </c>
       <c r="G74" s="9">
-        <v>0.24493316084519279</v>
+        <v>0.2449331608451928</v>
       </c>
       <c r="H74" s="9">
         <v>0</v>
